--- a/Export.xlsx
+++ b/Export.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://storaenso-my.sharepoint.com/personal/dariusz_buchalski_storaenso_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1AA90C73-5763-4926-B440-3A8A8FDD37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3C4F48-10F5-406A-98A7-785C76959CF2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1AA90C73-5763-4926-B440-3A8A8FDD37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA6E84C-DC5C-4D7E-A61E-80E834305734}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF59FA5A-8DA5-47D9-B6C7-E39A087C6F68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="9">
   <si>
     <t>Dzienne</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Brygada</t>
   </si>
   <si>
     <t>Narastające</t>
@@ -430,16 +439,25 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:AH67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -545,55 +563,55 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2456.454545454545</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1399.7894736842106</v>
+        <v>5813.739130434783</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>2964.2159383033422</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>1103.5374149659863</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2246.3478260869565</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2040.8035714285713</v>
       </c>
       <c r="I2" s="1">
-        <v>2517.3094170403588</v>
+        <v>2390.890052356021</v>
       </c>
       <c r="J2" s="1">
-        <v>2218.3846153846157</v>
+        <v>2425.7709251101323</v>
       </c>
       <c r="K2" s="1">
-        <v>1954.4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2658.8823529411766</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2486.7114093959731</v>
+        <v>2716.04347826087</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
+      <c r="O2" s="1">
+        <v>1134.6521739130435</v>
       </c>
       <c r="P2" s="1">
-        <v>1738.2272727272725</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>3729.7826086956525</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1421.4782608695652</v>
-      </c>
-      <c r="S2" s="1">
-        <v>925.17391304347836</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1369.0265486725664</v>
+        <v>5717.8125</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>2</v>
@@ -601,20 +619,20 @@
       <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1">
-        <v>1808.7619047619048</v>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1">
-        <v>3424.1739130434785</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3442.304347826087</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2825.739130434783</v>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>2</v>
@@ -622,8 +640,8 @@
       <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="1">
-        <v>1918.826086956522</v>
+      <c r="AD2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>2</v>
@@ -649,52 +667,52 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>2966.5963060686017</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1023.5354397950471</v>
+        <v>2617.9024390243903</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>2793.7254901960787</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>2134.695652173913</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1914.913043478261</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1449.6521739130435</v>
       </c>
       <c r="I3" s="1">
-        <v>2916.3428571428572</v>
+        <v>1909.304347826087</v>
       </c>
       <c r="J3" s="1">
-        <v>2793.6476426799009</v>
+        <v>5158.434782608696</v>
       </c>
       <c r="K3" s="1">
-        <v>4358.0586907449206</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1774.304347826087</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1718.8154897494303</v>
+        <v>3611.308203991131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
+      <c r="O3" s="1">
+        <v>2396.4782608695655</v>
       </c>
       <c r="P3" s="1">
-        <v>1580.0869565217392</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2202.2323462414579</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2097.7826086956525</v>
-      </c>
-      <c r="S3" s="1">
-        <v>5230.9550561797751</v>
+        <v>1799.5784543325526</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>2</v>
@@ -708,26 +726,26 @@
       <c r="W3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="1">
-        <v>1801.304347826087</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>5704.2622950819677</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1662.3021582733811</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>2061.3913043478265</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1709.5734597156397</v>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="1">
-        <v>993.26086956521749</v>
+      <c r="AD3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>2</v>
@@ -753,52 +771,52 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>2075.294117647059</v>
+        <v>4009.8876404494381</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>5294.8825065274159</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>3476.76404494382</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1506.6371681415928</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2407.5652173913045</v>
       </c>
       <c r="I4" s="1">
-        <v>2121.130434782609</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
+        <v>945.0678733031674</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2088.776978417266</v>
       </c>
       <c r="K4" s="1">
-        <v>1814.3478260869567</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3900</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4720.8791208791208</v>
+        <v>6440.5714285714284</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>2</v>
+      <c r="O4" s="1">
+        <v>1109.9325842696628</v>
       </c>
       <c r="P4" s="1">
-        <v>1905.4153846153845</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1361.4977973568282</v>
-      </c>
-      <c r="R4" s="1">
-        <v>676.43478260869574</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2728.5652173913045</v>
+        <v>675.73333333333335</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>2</v>
@@ -815,14 +833,14 @@
       <c r="X4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="1">
-        <v>3981.2</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>3289.9354838709678</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1612.6956521739132</v>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>2</v>
@@ -830,8 +848,8 @@
       <c r="AC4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="1">
-        <v>1727.0869565217392</v>
+      <c r="AD4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>2</v>
@@ -848,7 +866,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1310</v>
@@ -857,102 +875,102 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2456.454545454545</v>
+        <v>5813.739130434783</v>
       </c>
       <c r="E5" s="1">
-        <v>2041.0758620689658</v>
+        <v>5813.739130434783</v>
       </c>
       <c r="F5" s="1">
-        <v>2363.4290843806107</v>
+        <v>3508.3018867924529</v>
       </c>
       <c r="G5" s="1">
-        <v>2363.4290843806107</v>
+        <v>3081.7781043350478</v>
       </c>
       <c r="H5" s="1">
-        <v>2363.4290843806107</v>
+        <v>2823.9800995024875</v>
       </c>
       <c r="I5" s="1">
-        <v>2407.4230769230771</v>
+        <v>2748.4710178000914</v>
       </c>
       <c r="J5" s="1">
-        <v>2380.4175824175827</v>
+        <v>2693.0812854442343</v>
       </c>
       <c r="K5" s="1">
-        <v>2295.9647577092514</v>
+        <v>2696.4830917874397</v>
       </c>
       <c r="L5" s="1">
-        <v>2343.2413793103447</v>
+        <v>2696.4830917874397</v>
       </c>
       <c r="M5" s="1">
-        <v>2364.2198233562312</v>
+        <v>2696.4830917874397</v>
       </c>
       <c r="N5" s="1">
-        <v>2364.2198233562312</v>
+        <v>2696.4830917874397</v>
       </c>
       <c r="O5" s="1">
-        <v>2364.2198233562312</v>
+        <v>2494.95652173913</v>
       </c>
       <c r="P5" s="1">
-        <v>2285.4561052330569</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="Q5" s="1">
-        <v>2453.3586050037907</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="R5" s="1">
-        <v>2345.8954041204433</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="S5" s="1">
-        <v>2211.8925568997329</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="T5" s="1">
-        <v>2157.1127300613498</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="U5" s="1">
-        <v>2157.1127300613498</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="V5" s="1">
-        <v>2157.1127300613498</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="W5" s="1">
-        <v>2137.2735490869645</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="X5" s="1">
-        <v>2137.2735490869645</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="Y5" s="1">
-        <v>2236.0841261892833</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="Z5" s="1">
-        <v>2322.0957991009145</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AA5" s="1">
-        <v>2355.6185790768332</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AB5" s="1">
-        <v>2355.6185790768332</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AC5" s="1">
-        <v>2355.6185790768332</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AD5" s="1">
-        <v>2328.3597883597881</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AE5" s="1">
-        <v>2328.3597883597881</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AF5" s="1">
-        <v>2328.3597883597881</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AG5" s="1">
-        <v>2328.3597883597881</v>
+        <v>2854.7470720159486</v>
       </c>
       <c r="AH5" s="1">
-        <v>2328.3597883597881</v>
+        <v>2854.7470720159486</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>1310</v>
@@ -961,102 +979,102 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2966.5963060686017</v>
+        <v>2617.9024390243903</v>
       </c>
       <c r="E6" s="1">
-        <v>1498.6451612903227</v>
+        <v>2617.9024390243903</v>
       </c>
       <c r="F6" s="1">
-        <v>1794.534594325535</v>
+        <v>2362.4137931034484</v>
       </c>
       <c r="G6" s="1">
-        <v>1794.534594325535</v>
+        <v>2207.6390977443612</v>
       </c>
       <c r="H6" s="1">
-        <v>1794.534594325535</v>
+        <v>2012.8491620111736</v>
       </c>
       <c r="I6" s="1">
-        <v>1960.9749894022889</v>
+        <v>1991.68</v>
       </c>
       <c r="J6" s="1">
-        <v>2082.469225199131</v>
+        <v>2529.2103321033214</v>
       </c>
       <c r="K6" s="1">
-        <v>2397.0046801872072</v>
+        <v>2683.6001265422337</v>
       </c>
       <c r="L6" s="1">
-        <v>2318.8485675306956</v>
+        <v>2683.6001265422337</v>
       </c>
       <c r="M6" s="1">
-        <v>2254.6637426900584</v>
+        <v>2683.6001265422337</v>
       </c>
       <c r="N6" s="1">
-        <v>2254.6637426900584</v>
+        <v>2683.6001265422337</v>
       </c>
       <c r="O6" s="1">
-        <v>2254.6637426900584</v>
+        <v>2647.1251035625519</v>
       </c>
       <c r="P6" s="1">
-        <v>2186.673970201577</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="Q6" s="1">
-        <v>2188.0391764941028</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="R6" s="1">
-        <v>2180.4393190554633</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="S6" s="1">
-        <v>2367.0665062725552</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="T6" s="1">
-        <v>2367.0665062725552</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="U6" s="1">
-        <v>2367.0665062725552</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="V6" s="1">
-        <v>2367.0665062725552</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="W6" s="1">
-        <v>2367.0665062725552</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="X6" s="1">
-        <v>2325.6187290969897</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="Y6" s="1">
-        <v>2511.711060948081</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="Z6" s="1">
-        <v>2461.5548003398467</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AA6" s="1">
-        <v>2437.0832225471941</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AB6" s="1">
-        <v>2398.4365558912382</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AC6" s="1">
-        <v>2398.4365558912382</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AD6" s="1">
-        <v>2321.5230842455971</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AE6" s="1">
-        <v>2321.5230842455971</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AF6" s="1">
-        <v>2321.5230842455971</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AG6" s="1">
-        <v>2321.5230842455971</v>
+        <v>2557.72233201581</v>
       </c>
       <c r="AH6" s="1">
-        <v>2321.5230842455971</v>
+        <v>2557.72233201581</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>1310</v>
@@ -1065,97 +1083,97 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>2075.294117647059</v>
+        <v>4009.8876404494381</v>
       </c>
       <c r="E7" s="1">
-        <v>2075.294117647059</v>
+        <v>4009.8876404494381</v>
       </c>
       <c r="F7" s="1">
-        <v>4008.0564263322885</v>
+        <v>3743.325842696629</v>
       </c>
       <c r="G7" s="1">
-        <v>4008.0564263322885</v>
+        <v>2989.9850968703427</v>
       </c>
       <c r="H7" s="1">
-        <v>4008.0564263322885</v>
+        <v>2841.3096559378469</v>
       </c>
       <c r="I7" s="1">
-        <v>3217.5409836065578</v>
+        <v>2467.8074866310167</v>
       </c>
       <c r="J7" s="1">
-        <v>3217.5409836065578</v>
+        <v>2408.4103720405865</v>
       </c>
       <c r="K7" s="1">
-        <v>2803.2477535301668</v>
+        <v>2997.1887034659821</v>
       </c>
       <c r="L7" s="1">
-        <v>2805.3555413196668</v>
+        <v>2997.1887034659821</v>
       </c>
       <c r="M7" s="1">
-        <v>3237.678571428572</v>
+        <v>2997.1887034659821</v>
       </c>
       <c r="N7" s="1">
-        <v>3237.678571428572</v>
+        <v>2997.1887034659821</v>
       </c>
       <c r="O7" s="1">
-        <v>3237.678571428572</v>
+        <v>2761.3479359730413</v>
       </c>
       <c r="P7" s="1">
-        <v>3052.7210593763348</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="Q7" s="1">
-        <v>2778.0107334525942</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="R7" s="1">
-        <v>2481.0138248847925</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="S7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="T7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="U7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="V7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="W7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="X7" s="1">
-        <v>2511.6662180349936</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="Y7" s="1">
-        <v>2670.4393757503003</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="Z7" s="1">
-        <v>2732.6565874730027</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AA7" s="1">
-        <v>2631.4420432220045</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AB7" s="1">
-        <v>2631.4420432220045</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AC7" s="1">
-        <v>2631.4420432220045</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AD7" s="1">
-        <v>2556.4864864864867</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AE7" s="1">
-        <v>2556.4864864864867</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AF7" s="1">
-        <v>2556.4864864864867</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AG7" s="1">
-        <v>2556.4864864864867</v>
+        <v>2637.4009508716326</v>
       </c>
       <c r="AH7" s="1">
-        <v>2556.4864864864867</v>
+        <v>2637.4009508716326</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1169,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1959.1011235955054</v>
+        <v>1252.6066350710901</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>985.82608695652186</v>
+        <v>1127.6521739130435</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
@@ -1183,17 +1201,17 @@
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
-        <v>495.67741935483866</v>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>792.98076923076928</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2680.6496519721577</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3870.2950819672133</v>
+        <v>905.73913043478262</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>2</v>
@@ -1201,23 +1219,23 @@
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>2249.1017964071857</v>
+      <c r="O8" s="1">
+        <v>810.6521739130435</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1316.1758241758241</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="1">
-        <v>3424.4805194805199</v>
-      </c>
-      <c r="T8" s="1">
-        <v>2594.4827586206898</v>
+      <c r="S8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>2</v>
@@ -1225,14 +1243,14 @@
       <c r="V8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="1">
-        <v>1223.4146341463415</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1211.9469026548672</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>2546.1971830985917</v>
+      <c r="W8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>2</v>
@@ -1246,8 +1264,8 @@
       <c r="AC8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" s="1">
-        <v>2439.2147806004618</v>
+      <c r="AD8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>2</v>
@@ -1272,8 +1290,8 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>2469.8412698412694</v>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -1287,32 +1305,32 @@
       <c r="H9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
+      <c r="I9" s="1">
+        <v>669.40298507462683</v>
       </c>
       <c r="J9" s="1">
-        <v>1125.3913043478262</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4491.5492957746483</v>
+        <v>1875.7826086956522</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>1380.7912087912089</v>
+      <c r="M9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>4396.8</v>
+      <c r="O9" s="1">
+        <v>528.27906976744191</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1390.2068965517242</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>2</v>
@@ -1329,14 +1347,14 @@
       <c r="V9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="1">
-        <v>1528.6956521739132</v>
-      </c>
-      <c r="X9" s="1">
-        <v>2667.5492957746478</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>974.47826086956525</v>
+      <c r="W9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>2</v>
@@ -1376,8 +1394,8 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
+      <c r="D10" s="1">
+        <v>1929.3913043478262</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
@@ -1391,29 +1409,29 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1">
-        <v>1274.6910755148742</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1155.7107231920199</v>
-      </c>
-      <c r="K10" s="1">
-        <v>648</v>
+      <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
-        <v>1285.4676258992804</v>
+      <c r="M10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>2</v>
+      <c r="O10" s="1">
+        <v>906.78260869565224</v>
       </c>
       <c r="P10" s="1">
-        <v>802.375</v>
+        <v>1502.4782608695652</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>2</v>
@@ -1433,17 +1451,17 @@
       <c r="V10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="1">
-        <v>2066.4782608695655</v>
-      </c>
-      <c r="X10" s="1">
-        <v>1146.2608695652175</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>1844.8</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>3492.9863013698632</v>
+      <c r="W10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>2</v>
@@ -1472,7 +1490,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1316</v>
@@ -1481,102 +1499,102 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1959.1011235955054</v>
+        <v>1252.6066350710901</v>
       </c>
       <c r="E11" s="1">
-        <v>1959.1011235955054</v>
+        <v>1252.6066350710901</v>
       </c>
       <c r="F11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1196.4015645371578</v>
       </c>
       <c r="G11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1196.4015645371578</v>
       </c>
       <c r="H11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1196.4015645371578</v>
       </c>
       <c r="I11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1196.4015645371578</v>
       </c>
       <c r="J11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1087.4327628361859</v>
       </c>
       <c r="K11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1087.4327628361859</v>
       </c>
       <c r="L11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1087.4327628361859</v>
       </c>
       <c r="M11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1087.4327628361859</v>
       </c>
       <c r="N11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1087.4327628361859</v>
       </c>
       <c r="O11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1011.9620628334321</v>
       </c>
       <c r="P11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="Q11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="R11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="S11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="T11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="U11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="V11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="W11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="X11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="Y11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="Z11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AA11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AB11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AC11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AD11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AE11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AF11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AG11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
       <c r="AH11" s="1">
-        <v>1933.3094331167379</v>
+        <v>1076.5826330532213</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>1316</v>
@@ -1584,103 +1602,103 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
-        <v>2469.8412698412694</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2469.8412698412694</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1987.8755364806866</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1987.8755364806866</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1987.8755364806866</v>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>1987.8755364806866</v>
+        <v>669.40298507462683</v>
       </c>
       <c r="J12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1313.1786542923433</v>
       </c>
       <c r="K12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1313.1786542923433</v>
       </c>
       <c r="L12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1313.1786542923433</v>
       </c>
       <c r="M12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1313.1786542923433</v>
       </c>
       <c r="N12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1313.1786542923433</v>
       </c>
       <c r="O12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1051.9504643962848</v>
       </c>
       <c r="P12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="Q12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="R12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="S12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="T12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="U12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="V12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="W12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="X12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="Y12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="Z12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AA12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AB12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AC12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AD12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AE12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AF12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AG12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
       <c r="AH12" s="1">
-        <v>1987.8755364806866</v>
+        <v>1137.1511291256516</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>1316</v>
@@ -1688,98 +1706,98 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
+      <c r="D13" s="1">
+        <v>1929.3913043478262</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1929.3913043478262</v>
       </c>
       <c r="F13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="G13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="H13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="I13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="J13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="K13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="L13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="M13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="N13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1929.3913043478262</v>
       </c>
       <c r="O13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1418.0869565217392</v>
       </c>
       <c r="P13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="Q13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="R13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="S13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="T13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="U13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="V13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="W13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="X13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="Y13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="Z13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AA13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AB13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AC13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AD13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AE13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AF13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AG13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
       <c r="AH13" s="1">
-        <v>1496.5334063526836</v>
+        <v>1446.2173913043478</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1798,14 +1816,14 @@
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
+      <c r="F14" s="1">
+        <v>474.13043478260875</v>
+      </c>
+      <c r="G14" s="1">
+        <v>267.90393013100436</v>
+      </c>
+      <c r="H14" s="1">
+        <v>592.69565217391312</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>2</v>
@@ -1819,8 +1837,8 @@
       <c r="L14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="1">
-        <v>714.5</v>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>2</v>
@@ -1828,8 +1846,8 @@
       <c r="O14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
-        <v>408</v>
+      <c r="P14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>2</v>
@@ -1902,14 +1920,14 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>2</v>
+      <c r="F15" s="1">
+        <v>385.304347826087</v>
+      </c>
+      <c r="G15" s="1">
+        <v>386.21739130434787</v>
+      </c>
+      <c r="H15" s="1">
+        <v>607.04347826086962</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>2</v>
@@ -1920,11 +1938,11 @@
       <c r="K15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="1">
-        <v>558</v>
-      </c>
-      <c r="M15" s="1">
-        <v>533</v>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>2</v>
@@ -1932,8 +1950,8 @@
       <c r="O15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="1">
-        <v>1002.6666666666666</v>
+      <c r="P15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>2</v>
@@ -2006,14 +2024,14 @@
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
+      <c r="F16" s="1">
+        <v>444.52173913043481</v>
+      </c>
+      <c r="G16" s="1">
+        <v>490.11235955056179</v>
+      </c>
+      <c r="H16" s="1">
+        <v>443.47826086956525</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>2</v>
@@ -2027,8 +2045,8 @@
       <c r="L16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="1">
-        <v>707.25</v>
+      <c r="M16" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>2</v>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>1331</v>
@@ -2110,97 +2128,97 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>2</v>
+      <c r="F17" s="1">
+        <v>474.13043478260875</v>
+      </c>
+      <c r="G17" s="1">
+        <v>371.24183006535952</v>
+      </c>
+      <c r="H17" s="1">
+        <v>445.166908563135</v>
+      </c>
+      <c r="I17" s="1">
+        <v>445.166908563135</v>
+      </c>
+      <c r="J17" s="1">
+        <v>445.166908563135</v>
+      </c>
+      <c r="K17" s="1">
+        <v>445.166908563135</v>
+      </c>
+      <c r="L17" s="1">
+        <v>445.166908563135</v>
       </c>
       <c r="M17" s="1">
-        <v>714.5</v>
+        <v>445.166908563135</v>
       </c>
       <c r="N17" s="1">
-        <v>714.5</v>
+        <v>445.166908563135</v>
       </c>
       <c r="O17" s="1">
-        <v>714.5</v>
+        <v>445.166908563135</v>
       </c>
       <c r="P17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="Q17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="R17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="S17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="T17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="U17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="V17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="W17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="X17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="Y17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="Z17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AA17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AB17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AC17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AD17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AE17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AF17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AG17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
       <c r="AH17" s="1">
-        <v>561.25</v>
+        <v>445.166908563135</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>1331</v>
@@ -2214,97 +2232,97 @@
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>2</v>
+      <c r="F18" s="1">
+        <v>385.304347826087</v>
+      </c>
+      <c r="G18" s="1">
+        <v>385.76086956521743</v>
+      </c>
+      <c r="H18" s="1">
+        <v>459.52173913043481</v>
+      </c>
+      <c r="I18" s="1">
+        <v>459.52173913043481</v>
+      </c>
+      <c r="J18" s="1">
+        <v>459.52173913043481</v>
+      </c>
+      <c r="K18" s="1">
+        <v>459.52173913043481</v>
       </c>
       <c r="L18" s="1">
-        <v>558</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="M18" s="1">
-        <v>549.66666666666663</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="N18" s="1">
-        <v>549.66666666666663</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="O18" s="1">
-        <v>549.66666666666663</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="P18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="Q18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="R18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="S18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="T18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="U18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="V18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="W18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="X18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="Y18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="Z18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AA18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AB18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AC18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AD18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AE18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AF18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AG18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
       <c r="AH18" s="1">
-        <v>600</v>
+        <v>459.52173913043481</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>1331</v>
@@ -2318,92 +2336,92 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>2</v>
+      <c r="F19" s="1">
+        <v>444.52173913043481</v>
+      </c>
+      <c r="G19" s="1">
+        <v>466.93922651933707</v>
+      </c>
+      <c r="H19" s="1">
+        <v>462.1850220264318</v>
+      </c>
+      <c r="I19" s="1">
+        <v>462.1850220264318</v>
+      </c>
+      <c r="J19" s="1">
+        <v>462.1850220264318</v>
+      </c>
+      <c r="K19" s="1">
+        <v>462.1850220264318</v>
+      </c>
+      <c r="L19" s="1">
+        <v>462.1850220264318</v>
       </c>
       <c r="M19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="N19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="O19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="P19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="Q19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="R19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="S19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="T19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="U19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="V19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="W19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="X19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="Y19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="Z19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AA19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AB19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AC19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AD19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AE19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AF19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AG19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
       <c r="AH19" s="1">
-        <v>707.25</v>
+        <v>462.1850220264318</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2417,76 +2435,76 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1700.8695652173915</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4136.739130434783</v>
+        <v>3228.521739130435</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>3443.0869565217395</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>2</v>
+        <v>3449.7916666666661</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4042.826086956522</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3219.130434782609</v>
       </c>
       <c r="I20" s="1">
-        <v>4036.4615384615386</v>
+        <v>1298.7567567567569</v>
       </c>
       <c r="J20" s="1">
-        <v>2010.8571428571429</v>
+        <v>2890.4285714285716</v>
       </c>
       <c r="K20" s="1">
-        <v>4413.521739130435</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2439.913043478261</v>
-      </c>
-      <c r="M20" s="1">
-        <v>3139.9565217391305</v>
+        <v>3802.651685393258</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>2</v>
+      <c r="O20" s="1">
+        <v>3975.8666666666668</v>
       </c>
       <c r="P20" s="1">
-        <v>3984.5806451612902</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>4832.608695652174</v>
+        <v>2953.826086956522</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="1">
-        <v>3496.1842105263158</v>
-      </c>
-      <c r="T20" s="1">
-        <v>2514.375</v>
-      </c>
-      <c r="U20" s="1">
-        <v>4417</v>
+      <c r="S20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W20" s="1">
-        <v>5812.6956521739139</v>
-      </c>
-      <c r="X20" s="1">
-        <v>2266.8000000000002</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>3853.3043478260875</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>4250.3448275862065</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>3412.7638190954772</v>
+      <c r="W20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>2</v>
@@ -2494,8 +2512,8 @@
       <c r="AC20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD20" s="1">
-        <v>2677.6956521739135</v>
+      <c r="AD20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE20" s="1" t="s">
         <v>2</v>
@@ -2521,55 +2539,55 @@
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>4249.7560975609758</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1398.2608695652175</v>
+        <v>3282.2608695652175</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>1712</v>
+        <v>1636.6956521739132</v>
       </c>
       <c r="G21" s="1">
-        <v>5707.8688524590161</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
+        <v>3456.521739130435</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2799.130434782609</v>
       </c>
       <c r="I21" s="1">
-        <v>2289.1034482758619</v>
+        <v>3022.434782608696</v>
       </c>
       <c r="J21" s="1">
-        <v>2443.9565217391305</v>
+        <v>4254.521739130435</v>
       </c>
       <c r="K21" s="1">
-        <v>2634.146341463415</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4672.9565217391309</v>
-      </c>
-      <c r="M21" s="1">
-        <v>3206.217391304348</v>
+        <v>3783.1788079470198</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1">
-        <v>3864.0835266821346</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2134.826086956522</v>
-      </c>
-      <c r="R21" s="1">
-        <v>4557.4809160305349</v>
-      </c>
-      <c r="S21" s="1">
-        <v>2397.3509933774835</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2096.0655737704919</v>
+      <c r="O21" s="1">
+        <v>3166.25</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>2</v>
@@ -2577,29 +2595,29 @@
       <c r="V21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="1">
-        <v>4628.0963855421687</v>
-      </c>
-      <c r="X21" s="1">
-        <v>2743.0588235294117</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>4011.3913043478265</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>3739.9565217391309</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>2246.91466083151</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>2359.7527047913445</v>
+      <c r="W21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD21" s="1">
-        <v>2487.130434782609</v>
+      <c r="AD21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>2</v>
@@ -2625,55 +2643,55 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>1978.4117647058827</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3366.8571428571431</v>
+        <v>2419.2576419213974</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>2667.826086956522</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>2</v>
+        <v>2507.8695652173915</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4399.2219679633872</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4419.7811816192561</v>
       </c>
       <c r="I22" s="1">
-        <v>6133.1174089068818</v>
+        <v>4648.2439024390242</v>
       </c>
       <c r="J22" s="1">
-        <v>3758.7308533916853</v>
+        <v>4252.3516483516487</v>
       </c>
       <c r="K22" s="1">
-        <v>2725.875</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4438.951965065502</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2830.5652173913045</v>
-      </c>
-      <c r="N22" s="1">
-        <v>2021.2663755458516</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>2</v>
+        <v>3411.674008810573</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2879.212253829322</v>
       </c>
       <c r="P22" s="1">
-        <v>2877.8734177215188</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>1876.387665198238</v>
-      </c>
-      <c r="R22" s="1">
-        <v>4314.3243243243242</v>
-      </c>
-      <c r="S22" s="1">
-        <v>2864.9344978165941</v>
-      </c>
-      <c r="T22" s="1">
-        <v>4255.6673960612698</v>
+        <v>4290.454545454545</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>2</v>
@@ -2681,20 +2699,20 @@
       <c r="V22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="1">
-        <v>9621.2608695652179</v>
-      </c>
-      <c r="X22" s="1">
-        <v>2603.6708860759491</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1943.25</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>2488.2352941176468</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>2842</v>
+      <c r="W22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>2</v>
@@ -2702,8 +2720,8 @@
       <c r="AC22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD22" s="1">
-        <v>2471.5813953488373</v>
+      <c r="AD22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>2</v>
@@ -2720,7 +2738,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>1323</v>
@@ -2729,102 +2747,102 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1700.8695652173915</v>
+        <v>3228.521739130435</v>
       </c>
       <c r="E23" s="1">
-        <v>2918.804347826087</v>
+        <v>3228.521739130435</v>
       </c>
       <c r="F23" s="1">
-        <v>3093.5652173913045</v>
+        <v>3313.7165775401072</v>
       </c>
       <c r="G23" s="1">
-        <v>3093.5652173913045</v>
+        <v>3591.35761589404</v>
       </c>
       <c r="H23" s="1">
-        <v>3093.5652173913045</v>
+        <v>3488.7050359712234</v>
       </c>
       <c r="I23" s="1">
-        <v>3301.3220338983056</v>
+        <v>3091.1187438665361</v>
       </c>
       <c r="J23" s="1">
-        <v>3053.8356164383563</v>
+        <v>3056.8266883645238</v>
       </c>
       <c r="K23" s="1">
-        <v>3289.856603773585</v>
+        <v>3255.0896057347668</v>
       </c>
       <c r="L23" s="1">
-        <v>3164.1414790996782</v>
+        <v>3255.0896057347668</v>
       </c>
       <c r="M23" s="1">
-        <v>3161.0252100840335</v>
+        <v>3255.0896057347668</v>
       </c>
       <c r="N23" s="1">
-        <v>3161.0252100840335</v>
+        <v>3255.0896057347668</v>
       </c>
       <c r="O23" s="1">
-        <v>3161.0252100840335</v>
+        <v>3340.4897314375985</v>
       </c>
       <c r="P23" s="1">
-        <v>3226.8247422680411</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="Q23" s="1">
-        <v>3397.0230414746538</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="R23" s="1">
-        <v>3397.838709677419</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="S23" s="1">
-        <v>3407.1893244370308</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="T23" s="1">
-        <v>3330.9153318077801</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="U23" s="1">
-        <v>3411.4512711864409</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="V23" s="1">
-        <v>3411.4512711864409</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="W23" s="1">
-        <v>3591.8190725016329</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="X23" s="1">
-        <v>3501.119561910557</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="Y23" s="1">
-        <v>3524.1512652829119</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="Z23" s="1">
-        <v>3566.4453072700499</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AA23" s="1">
-        <v>3558.6703953222327</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AB23" s="1">
-        <v>3558.6703953222327</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AC23" s="1">
-        <v>3558.6703953222327</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AD23" s="1">
-        <v>3510.0036027380816</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AE23" s="1">
-        <v>3510.0036027380816</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AF23" s="1">
-        <v>3510.0036027380816</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AG23" s="1">
-        <v>3510.0036027380816</v>
+        <v>3298.7177078440582</v>
       </c>
       <c r="AH23" s="1">
-        <v>3510.0036027380816</v>
+        <v>3298.7177078440582</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>1323</v>
@@ -2833,102 +2851,102 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>4249.7560975609758</v>
+        <v>3282.2608695652175</v>
       </c>
       <c r="E24" s="1">
-        <v>1631.6167664670659</v>
+        <v>3282.2608695652175</v>
       </c>
       <c r="F24" s="1">
-        <v>1669.6529968454258</v>
+        <v>2459.4782608695655</v>
       </c>
       <c r="G24" s="1">
-        <v>2920.9724238026129</v>
+        <v>2791.8260869565215</v>
       </c>
       <c r="H24" s="1">
-        <v>2920.9724238026129</v>
+        <v>2793.6521739130435</v>
       </c>
       <c r="I24" s="1">
-        <v>2769.3656922228356</v>
+        <v>2839.4086956521742</v>
       </c>
       <c r="J24" s="1">
-        <v>2703.5107787065558</v>
+        <v>3075.2608695652175</v>
       </c>
       <c r="K24" s="1">
-        <v>2692.9109206112557</v>
+        <v>3175.0700280112042</v>
       </c>
       <c r="L24" s="1">
-        <v>2982.7044225262493</v>
+        <v>3175.0700280112042</v>
       </c>
       <c r="M24" s="1">
-        <v>3011.2406328059951</v>
+        <v>3175.0700280112042</v>
       </c>
       <c r="N24" s="1">
-        <v>3011.2406328059951</v>
+        <v>3175.0700280112042</v>
       </c>
       <c r="O24" s="1">
-        <v>3011.2406328059951</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="P24" s="1">
-        <v>3102.3599405057016</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="Q24" s="1">
-        <v>3003.3244325767687</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="R24" s="1">
-        <v>3088.940285954583</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="S24" s="1">
-        <v>3028.7963140717989</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="T24" s="1">
-        <v>2967.5623318385651</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="U24" s="1">
-        <v>2967.5623318385651</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="V24" s="1">
-        <v>2967.5623318385651</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="W24" s="1">
-        <v>3082.6076794657761</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="X24" s="1">
-        <v>3060.1122369446603</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="Y24" s="1">
-        <v>3123.7614545454544</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="Z24" s="1">
-        <v>3162.4049079754595</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AA24" s="1">
-        <v>3108.711498973305</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AB24" s="1">
-        <v>3051.2904372555981</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AC24" s="1">
-        <v>3051.2904372555981</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AD24" s="1">
-        <v>3022.1283290257329</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AE24" s="1">
-        <v>3022.1283290257329</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AF24" s="1">
-        <v>3022.1283290257329</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AG24" s="1">
-        <v>3022.1283290257329</v>
+        <v>3173.9236393176275</v>
       </c>
       <c r="AH24" s="1">
-        <v>3022.1283290257329</v>
+        <v>3173.9236393176275</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>1323</v>
@@ -2937,97 +2955,97 @@
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>1978.4117647058827</v>
+        <v>2419.2576419213974</v>
       </c>
       <c r="E25" s="1">
-        <v>2773.0566037735853</v>
+        <v>2419.2576419213974</v>
       </c>
       <c r="F25" s="1">
-        <v>2737.0223325062038</v>
+        <v>2463.6601307189544</v>
       </c>
       <c r="G25" s="1">
-        <v>2737.0223325062038</v>
+        <v>3087.8966789667902</v>
       </c>
       <c r="H25" s="1">
-        <v>2737.0223325062038</v>
+        <v>3423.8079470198677</v>
       </c>
       <c r="I25" s="1">
-        <v>3313.1456043956046</v>
+        <v>3649.7389738973898</v>
       </c>
       <c r="J25" s="1">
-        <v>3419.5922634605336</v>
+        <v>3752.1628688830788</v>
       </c>
       <c r="K25" s="1">
-        <v>3280.4429586293363</v>
+        <v>3702.7914404343669</v>
       </c>
       <c r="L25" s="1">
-        <v>3466.5520869870229</v>
+        <v>3702.7914404343669</v>
       </c>
       <c r="M25" s="1">
-        <v>3378.1938991241323</v>
+        <v>3702.7914404343669</v>
       </c>
       <c r="N25" s="1">
-        <v>3213.3032634651104</v>
+        <v>3702.7914404343669</v>
       </c>
       <c r="O25" s="1">
-        <v>3213.3032634651104</v>
+        <v>3597.8929765886292</v>
       </c>
       <c r="P25" s="1">
-        <v>3181.4841498559076</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="Q25" s="1">
-        <v>3053.1788653096578</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="R25" s="1">
-        <v>3163.7969182141451</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="S25" s="1">
-        <v>3139</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="T25" s="1">
-        <v>3224.38012380793</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="U25" s="1">
-        <v>3224.38012380793</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="V25" s="1">
-        <v>3224.38012380793</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="W25" s="1">
-        <v>3681.5131272331832</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="X25" s="1">
-        <v>3607.5879033424972</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="Y25" s="1">
-        <v>3499.4993911514002</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="Z25" s="1">
-        <v>3444.5112589559872</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AA25" s="1">
-        <v>3409.6504339440698</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AB25" s="1">
-        <v>3409.6504339440698</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AC25" s="1">
-        <v>3409.6504339440698</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AD25" s="1">
-        <v>3363.4242493696997</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AE25" s="1">
-        <v>3363.4242493696997</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AF25" s="1">
-        <v>3363.4242493696997</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AG25" s="1">
-        <v>3363.4242493696997</v>
+        <v>3666.731927710844</v>
       </c>
       <c r="AH25" s="1">
-        <v>3363.4242493696997</v>
+        <v>3666.731927710844</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3041,76 +3059,76 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>2077.304347826087</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3187.5652173913045</v>
+        <v>1947.521739130435</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>2056.9565217391305</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>2</v>
+        <v>5730.2678571428569</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2890.04347826087</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2456.739130434783</v>
       </c>
       <c r="I26" s="1">
-        <v>2042.7469879518073</v>
+        <v>2277.12</v>
       </c>
       <c r="J26" s="1">
-        <v>1675.6684491978608</v>
+        <v>1069.1739130434783</v>
       </c>
       <c r="K26" s="1">
-        <v>2567.7777777777778</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1090.2857142857142</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1447.304347826087</v>
+        <v>3081.86263096624</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>2</v>
+      <c r="O26" s="1">
+        <v>3206.8695652173915</v>
       </c>
       <c r="P26" s="1">
-        <v>3804.9836065573772</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>925.80786026200883</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2791.3821138211383</v>
-      </c>
-      <c r="S26" s="1">
-        <v>1548.0794701986756</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1818.913043478261</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1466.3677130044844</v>
+        <v>2602.6956521739135</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="1">
-        <v>4115.6331877729262</v>
-      </c>
-      <c r="X26" s="1">
-        <v>1312.0975609756099</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>3253.3333333333335</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>2680.1739130434785</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>1261.125</v>
+      <c r="W26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>2</v>
@@ -3118,8 +3136,8 @@
       <c r="AC26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD26" s="1">
-        <v>2544.3913043478265</v>
+      <c r="AD26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>2</v>
@@ -3145,55 +3163,55 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1063.8139534883721</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2434.9565217391305</v>
+        <v>3355.826086956522</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>1494.6099290780141</v>
+        <v>2373.6521739130435</v>
       </c>
       <c r="G27" s="1">
-        <v>3593.7209302325587</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>2</v>
+        <v>2089.9565217391305</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1206.913043478261</v>
       </c>
       <c r="I27" s="1">
-        <v>3482.2004889975551</v>
+        <v>3280.5652173913045</v>
       </c>
       <c r="J27" s="1">
-        <v>1469.608695652174</v>
+        <v>1980.913043478261</v>
       </c>
       <c r="K27" s="1">
-        <v>1492.8260869565217</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2224.9565217391305</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1160.608695652174</v>
+        <v>1407.4285714285713</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>2</v>
+      <c r="O27" s="1">
+        <v>1119.7826086956522</v>
       </c>
       <c r="P27" s="1">
-        <v>444.875</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2509.826086956522</v>
-      </c>
-      <c r="R27" s="1">
-        <v>2482.304347826087</v>
-      </c>
-      <c r="S27" s="1">
-        <v>2553.130434782609</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1671.7826086956522</v>
+        <v>2370</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>2</v>
@@ -3201,29 +3219,29 @@
       <c r="V27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="1">
-        <v>1798.9879518072291</v>
-      </c>
-      <c r="X27" s="1">
-        <v>1596.2608695652175</v>
+      <c r="W27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="1">
-        <v>1205.0869565217392</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>1058.5</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>1261.3570274636511</v>
+      <c r="Z27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD27" s="1">
-        <v>1377.2207084468666</v>
+      <c r="AD27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE27" s="1" t="s">
         <v>2</v>
@@ -3249,55 +3267,55 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>1255.304347826087</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1281</v>
+        <v>2791.304347826087</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>3240.6153846153848</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>2</v>
+        <v>1879.304347826087</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2891.8695652173915</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2938.826086956522</v>
       </c>
       <c r="I28" s="1">
-        <v>1569.5652173913045</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>2</v>
+        <v>2334.3913043478265</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4073.6086956521744</v>
       </c>
       <c r="K28" s="1">
-        <v>1878.521739130435</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1825.826086956522</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1832.8695652173915</v>
-      </c>
-      <c r="N28" s="1">
-        <v>2801.0232558139537</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>2</v>
+        <v>2075.4782608695655</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1431</v>
       </c>
       <c r="P28" s="1">
-        <v>2296.9565217391305</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>3167.8289473684213</v>
-      </c>
-      <c r="R28" s="1">
-        <v>3928.9565217391309</v>
-      </c>
-      <c r="S28" s="1">
-        <v>1830.125</v>
-      </c>
-      <c r="T28" s="1">
-        <v>3152.608695652174</v>
+        <v>3159.6521739130435</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>2</v>
@@ -3305,20 +3323,20 @@
       <c r="V28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="1">
-        <v>4276.04347826087</v>
-      </c>
-      <c r="X28" s="1">
-        <v>2239.1739130434785</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>4054.9056603773588</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>3469.6956521739135</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>3229.9565217391305</v>
+      <c r="W28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>2</v>
@@ -3326,8 +3344,8 @@
       <c r="AC28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="1">
-        <v>2113.7647058823532</v>
+      <c r="AD28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>2</v>
@@ -3344,7 +3362,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
         <v>1324</v>
@@ -3353,102 +3371,102 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>2077.304347826087</v>
+        <v>1947.521739130435</v>
       </c>
       <c r="E29" s="1">
-        <v>2632.434782608696</v>
+        <v>1947.521739130435</v>
       </c>
       <c r="F29" s="1">
-        <v>2440.608695652174</v>
+        <v>3813.898678414097</v>
       </c>
       <c r="G29" s="1">
-        <v>2440.608695652174</v>
+        <v>3503.2456140350882</v>
       </c>
       <c r="H29" s="1">
-        <v>2440.608695652174</v>
+        <v>3239.9015317286653</v>
       </c>
       <c r="I29" s="1">
-        <v>2348.6239554317549</v>
+        <v>3076.014525646845</v>
       </c>
       <c r="J29" s="1">
-        <v>2232.5864453665286</v>
+        <v>2729.3578670672173</v>
       </c>
       <c r="K29" s="1">
-        <v>2288.2583621683971</v>
+        <v>2815.3321976149909</v>
       </c>
       <c r="L29" s="1">
-        <v>2121.7080436941415</v>
+        <v>2815.3321976149909</v>
       </c>
       <c r="M29" s="1">
-        <v>2032.5883366848607</v>
+        <v>2815.3321976149909</v>
       </c>
       <c r="N29" s="1">
-        <v>2032.5883366848607</v>
+        <v>2815.3321976149909</v>
       </c>
       <c r="O29" s="1">
-        <v>2032.5883366848607</v>
+        <v>2860.5625313912606</v>
       </c>
       <c r="P29" s="1">
-        <v>2175.3724247226628</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="Q29" s="1">
-        <v>2040.5230914231861</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="R29" s="1">
-        <v>2100.5853024062435</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="S29" s="1">
-        <v>2051.1804184761154</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="T29" s="1">
-        <v>2031.8458197611294</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="U29" s="1">
-        <v>1989.614869390489</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="V29" s="1">
-        <v>1989.614869390489</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="W29" s="1">
-        <v>2141.0482115085538</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="X29" s="1">
-        <v>2091.3596491228072</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="Y29" s="1">
-        <v>2164.4307439375257</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="Z29" s="1">
-        <v>2195.0070885423379</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AA29" s="1">
-        <v>2140.5995873285592</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AB29" s="1">
-        <v>2140.5995873285592</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AC29" s="1">
-        <v>2140.5995873285592</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AD29" s="1">
-        <v>2161.9519484998277</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AE29" s="1">
-        <v>2161.9519484998277</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AF29" s="1">
-        <v>2161.9519484998277</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AG29" s="1">
-        <v>2161.9519484998277</v>
+        <v>2833.8586222422323</v>
       </c>
       <c r="AH29" s="1">
-        <v>2161.9519484998277</v>
+        <v>2833.8586222422323</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>1324</v>
@@ -3457,102 +3475,102 @@
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>1063.8139534883721</v>
+        <v>3355.826086956522</v>
       </c>
       <c r="E30" s="1">
-        <v>1772.4943820224719</v>
+        <v>3355.826086956522</v>
       </c>
       <c r="F30" s="1">
-        <v>1682.970297029703</v>
+        <v>2864.739130434783</v>
       </c>
       <c r="G30" s="1">
-        <v>2154.3545611015488</v>
+        <v>2606.478260869565</v>
       </c>
       <c r="H30" s="1">
-        <v>2154.3545611015488</v>
+        <v>2256.5869565217395</v>
       </c>
       <c r="I30" s="1">
-        <v>2406.7193308550186</v>
+        <v>2461.3826086956524</v>
       </c>
       <c r="J30" s="1">
-        <v>2241.6845329249618</v>
+        <v>2381.304347826087</v>
       </c>
       <c r="K30" s="1">
-        <v>2129.55078125</v>
+        <v>2252.6792452830191</v>
       </c>
       <c r="L30" s="1">
-        <v>2141.9762174405437</v>
+        <v>2252.6792452830191</v>
       </c>
       <c r="M30" s="1">
-        <v>2028.8927855711424</v>
+        <v>2252.6792452830191</v>
       </c>
       <c r="N30" s="1">
-        <v>2028.8927855711424</v>
+        <v>2252.6792452830191</v>
       </c>
       <c r="O30" s="1">
-        <v>2028.8927855711424</v>
+        <v>2109.5109890109893</v>
       </c>
       <c r="P30" s="1">
-        <v>1858.8729874776386</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="Q30" s="1">
-        <v>1919.5863746958639</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="R30" s="1">
-        <v>1967.5927299703262</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="S30" s="1">
-        <v>2013.6192754613808</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="T30" s="1">
-        <v>1988.7072243346004</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="U30" s="1">
-        <v>1988.7072243346004</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="V30" s="1">
-        <v>1988.7072243346004</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="W30" s="1">
-        <v>1977.003121748179</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="X30" s="1">
-        <v>1952.6339223598159</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="Y30" s="1">
-        <v>1952.6339223598159</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="Z30" s="1">
-        <v>1907.6657512750096</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AA30" s="1">
-        <v>1857.5119970468804</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AB30" s="1">
-        <v>1815.3190029727873</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AC30" s="1">
-        <v>1815.3190029727873</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AD30" s="1">
-        <v>1797.6758476901127</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AE30" s="1">
-        <v>1797.6758476901127</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AF30" s="1">
-        <v>1797.6758476901127</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AG30" s="1">
-        <v>1797.6758476901127</v>
+        <v>2135.8814814814814</v>
       </c>
       <c r="AH30" s="1">
-        <v>1797.6758476901127</v>
+        <v>2135.8814814814814</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
         <v>1324</v>
@@ -3561,97 +3579,97 @@
         <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>1255.304347826087</v>
+        <v>2791.304347826087</v>
       </c>
       <c r="E31" s="1">
-        <v>1268.1521739130435</v>
+        <v>2791.304347826087</v>
       </c>
       <c r="F31" s="1">
-        <v>1855.374045801527</v>
+        <v>2335.304347826087</v>
       </c>
       <c r="G31" s="1">
-        <v>1855.374045801527</v>
+        <v>2520.8260869565215</v>
       </c>
       <c r="H31" s="1">
-        <v>1855.374045801527</v>
+        <v>2625.326086956522</v>
       </c>
       <c r="I31" s="1">
-        <v>1786.7401392111374</v>
+        <v>2567.1391304347831</v>
       </c>
       <c r="J31" s="1">
-        <v>1786.7401392111374</v>
+        <v>2818.217391304348</v>
       </c>
       <c r="K31" s="1">
-        <v>1806.0714285714289</v>
+        <v>2712.1118012422367</v>
       </c>
       <c r="L31" s="1">
-        <v>1809.5083207261725</v>
+        <v>2712.1118012422367</v>
       </c>
       <c r="M31" s="1">
-        <v>1812.9703608247428</v>
+        <v>2712.1118012422367</v>
       </c>
       <c r="N31" s="1">
-        <v>1933.1918505942278</v>
+        <v>2712.1118012422367</v>
       </c>
       <c r="O31" s="1">
-        <v>1933.1918505942278</v>
+        <v>2551.9728260869565</v>
       </c>
       <c r="P31" s="1">
-        <v>1975.0876314471714</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="Q31" s="1">
-        <v>2196.8120668569104</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="R31" s="1">
-        <v>2345.3000372717115</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="S31" s="1">
-        <v>2303.0003421142669</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="T31" s="1">
-        <v>2364.9762131303528</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="U31" s="1">
-        <v>2364.9762131303528</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="V31" s="1">
-        <v>2364.9762131303528</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="W31" s="1">
-        <v>2494.9039314218153</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="X31" s="1">
-        <v>2478.6244118461118</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="Y31" s="1">
-        <v>2545.0689289501593</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="Z31" s="1">
-        <v>2598.2083958020994</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AA31" s="1">
-        <v>2632.5425330812855</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AB31" s="1">
-        <v>2632.5425330812855</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AC31" s="1">
-        <v>2632.5425330812855</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AD31" s="1">
-        <v>2612.507950931395</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AE31" s="1">
-        <v>2612.507950931395</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AF31" s="1">
-        <v>2612.507950931395</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AG31" s="1">
-        <v>2612.507950931395</v>
+        <v>2619.4927536231885</v>
       </c>
       <c r="AH31" s="1">
-        <v>2612.507950931395</v>
+        <v>2619.4927536231885</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3664,44 +3682,44 @@
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>823.43478260869574</v>
+      <c r="D32" s="1">
+        <v>1507.6956521739132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>537.34177215189879</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>2</v>
+        <v>442.95652173913049</v>
+      </c>
+      <c r="G32" s="1">
+        <v>434.08695652173918</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2204.0869565217395</v>
       </c>
       <c r="I32" s="1">
-        <v>1674.0265486725664</v>
+        <v>1205.6842105263156</v>
       </c>
       <c r="J32" s="1">
-        <v>1821.0352941176468</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1784.8717948717947</v>
-      </c>
-      <c r="M32" s="1">
-        <v>832.57142857142856</v>
+        <v>664.304347826087</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1674.9220489977729</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>2</v>
+      <c r="O32" s="1">
+        <v>581.08695652173913</v>
       </c>
       <c r="P32" s="1">
-        <v>1476.6515837104071</v>
+        <v>1412.2388059701493</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>2</v>
@@ -3721,20 +3739,20 @@
       <c r="V32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="1">
-        <v>398.21739130434787</v>
-      </c>
-      <c r="X32" s="1">
-        <v>1095.6521739130435</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>1606.2616822429907</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>1047.5217391304348</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>2671.1739130434785</v>
+      <c r="W32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>2</v>
@@ -3742,8 +3760,8 @@
       <c r="AC32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD32" s="1">
-        <v>1358.3259911894274</v>
+      <c r="AD32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>2</v>
@@ -3768,44 +3786,44 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1812.3250564334085</v>
+      <c r="D33" s="1">
+        <v>1399.9565217391305</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>1676.0930232558142</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>2</v>
+        <v>1294.8260869565217</v>
+      </c>
+      <c r="G33" s="1">
+        <v>586.54945054945063</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2087.941888619855</v>
       </c>
       <c r="I33" s="1">
-        <v>1350.7826086956522</v>
+        <v>905.1627906976745</v>
       </c>
       <c r="J33" s="1">
-        <v>1493.8303341902315</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1">
-        <v>668.74493927125502</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1175.3917050691246</v>
+        <v>751.82608695652175</v>
+      </c>
+      <c r="K33" s="1">
+        <v>864.8611111111112</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>2</v>
+      <c r="O33" s="1">
+        <v>968.08695652173924</v>
+      </c>
+      <c r="P33" s="1">
+        <v>619.12087912087918</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>2</v>
@@ -3816,8 +3834,8 @@
       <c r="S33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T33" s="1">
-        <v>1422.1714285714286</v>
+      <c r="T33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>2</v>
@@ -3825,29 +3843,29 @@
       <c r="V33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W33" s="1">
-        <v>363.90697674418607</v>
-      </c>
-      <c r="X33" s="1">
-        <v>895.56521739130437</v>
+      <c r="W33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="1">
-        <v>924</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>2016.7826086956522</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1355.8620689655172</v>
+      <c r="Z33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD33" s="1">
-        <v>1290.7826086956522</v>
+      <c r="AD33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>2</v>
@@ -3873,28 +3891,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>1751.6307692307691</v>
-      </c>
-      <c r="E34" s="1">
-        <v>830.34482758620686</v>
+        <v>1371.3913043478262</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>1269.109947643979</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>2</v>
+        <v>1065.7826086956522</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2328.521739130435</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1678.5267857142858</v>
       </c>
       <c r="I34" s="1">
-        <v>600</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>2</v>
+        <v>858.39130434782612</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1594.3636363636363</v>
+      </c>
+      <c r="K34" s="1">
+        <v>650.60869565217399</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>2</v>
@@ -3905,23 +3923,23 @@
       <c r="N34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1120.135135135135</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1481.1864406779659</v>
+      <c r="O34" s="1">
+        <v>2445.5172413793102</v>
+      </c>
+      <c r="P34" s="1">
+        <v>939.32203389830522</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="1">
-        <v>1142.0833333333333</v>
+      <c r="T34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>2</v>
@@ -3929,11 +3947,11 @@
       <c r="V34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="1">
-        <v>670.43478260869574</v>
-      </c>
-      <c r="X34" s="1">
-        <v>1197.3913043478262</v>
+      <c r="W34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>2</v>
@@ -3941,8 +3959,8 @@
       <c r="Z34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="1">
-        <v>1847.608695652174</v>
+      <c r="AA34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>2</v>
@@ -3950,8 +3968,8 @@
       <c r="AC34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD34" s="1">
-        <v>1770.7826086956522</v>
+      <c r="AD34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>2</v>
@@ -3968,7 +3986,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
         <v>1326</v>
@@ -3976,103 +3994,103 @@
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
+      <c r="D35" s="1">
+        <v>1507.6956521739132</v>
       </c>
       <c r="E35" s="1">
-        <v>823.43478260869574</v>
+        <v>1507.6956521739132</v>
       </c>
       <c r="F35" s="1">
-        <v>706.93298969072168</v>
+        <v>975.32608695652186</v>
       </c>
       <c r="G35" s="1">
-        <v>706.93298969072168</v>
+        <v>794.91304347826087</v>
       </c>
       <c r="H35" s="1">
-        <v>706.93298969072168</v>
+        <v>1147.2065217391305</v>
       </c>
       <c r="I35" s="1">
-        <v>1062.8990228013031</v>
+        <v>1157.2162162162163</v>
       </c>
       <c r="J35" s="1">
-        <v>1257.8221415607986</v>
+        <v>1072.6119402985075</v>
       </c>
       <c r="K35" s="1">
-        <v>1257.8221415607986</v>
+        <v>1223.7786472889882</v>
       </c>
       <c r="L35" s="1">
-        <v>1323.1796502384736</v>
+        <v>1223.7786472889882</v>
       </c>
       <c r="M35" s="1">
-        <v>1216.3930348258705</v>
+        <v>1223.7786472889882</v>
       </c>
       <c r="N35" s="1">
-        <v>1216.3930348258705</v>
+        <v>1223.7786472889882</v>
       </c>
       <c r="O35" s="1">
-        <v>1216.3930348258705</v>
+        <v>1150.564635958395</v>
       </c>
       <c r="P35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="Q35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="R35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="S35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="T35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="U35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="V35" s="1">
-        <v>1238.2377516141285</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="W35" s="1">
-        <v>1113.3074684772066</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="X35" s="1">
-        <v>1111.0216718266254</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="Y35" s="1">
-        <v>1164.2652599849284</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="Z35" s="1">
-        <v>1152.1729340238687</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AA35" s="1">
-        <v>1294.7439298102429</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AB35" s="1">
-        <v>1294.7439298102429</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AC35" s="1">
-        <v>1294.7439298102429</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AD35" s="1">
-        <v>1300.1344537815128</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AE35" s="1">
-        <v>1300.1344537815128</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AF35" s="1">
-        <v>1300.1344537815128</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AG35" s="1">
-        <v>1300.1344537815128</v>
+        <v>1154.83556638246</v>
       </c>
       <c r="AH35" s="1">
-        <v>1300.1344537815128</v>
+        <v>1154.83556638246</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
         <v>1326</v>
@@ -4080,103 +4098,103 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
+      <c r="D36" s="1">
+        <v>1399.9565217391305</v>
       </c>
       <c r="E36" s="1">
-        <v>1812.3250564334085</v>
+        <v>1399.9565217391305</v>
       </c>
       <c r="F36" s="1">
-        <v>1745.2233676975945</v>
+        <v>1347.3913043478262</v>
       </c>
       <c r="G36" s="1">
-        <v>1745.2233676975945</v>
+        <v>1095.6218181818183</v>
       </c>
       <c r="H36" s="1">
-        <v>1745.2233676975945</v>
+        <v>1324.8322147651006</v>
       </c>
       <c r="I36" s="1">
-        <v>1609.107276819205</v>
+        <v>1243.4715960324618</v>
       </c>
       <c r="J36" s="1">
-        <v>1583.0662020905925</v>
+        <v>1159.0216579536971</v>
       </c>
       <c r="K36" s="1">
-        <v>1583.0662020905925</v>
+        <v>1118.16077170418</v>
       </c>
       <c r="L36" s="1">
-        <v>1468.3697308278315</v>
+        <v>1118.16077170418</v>
       </c>
       <c r="M36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1118.16077170418</v>
       </c>
       <c r="N36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1118.16077170418</v>
       </c>
       <c r="O36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1098.8235294117646</v>
       </c>
       <c r="P36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="Q36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="R36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="S36" s="1">
-        <v>1415.4556803995008</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="T36" s="1">
-        <v>1415.9115593483323</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="U36" s="1">
-        <v>1415.9115593483323</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="V36" s="1">
-        <v>1415.9115593483323</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="W36" s="1">
-        <v>1265.5252659574469</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="X36" s="1">
-        <v>1216.4532871972319</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="Y36" s="1">
-        <v>1216.4532871972319</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="Z36" s="1">
-        <v>1207.8589420654912</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AA36" s="1">
-        <v>1300.1239771881976</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AB36" s="1">
-        <v>1305.5505819158461</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AC36" s="1">
-        <v>1305.5505819158461</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AD36" s="1">
-        <v>1304.172077922078</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AE36" s="1">
-        <v>1304.172077922078</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AF36" s="1">
-        <v>1304.172077922078</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AG36" s="1">
-        <v>1304.172077922078</v>
+        <v>1054.4382308083375</v>
       </c>
       <c r="AH36" s="1">
-        <v>1304.172077922078</v>
+        <v>1054.4382308083375</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
         <v>1326</v>
@@ -4185,97 +4203,97 @@
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>1751.6307692307691</v>
+        <v>1371.3913043478262</v>
       </c>
       <c r="E37" s="1">
-        <v>1224.3157894736842</v>
+        <v>1371.3913043478262</v>
       </c>
       <c r="F37" s="1">
-        <v>1239.2994746059544</v>
+        <v>1218.5869565217392</v>
       </c>
       <c r="G37" s="1">
-        <v>1239.2994746059544</v>
+        <v>1588.5652173913043</v>
       </c>
       <c r="H37" s="1">
-        <v>1239.2994746059544</v>
+        <v>1610.6126914660833</v>
       </c>
       <c r="I37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1459.3793706293707</v>
       </c>
       <c r="J37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1481.1510263929617</v>
       </c>
       <c r="K37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1361.3111668757845</v>
       </c>
       <c r="L37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1361.3111668757845</v>
       </c>
       <c r="M37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1361.3111668757845</v>
       </c>
       <c r="N37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1361.3111668757845</v>
       </c>
       <c r="O37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1491.4877173613029</v>
       </c>
       <c r="P37" s="1">
-        <v>1055.7303370786515</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="Q37" s="1">
-        <v>1069.7067448680352</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="R37" s="1">
-        <v>1092.1441774491684</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="S37" s="1">
-        <v>1092.1441774491684</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="T37" s="1">
-        <v>1098.0097879282218</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="U37" s="1">
-        <v>1098.0097879282218</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="V37" s="1">
-        <v>1098.0097879282218</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="W37" s="1">
-        <v>1030.467032967033</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="X37" s="1">
-        <v>1053.238434163701</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="Y37" s="1">
-        <v>1053.238434163701</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="Z37" s="1">
-        <v>1053.238434163701</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AA37" s="1">
-        <v>1148.5960334029226</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AB37" s="1">
-        <v>1148.5960334029226</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AC37" s="1">
-        <v>1148.5960334029226</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AD37" s="1">
-        <v>1215.279589934762</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AE37" s="1">
-        <v>1215.279589934762</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AF37" s="1">
-        <v>1215.279589934762</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AG37" s="1">
-        <v>1215.279589934762</v>
+        <v>1465.7684210526318</v>
       </c>
       <c r="AH37" s="1">
-        <v>1215.279589934762</v>
+        <v>1465.7684210526318</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4294,23 +4312,23 @@
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>2</v>
+      <c r="F38" s="1">
+        <v>885.77464788732402</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1826.3181818181818</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1360.8260869565217</v>
       </c>
       <c r="I38" s="1">
-        <v>1838.0869565217392</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>2</v>
+        <v>2035.6363636363637</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1494.8201438848919</v>
       </c>
       <c r="K38" s="1">
-        <v>2890.957683741648</v>
+        <v>2131.826086956522</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>2</v>
@@ -4321,11 +4339,11 @@
       <c r="N38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>2</v>
+      <c r="O38" s="1">
+        <v>1308.2096069868996</v>
+      </c>
+      <c r="P38" s="1">
+        <v>447.5409836065574</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>2</v>
@@ -4333,8 +4351,8 @@
       <c r="R38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="1">
-        <v>828.52941176470586</v>
+      <c r="S38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>2</v>
@@ -4348,17 +4366,17 @@
       <c r="W38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X38" s="1">
-        <v>936.25377643504532</v>
+      <c r="X38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z38" s="1">
-        <v>2307.130434782609</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>1547.4782608695652</v>
+      <c r="Z38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>2</v>
@@ -4366,8 +4384,8 @@
       <c r="AC38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD38" s="1">
-        <v>570.41474654377885</v>
+      <c r="AD38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE38" s="1" t="s">
         <v>2</v>
@@ -4392,29 +4410,29 @@
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
+      <c r="D39" s="1">
+        <v>2789.4782608695655</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>957.50000000000011</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>2</v>
+        <v>1317.1304347826087</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2010.7826086956522</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1945.5033557046979</v>
       </c>
       <c r="I39" s="1">
-        <v>3265.9821428571427</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>2</v>
+        <v>929.57943925233656</v>
+      </c>
+      <c r="J39" s="1">
+        <v>968.08695652173924</v>
       </c>
       <c r="K39" s="1">
-        <v>2345.6692913385828</v>
+        <v>3168.521739130435</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>2</v>
@@ -4425,11 +4443,11 @@
       <c r="N39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>2</v>
+      <c r="O39" s="1">
+        <v>671</v>
+      </c>
+      <c r="P39" s="1">
+        <v>792.39130434782612</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>2</v>
@@ -4455,23 +4473,23 @@
       <c r="X39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y39" s="1">
-        <v>1944.4099378881986</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>1214.4782608695652</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>1434.2281879194632</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>1622.3076923076924</v>
+      <c r="Y39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD39" s="1">
-        <v>1249.0434782608697</v>
+      <c r="AD39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE39" s="1" t="s">
         <v>2</v>
@@ -4496,29 +4514,29 @@
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>2</v>
+      <c r="D40" s="1">
+        <v>2813.625</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>1243.75</v>
+        <v>1544.2889390519188</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2476.1739130434785</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>2</v>
+      <c r="H40" s="1">
+        <v>2997.9405034324946</v>
+      </c>
+      <c r="I40" s="1">
+        <v>731.125</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2423.8695652173915</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>2</v>
@@ -4529,11 +4547,11 @@
       <c r="N40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>2</v>
+      <c r="O40" s="1">
+        <v>825.26086956521749</v>
+      </c>
+      <c r="P40" s="1">
+        <v>589.95652173913049</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>2</v>
@@ -4541,8 +4559,8 @@
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S40" s="1">
-        <v>2124.2307692307695</v>
+      <c r="S40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>2</v>
@@ -4562,8 +4580,8 @@
       <c r="Y40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="1">
-        <v>368.73913043478262</v>
+      <c r="Z40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>2</v>
@@ -4592,7 +4610,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
         <v>1327</v>
@@ -4606,97 +4624,97 @@
       <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>2</v>
+      <c r="F41" s="1">
+        <v>885.77464788732402</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1363.6489607390299</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1362.6696832579185</v>
       </c>
       <c r="I41" s="1">
-        <v>1838.0869565217392</v>
+        <v>1514.0970192869665</v>
       </c>
       <c r="J41" s="1">
-        <v>1838.0869565217392</v>
+        <v>1510.3195488721803</v>
       </c>
       <c r="K41" s="1">
-        <v>2534.315169366716</v>
+        <v>1620.7882534775888</v>
       </c>
       <c r="L41" s="1">
-        <v>2534.315169366716</v>
+        <v>1620.7882534775888</v>
       </c>
       <c r="M41" s="1">
-        <v>2534.315169366716</v>
+        <v>1620.7882534775888</v>
       </c>
       <c r="N41" s="1">
-        <v>2534.315169366716</v>
+        <v>1620.7882534775888</v>
       </c>
       <c r="O41" s="1">
-        <v>2534.315169366716</v>
+        <v>1573.7885751805645</v>
       </c>
       <c r="P41" s="1">
-        <v>2534.315169366716</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="Q41" s="1">
-        <v>2534.315169366716</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="R41" s="1">
-        <v>2534.315169366716</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="S41" s="1">
-        <v>2140.2265005662516</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="T41" s="1">
-        <v>2140.2265005662516</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="U41" s="1">
-        <v>2140.2265005662516</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="V41" s="1">
-        <v>2140.2265005662516</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="W41" s="1">
-        <v>2140.2265005662516</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="X41" s="1">
-        <v>1811.9604612850085</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="Y41" s="1">
-        <v>1811.9604612850085</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="Z41" s="1">
-        <v>1948.0286738351256</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AA41" s="1">
-        <v>1861.6869728209936</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AB41" s="1">
-        <v>1861.6869728209936</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AC41" s="1">
-        <v>1861.6869728209936</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AD41" s="1">
-        <v>1643.4579439252338</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AE41" s="1">
-        <v>1643.4579439252338</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AF41" s="1">
-        <v>1643.4579439252338</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AG41" s="1">
-        <v>1643.4579439252338</v>
+        <v>1509.9597398575409</v>
       </c>
       <c r="AH41" s="1">
-        <v>1643.4579439252338</v>
+        <v>1509.9597398575409</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
         <v>1327</v>
@@ -4704,103 +4722,103 @@
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
+      <c r="D42" s="1">
+        <v>2789.4782608695655</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2789.4782608695655</v>
       </c>
       <c r="F42" s="1">
-        <v>957.50000000000011</v>
+        <v>2053.304347826087</v>
       </c>
       <c r="G42" s="1">
-        <v>957.50000000000011</v>
+        <v>2039.1304347826087</v>
       </c>
       <c r="H42" s="1">
-        <v>957.50000000000011</v>
+        <v>2016.2233169129725</v>
       </c>
       <c r="I42" s="1">
-        <v>2515.030120481928</v>
+        <v>1809.977827050998</v>
       </c>
       <c r="J42" s="1">
-        <v>2515.030120481928</v>
+        <v>1732.0563380281692</v>
       </c>
       <c r="K42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1956.4278438030562</v>
       </c>
       <c r="L42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1956.4278438030562</v>
       </c>
       <c r="M42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1956.4278438030562</v>
       </c>
       <c r="N42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1956.4278438030562</v>
       </c>
       <c r="O42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1882.3872000000001</v>
       </c>
       <c r="P42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="Q42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="R42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="S42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="T42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="U42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="V42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="W42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="X42" s="1">
-        <v>2487.8381795195955</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="Y42" s="1">
-        <v>2330.6199460916441</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="Z42" s="1">
-        <v>2004.2212333121422</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AA42" s="1">
-        <v>1878.0891089108911</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AB42" s="1">
-        <v>1871.6698841698842</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AC42" s="1">
-        <v>1871.6698841698842</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AD42" s="1">
-        <v>1758.5545023696682</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AE42" s="1">
-        <v>1758.5545023696682</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AF42" s="1">
-        <v>1758.5545023696682</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AG42" s="1">
-        <v>1758.5545023696682</v>
+        <v>1742.5271966527198</v>
       </c>
       <c r="AH42" s="1">
-        <v>1758.5545023696682</v>
+        <v>1742.5271966527198</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
         <v>1327</v>
@@ -4808,98 +4826,98 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>2</v>
+      <c r="D43" s="1">
+        <v>2813.625</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2813.625</v>
       </c>
       <c r="F43" s="1">
-        <v>1243.75</v>
+        <v>1881.0945273631839</v>
       </c>
       <c r="G43" s="1">
-        <v>1243.75</v>
+        <v>1881.0945273631839</v>
       </c>
       <c r="H43" s="1">
-        <v>1243.75</v>
+        <v>2350.3846153846152</v>
       </c>
       <c r="I43" s="1">
-        <v>1243.75</v>
+        <v>1839.0394736842104</v>
       </c>
       <c r="J43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1839.0394736842104</v>
       </c>
       <c r="K43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1974.909090909091</v>
       </c>
       <c r="L43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1974.909090909091</v>
       </c>
       <c r="M43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1974.909090909091</v>
       </c>
       <c r="N43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1974.909090909091</v>
       </c>
       <c r="O43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1758.172131147541</v>
       </c>
       <c r="P43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="Q43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="R43" s="1">
-        <v>2263.3812949640292</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="S43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="T43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="U43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="V43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="W43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="X43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="Y43" s="1">
-        <v>2219.044117647059</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="Z43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AA43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AB43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AC43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AD43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AE43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AF43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AG43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
       <c r="AH43" s="1">
-        <v>1552.0062695924767</v>
+        <v>1572.8689655172416</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4912,56 +4930,56 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="1">
-        <v>2968.0995475113118</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2589.0196078431372</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4703.6579572446553</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2876.5714285714289</v>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2395.9345794392525</v>
+      </c>
+      <c r="H44" s="1">
+        <v>860.85365853658539</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J44" s="1">
-        <v>4714.304347826087</v>
-      </c>
-      <c r="K44" s="1">
-        <v>4013.7254901960787</v>
-      </c>
-      <c r="L44" s="1">
-        <v>2378.4705882352941</v>
-      </c>
-      <c r="M44" s="1">
-        <v>4117.363636363636</v>
+        <v>1708.9565217391305</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>2</v>
+      <c r="O44" s="1">
+        <v>3939.5485327313768</v>
       </c>
       <c r="P44" s="1">
-        <v>2422.695652173913</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>3879.652173913044</v>
-      </c>
-      <c r="R44" s="1">
-        <v>4560.5417607223471</v>
-      </c>
-      <c r="S44" s="1">
-        <v>4183.9359267734553</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2803</v>
+        <v>4564.5945945945941</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>2</v>
@@ -4969,20 +4987,20 @@
       <c r="V44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W44" s="1">
-        <v>4907.4418604651164</v>
-      </c>
-      <c r="X44" s="1">
-        <v>6123.6194895591643</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>3565.8823529411766</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>4168.1739130434789</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>2817.3626373626375</v>
+      <c r="W44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>2</v>
@@ -4990,8 +5008,8 @@
       <c r="AC44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD44" s="1">
-        <v>6876.3380281690133</v>
+      <c r="AD44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE44" s="1" t="s">
         <v>2</v>
@@ -5016,56 +5034,56 @@
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="1">
-        <v>4459.6261682242994</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2283.3482142857142</v>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>3735.8823529411761</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>2</v>
+        <v>3150.612244897959</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3857.6039119804404</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3237.4889867841412</v>
       </c>
       <c r="I45" s="1">
-        <v>2153.1617647058824</v>
+        <v>5290.7913669064747</v>
       </c>
       <c r="J45" s="1">
-        <v>5868.130434782609</v>
+        <v>3984.7136563876652</v>
       </c>
       <c r="K45" s="1">
-        <v>4620.405405405405</v>
-      </c>
-      <c r="L45" s="1">
-        <v>4498.434782608696</v>
-      </c>
-      <c r="M45" s="1">
-        <v>2632.6618705035967</v>
+        <v>2503.9849624060148</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>2</v>
+      <c r="O45" s="1">
+        <v>1719.2608695652175</v>
       </c>
       <c r="P45" s="1">
-        <v>2543.3333333333335</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>4304.4052863436127</v>
-      </c>
-      <c r="R45" s="1">
-        <v>3195.0746268656717</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3210.135135135135</v>
-      </c>
-      <c r="T45" s="1">
-        <v>4880.347826086957</v>
+        <v>4258.5652173913049</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>2</v>
@@ -5073,29 +5091,29 @@
       <c r="V45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W45" s="1">
-        <v>1693.0882352941178</v>
-      </c>
-      <c r="X45" s="1">
-        <v>3168.6521739130435</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>4002.8289473684213</v>
+      <c r="W45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA45" s="1">
-        <v>3034.039735099338</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>2953.7007874015749</v>
+      <c r="AA45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD45" s="1">
-        <v>4978.7264150943402</v>
+      <c r="AD45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE45" s="1" t="s">
         <v>2</v>
@@ -5120,56 +5138,56 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="1">
-        <v>3492.8</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2122.909090909091</v>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F46" s="1">
-        <v>4678.7660668380468</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>2</v>
+        <v>3991.3043478260875</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5112.0710059171606</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2536.2631578947367</v>
       </c>
       <c r="I46" s="1">
-        <v>906.48648648648657</v>
+        <v>4441.4634146341468</v>
       </c>
       <c r="J46" s="1">
-        <v>3223.2962138084631</v>
-      </c>
-      <c r="K46" s="1">
-        <v>3461.9068736141908</v>
-      </c>
-      <c r="L46" s="1">
-        <v>2846.181818181818</v>
-      </c>
-      <c r="M46" s="1">
-        <v>3686.6883116883118</v>
+        <v>6222.5806451612889</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>2</v>
+      <c r="O46" s="1">
+        <v>6102.3927765237013</v>
       </c>
       <c r="P46" s="1">
-        <v>5880.652173913044</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>3402.5112107623318</v>
-      </c>
-      <c r="R46" s="1">
-        <v>2372.8888888888887</v>
-      </c>
-      <c r="S46" s="1">
-        <v>4321.304347826087</v>
-      </c>
-      <c r="T46" s="1">
-        <v>5986.2899262899264</v>
+        <v>2909.4642857142858</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>2</v>
@@ -5180,17 +5198,17 @@
       <c r="W46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X46" s="1">
-        <v>5627.304347826087</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>6041.4736842105267</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>4801.9285714285716</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>4974.521739130435</v>
+      <c r="X46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>2</v>
@@ -5198,8 +5216,8 @@
       <c r="AC46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD46" s="1">
-        <v>3610.864864864865</v>
+      <c r="AD46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE46" s="1" t="s">
         <v>2</v>
@@ -5216,7 +5234,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
         <v>1329</v>
@@ -5224,103 +5242,103 @@
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="1">
-        <v>2968.0995475113118</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2774.9833518312989</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3389.1830559757941</v>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>3389.1830559757941</v>
+        <v>2395.9345794392525</v>
       </c>
       <c r="H47" s="1">
-        <v>3389.1830559757941</v>
+        <v>1970.6756756756756</v>
       </c>
       <c r="I47" s="1">
-        <v>3281.877990430622</v>
+        <v>1970.6756756756756</v>
       </c>
       <c r="J47" s="1">
-        <v>3590.9380863039401</v>
+        <v>1856.235741444867</v>
       </c>
       <c r="K47" s="1">
-        <v>3665.8355847163252</v>
+        <v>1856.235741444867</v>
       </c>
       <c r="L47" s="1">
-        <v>3516.4994882292726</v>
+        <v>1856.235741444867</v>
       </c>
       <c r="M47" s="1">
-        <v>3594.9273212696521</v>
+        <v>1856.235741444867</v>
       </c>
       <c r="N47" s="1">
-        <v>3594.9273212696521</v>
+        <v>1856.235741444867</v>
       </c>
       <c r="O47" s="1">
-        <v>3594.9273212696521</v>
+        <v>2473.5652173913045</v>
       </c>
       <c r="P47" s="1">
-        <v>3454.1738449490986</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="Q47" s="1">
-        <v>3499.7855977627587</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="R47" s="1">
-        <v>3599.0494296577936</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="S47" s="1">
-        <v>3648.4780506671814</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="T47" s="1">
-        <v>3620.0373761913652</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="U47" s="1">
-        <v>3620.0373761913652</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="V47" s="1">
-        <v>3620.0373761913652</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="W47" s="1">
-        <v>3697.8015803336252</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="X47" s="1">
-        <v>3868.4720861900091</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="Y47" s="1">
-        <v>3851.809347524294</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="Z47" s="1">
-        <v>3872.7696960967869</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AA47" s="1">
-        <v>3807.8588807785882</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AB47" s="1">
-        <v>3807.8588807785882</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AC47" s="1">
-        <v>3807.8588807785882</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AD47" s="1">
-        <v>3948.3606345930598</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AE47" s="1">
-        <v>3948.3606345930598</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AF47" s="1">
-        <v>3948.3606345930598</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AG47" s="1">
-        <v>3948.3606345930598</v>
+        <v>2952.3775141825686</v>
       </c>
       <c r="AH47" s="1">
-        <v>3948.3606345930598</v>
+        <v>2952.3775141825686</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
         <v>1329</v>
@@ -5328,103 +5346,103 @@
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="1">
-        <v>4459.6261682242994</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3346.6438356164381</v>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F48" s="1">
-        <v>3477.1775417298936</v>
+        <v>3150.612244897959</v>
       </c>
       <c r="G48" s="1">
-        <v>3477.1775417298936</v>
+        <v>3490.7999999999997</v>
       </c>
       <c r="H48" s="1">
-        <v>3477.1775417298936</v>
+        <v>3402.6073619631902</v>
       </c>
       <c r="I48" s="1">
-        <v>3250.6792452830186</v>
+        <v>3584.4906444906437</v>
       </c>
       <c r="J48" s="1">
-        <v>3838.0097560975605</v>
+        <v>3680.2741170268846</v>
       </c>
       <c r="K48" s="1">
-        <v>3977.2975140336807</v>
+        <v>3535.6171983356444</v>
       </c>
       <c r="L48" s="1">
-        <v>4058.4495599187539</v>
+        <v>3535.6171983356444</v>
       </c>
       <c r="M48" s="1">
-        <v>3882.0765351527734</v>
+        <v>3535.6171983356444</v>
       </c>
       <c r="N48" s="1">
-        <v>3882.0765351527734</v>
+        <v>3535.6171983356444</v>
       </c>
       <c r="O48" s="1">
-        <v>3882.0765351527734</v>
+        <v>3217.0796797560042</v>
       </c>
       <c r="P48" s="1">
-        <v>3724.4124574718658</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="Q48" s="1">
-        <v>3786.0070175438595</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="R48" s="1">
-        <v>3735.2148813341882</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="S48" s="1">
-        <v>3689.6895137668421</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="T48" s="1">
-        <v>3787.8265543809348</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="U48" s="1">
-        <v>3787.8265543809348</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="V48" s="1">
-        <v>3787.8265543809348</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="W48" s="1">
-        <v>3645.1227249958251</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="X48" s="1">
-        <v>3611.1366103271821</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="Y48" s="1">
-        <v>3628.7694358063081</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="Z48" s="1">
-        <v>3628.7694358063081</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AA48" s="1">
-        <v>3591.3821815154033</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AB48" s="1">
-        <v>3559.3594306049818</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AC48" s="1">
-        <v>3559.3594306049818</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AD48" s="1">
-        <v>3634.4825864436398</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AE48" s="1">
-        <v>3634.4825864436398</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AF48" s="1">
-        <v>3634.4825864436398</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AG48" s="1">
-        <v>3634.4825864436398</v>
+        <v>3372.4748621472586</v>
       </c>
       <c r="AH48" s="1">
-        <v>3634.4825864436398</v>
+        <v>3372.4748621472586</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>1329</v>
@@ -5432,98 +5450,98 @@
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="1">
-        <v>3492.8</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2678.2702702702704</v>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F49" s="1">
-        <v>3502.6271186440686</v>
+        <v>3991.3043478260875</v>
       </c>
       <c r="G49" s="1">
-        <v>3502.6271186440686</v>
+        <v>4292.4324324324316</v>
       </c>
       <c r="H49" s="1">
-        <v>3502.6271186440686</v>
+        <v>3631.040634291377</v>
       </c>
       <c r="I49" s="1">
-        <v>2771.5981735159821</v>
+        <v>3848.0551523947747</v>
       </c>
       <c r="J49" s="1">
-        <v>2886.6364152013612</v>
+        <v>4352.8114285714282</v>
       </c>
       <c r="K49" s="1">
-        <v>3003.8211382113818</v>
+        <v>4352.8114285714282</v>
       </c>
       <c r="L49" s="1">
-        <v>2999.9999999999995</v>
+        <v>4352.8114285714282</v>
       </c>
       <c r="M49" s="1">
-        <v>3082.0721769499414</v>
+        <v>4352.8114285714282</v>
       </c>
       <c r="N49" s="1">
-        <v>3082.0721769499414</v>
+        <v>4352.8114285714282</v>
       </c>
       <c r="O49" s="1">
-        <v>3082.0721769499414</v>
+        <v>4706.2380300957593</v>
       </c>
       <c r="P49" s="1">
-        <v>3505.9598287784002</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="Q49" s="1">
-        <v>3492.7131782945739</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="R49" s="1">
-        <v>3376.0648148148148</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="S49" s="1">
-        <v>3476.0671573137079</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="T49" s="1">
-        <v>3690.9274447949529</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="U49" s="1">
-        <v>3690.9274447949529</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="V49" s="1">
-        <v>3690.9274447949529</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="W49" s="1">
-        <v>3690.9274447949529</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="X49" s="1">
-        <v>3821.9176470588236</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="Y49" s="1">
-        <v>3939.3871866295262</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="Z49" s="1">
-        <v>3982.0194174757285</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AA49" s="1">
-        <v>4056.5583673469382</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AB49" s="1">
-        <v>4056.5583673469382</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AC49" s="1">
-        <v>4056.5583673469382</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AD49" s="1">
-        <v>4031.1685912240187</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AE49" s="1">
-        <v>4031.1685912240187</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AF49" s="1">
-        <v>4031.1685912240187</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AG49" s="1">
-        <v>4031.1685912240187</v>
+        <v>4401.4464218099201</v>
       </c>
       <c r="AH49" s="1">
-        <v>4031.1685912240187</v>
+        <v>4401.4464218099201</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -5536,56 +5554,56 @@
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
-        <v>2274.6521739130435</v>
-      </c>
-      <c r="E50" s="1">
-        <v>5781.6851441241688</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2151.5812917594653</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>2</v>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2359.5428571428574</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8788.6779661016953</v>
       </c>
       <c r="I50" s="1">
-        <v>4822.4644549763034</v>
+        <v>2373.9740259740261</v>
       </c>
       <c r="J50" s="1">
-        <v>15084.391304347828</v>
-      </c>
-      <c r="K50" s="1">
-        <v>6208.5789473684208</v>
-      </c>
-      <c r="L50" s="1">
-        <v>2117.1428571428573</v>
-      </c>
-      <c r="M50" s="1">
-        <v>7135.7003257328997</v>
+        <v>646.43478260869574</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>2</v>
+      <c r="O50" s="1">
+        <v>2552.217391304348</v>
       </c>
       <c r="P50" s="1">
-        <v>1442.8695652173915</v>
+        <v>781.88340807174882</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R50" s="1">
-        <v>2233.695652173913</v>
-      </c>
-      <c r="S50" s="1">
-        <v>15129.344262295082</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2309.1235955056177</v>
+      <c r="R50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>2</v>
@@ -5596,17 +5614,17 @@
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="1">
-        <v>3808.6956521739135</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>8212.9565217391319</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>1104</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>2728.9024390243903</v>
+      <c r="X50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>2</v>
@@ -5614,8 +5632,8 @@
       <c r="AC50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD50" s="1">
-        <v>644.73913043478262</v>
+      <c r="AD50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE50" s="1" t="s">
         <v>2</v>
@@ -5641,34 +5659,34 @@
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>7797.833333333333</v>
-      </c>
-      <c r="E51" s="1">
-        <v>763.41346153846166</v>
-      </c>
-      <c r="F51" s="1">
-        <v>841.78378378378386</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>2</v>
+        <v>17958.639053254439</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3049.4006309148267</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1014.0000000000001</v>
       </c>
       <c r="I51" s="1">
-        <v>8507.4782608695659</v>
+        <v>13117.615894039736</v>
       </c>
       <c r="J51" s="1">
-        <v>3311.1529411764704</v>
-      </c>
-      <c r="K51" s="1">
-        <v>2067.6136363636365</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1734.2465753424656</v>
-      </c>
-      <c r="M51" s="1">
-        <v>11816.434108527134</v>
+        <v>2191.0447761194027</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>2</v>
@@ -5677,16 +5695,16 @@
         <v>2</v>
       </c>
       <c r="P51" s="1">
-        <v>13480.523560209424</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>2141.9999999999995</v>
-      </c>
-      <c r="R51" s="1">
-        <v>963.39130434782612</v>
-      </c>
-      <c r="S51" s="1">
-        <v>2300.608695652174</v>
+        <v>2290.434782608696</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>2</v>
@@ -5700,26 +5718,26 @@
       <c r="W51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X51" s="1">
-        <v>14086.826086956522</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>684.13043478260875</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>9586.1739130434798</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>2485.8407079646017</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>1126.6844919786095</v>
+      <c r="X51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD51" s="1">
-        <v>758.75000000000011</v>
+      <c r="AD51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>2</v>
@@ -5744,29 +5762,29 @@
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="1">
-        <v>12042.782608695654</v>
-      </c>
-      <c r="E52" s="1">
-        <v>15118.956521739132</v>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>899.48571428571438</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>2</v>
+        <v>2105.0149253731342</v>
+      </c>
+      <c r="G52" s="1">
+        <v>11663.501483679524</v>
+      </c>
+      <c r="H52" s="1">
+        <v>967.56521739130437</v>
       </c>
       <c r="I52" s="1">
-        <v>968.25</v>
+        <v>6458.375</v>
       </c>
       <c r="J52" s="1">
-        <v>2059.695652173913</v>
-      </c>
-      <c r="K52" s="1">
-        <v>17297.478260869568</v>
+        <v>14502.262773722628</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
@@ -5777,23 +5795,23 @@
       <c r="N52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>2</v>
+      <c r="O52" s="1">
+        <v>362.76923076923077</v>
       </c>
       <c r="P52" s="1">
-        <v>13504.468085106382</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>13176.260869565218</v>
-      </c>
-      <c r="R52" s="1">
-        <v>2736.5048543689322</v>
-      </c>
-      <c r="S52" s="1">
-        <v>2628.130434782609</v>
-      </c>
-      <c r="T52" s="1">
-        <v>928.84615384615381</v>
+        <v>1606.0434782608697</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>2</v>
@@ -5804,17 +5822,17 @@
       <c r="W52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X52" s="1">
-        <v>4342.4324324324325</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>5392.5</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>4954.1949152542365</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>16733</v>
+      <c r="X52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>2</v>
@@ -5840,7 +5858,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
         <v>1330</v>
@@ -5848,103 +5866,103 @@
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="1">
-        <v>2274.6521739130435</v>
-      </c>
-      <c r="E53" s="1">
-        <v>4010.8452250274422</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3397.0147058823532</v>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>3397.0147058823532</v>
+        <v>2359.5428571428574</v>
       </c>
       <c r="H53" s="1">
-        <v>3397.0147058823532</v>
+        <v>5300</v>
       </c>
       <c r="I53" s="1">
-        <v>3734.5791245791243</v>
+        <v>4206.2912621359228</v>
       </c>
       <c r="J53" s="1">
-        <v>6063.2649420160569</v>
+        <v>3107.2751677852357</v>
       </c>
       <c r="K53" s="1">
-        <v>6084.3249427917617</v>
+        <v>3107.2751677852357</v>
       </c>
       <c r="L53" s="1">
-        <v>5790.1483050847464</v>
+        <v>3107.2751677852357</v>
       </c>
       <c r="M53" s="1">
-        <v>5921.745778910481</v>
+        <v>3107.2751677852357</v>
       </c>
       <c r="N53" s="1">
-        <v>5921.745778910481</v>
+        <v>3107.2751677852357</v>
       </c>
       <c r="O53" s="1">
-        <v>5921.745778910481</v>
+        <v>2976.3384615384616</v>
       </c>
       <c r="P53" s="1">
-        <v>5615.9750667853968</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="Q53" s="1">
-        <v>5615.9750667853968</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="R53" s="1">
-        <v>5209.6422042308704</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="S53" s="1">
-        <v>5803.8988460594164</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="T53" s="1">
-        <v>5459.6812749003993</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="U53" s="1">
-        <v>5459.6812749003993</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="V53" s="1">
-        <v>5459.6812749003993</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="W53" s="1">
-        <v>5459.6812749003993</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="X53" s="1">
-        <v>5307.119325030133</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="Y53" s="1">
-        <v>5552.9238690695111</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="Z53" s="1">
-        <v>5488.4233417905043</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AA53" s="1">
-        <v>5408.7750791974668</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AB53" s="1">
-        <v>5408.7750791974668</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AC53" s="1">
-        <v>5408.7750791974668</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AD53" s="1">
-        <v>5051.9765548681216</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AE53" s="1">
-        <v>5051.9765548681216</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AF53" s="1">
-        <v>5051.9765548681216</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AG53" s="1">
-        <v>5051.9765548681216</v>
+        <v>2751.1366774045105</v>
       </c>
       <c r="AH53" s="1">
-        <v>5051.9765548681216</v>
+        <v>2751.1366774045105</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
         <v>1330</v>
@@ -5953,102 +5971,102 @@
         <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>7797.833333333333</v>
+        <v>17958.639053254439</v>
       </c>
       <c r="E54" s="1">
-        <v>4026.8041237113403</v>
+        <v>17958.639053254439</v>
       </c>
       <c r="F54" s="1">
-        <v>2998.4816753926707</v>
+        <v>17958.639053254439</v>
       </c>
       <c r="G54" s="1">
-        <v>2998.4816753926707</v>
+        <v>10743.022900763359</v>
       </c>
       <c r="H54" s="1">
-        <v>2998.4816753926707</v>
+        <v>6729.255605381165</v>
       </c>
       <c r="I54" s="1">
-        <v>4576.4009962640112</v>
+        <v>8574.8724489795914</v>
       </c>
       <c r="J54" s="1">
-        <v>4311.6395864106362</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="K54" s="1">
-        <v>4132.6869053013143</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="L54" s="1">
-        <v>3852.4369747899168</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="M54" s="1">
-        <v>4920.3742203742213</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="N54" s="1">
-        <v>4920.3742203742213</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="O54" s="1">
-        <v>4920.3742203742213</v>
+        <v>7849.5195025438097</v>
       </c>
       <c r="P54" s="1">
-        <v>5451.7322066948336</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="Q54" s="1">
-        <v>5166.664686664687</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="R54" s="1">
-        <v>4661.4371570420708</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="S54" s="1">
-        <v>4408.1175647305818</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="T54" s="1">
-        <v>4408.1175647305818</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="U54" s="1">
-        <v>4408.1175647305818</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="V54" s="1">
-        <v>4408.1175647305818</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="W54" s="1">
-        <v>4408.1175647305818</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="X54" s="1">
-        <v>5346.0164314303775</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="Y54" s="1">
-        <v>4934.1732283464571</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="Z54" s="1">
-        <v>5311.784012705135</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AA54" s="1">
-        <v>5152.2777222777222</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AB54" s="1">
-        <v>4916.2946708463951</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AC54" s="1">
-        <v>4916.2946708463951</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AD54" s="1">
-        <v>4652.6335877862593</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AE54" s="1">
-        <v>4652.6335877862593</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AF54" s="1">
-        <v>4652.6335877862593</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AG54" s="1">
-        <v>4652.6335877862593</v>
+        <v>6702.2880215343203</v>
       </c>
       <c r="AH54" s="1">
-        <v>4652.6335877862593</v>
+        <v>6702.2880215343203</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
         <v>1330</v>
@@ -6056,98 +6074,98 @@
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="1">
-        <v>12042.782608695654</v>
-      </c>
-      <c r="E55" s="1">
-        <v>13580.869565217392</v>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>10086.000000000002</v>
+        <v>2105.0149253731342</v>
       </c>
       <c r="G55" s="1">
-        <v>10086.000000000002</v>
+        <v>6898.4821428571431</v>
       </c>
       <c r="H55" s="1">
-        <v>10086.000000000002</v>
+        <v>4488.3922261484095</v>
       </c>
       <c r="I55" s="1">
-        <v>7902.1077844311367</v>
+        <v>5074.9875930521093</v>
       </c>
       <c r="J55" s="1">
-        <v>6640.3661971830988</v>
+        <v>6444.5917285259811</v>
       </c>
       <c r="K55" s="1">
-        <v>7678.9830508474588</v>
+        <v>6444.5917285259811</v>
       </c>
       <c r="L55" s="1">
-        <v>7678.9830508474588</v>
+        <v>6444.5917285259811</v>
       </c>
       <c r="M55" s="1">
-        <v>7678.9830508474588</v>
+        <v>6444.5917285259811</v>
       </c>
       <c r="N55" s="1">
-        <v>7678.9830508474588</v>
+        <v>6444.5917285259811</v>
       </c>
       <c r="O55" s="1">
-        <v>7678.9830508474588</v>
+        <v>5707.7446411929168</v>
       </c>
       <c r="P55" s="1">
-        <v>8300.7797123391374</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="Q55" s="1">
-        <v>9023.7717601547392</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="R55" s="1">
-        <v>8454.2128408091485</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="S55" s="1">
-        <v>7761.8858176181884</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="T55" s="1">
-        <v>7497.1840079463627</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="U55" s="1">
-        <v>7497.1840079463627</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="V55" s="1">
-        <v>7497.1840079463627</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="W55" s="1">
-        <v>7497.1840079463627</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="X55" s="1">
-        <v>7332.355848434926</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="Y55" s="1">
-        <v>7135.4578134912244</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="Z55" s="1">
-        <v>6937.5043260911361</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AA55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AB55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AC55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AD55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AE55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AF55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AG55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
       <c r="AH55" s="1">
-        <v>7571.6310016184134</v>
+        <v>4983.7298541826549</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -6161,55 +6179,55 @@
         <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>1129.25</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2182.344827586207</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2372.6027397260277</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>2</v>
+        <v>3384.0528634361235</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2296.434782608696</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2693.217391304348</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1013.8095238095237</v>
       </c>
       <c r="J56" s="1">
-        <v>811.46341463414637</v>
+        <v>2446.304347826087</v>
       </c>
       <c r="K56" s="1">
-        <v>1677.3913043478262</v>
-      </c>
-      <c r="L56" s="1">
-        <v>2358.1764705882356</v>
-      </c>
-      <c r="M56" s="1">
-        <v>2656.0714285714284</v>
+        <v>3671.7171717171723</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>2</v>
+      <c r="O56" s="1">
+        <v>2372.3076923076924</v>
       </c>
       <c r="P56" s="1">
-        <v>3697.3509933774835</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>2613.6111111111113</v>
-      </c>
-      <c r="R56" s="1">
-        <v>2398.2894736842109</v>
+        <v>2362.304347826087</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T56" s="1">
-        <v>2261.7142857142858</v>
+      <c r="T56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>2</v>
@@ -6217,20 +6235,20 @@
       <c r="V56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W56" s="1">
-        <v>2562.130434782609</v>
-      </c>
-      <c r="X56" s="1">
-        <v>1244.2857142857142</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>766.10244988864144</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>2609.739130434783</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>2866.6956521739135</v>
+      <c r="W56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>2</v>
@@ -6265,31 +6283,31 @@
         <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>2594.7922437673133</v>
+        <v>3220</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>2357.7142857142858</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>2</v>
+        <v>2538.5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2822.9787234042551</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2953.8028169014087</v>
       </c>
       <c r="I57" s="1">
-        <v>845.73913043478262</v>
+        <v>2450.8810572687225</v>
       </c>
       <c r="J57" s="1">
-        <v>1723.1739130434785</v>
+        <v>3289.3333333333335</v>
       </c>
       <c r="K57" s="1">
-        <v>2660.0869565217395</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1582.5333333333333</v>
+        <v>1932.5274725274726</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>2</v>
@@ -6297,20 +6315,20 @@
       <c r="N57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>2</v>
+      <c r="O57" s="1">
+        <v>3354.1978021978025</v>
       </c>
       <c r="P57" s="1">
-        <v>3177.521739130435</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>2400</v>
-      </c>
-      <c r="R57" s="1">
-        <v>3643.8766519823789</v>
-      </c>
-      <c r="S57" s="1">
-        <v>2844.25</v>
+        <v>3273.542168674699</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>2</v>
@@ -6321,29 +6339,29 @@
       <c r="V57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W57" s="1">
-        <v>1277.3684210526317</v>
-      </c>
-      <c r="X57" s="1">
-        <v>2813.0869565217395</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>1266.8609865470851</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>1677.3913043478262</v>
+      <c r="W57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AA57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB57" s="1">
-        <v>3786.4690026954181</v>
+      <c r="AB57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD57" s="1">
-        <v>2290.3174603174602</v>
+      <c r="AD57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>2</v>
@@ -6369,55 +6387,55 @@
         <v>4</v>
       </c>
       <c r="D58" s="1">
-        <v>3590.1552106430154</v>
+        <v>3264.652173913044</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="1">
-        <v>3615.652173913044</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>2</v>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2735.4782608695655</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1777.0434782608697</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2780.1739130434785</v>
       </c>
       <c r="J58" s="1">
-        <v>1736.3478260869567</v>
+        <v>3361.4732142857142</v>
       </c>
       <c r="K58" s="1">
-        <v>2226.521739130435</v>
+        <v>1996.0264900662253</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M58" s="1">
-        <v>2765.3023255813955</v>
+      <c r="M58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="1">
-        <v>2516.4464692482911</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>2217</v>
-      </c>
-      <c r="R58" s="1">
-        <v>5192.727272727273</v>
-      </c>
-      <c r="S58" s="1">
-        <v>3030.4740406320539</v>
-      </c>
-      <c r="T58" s="1">
-        <v>2924.2320819112629</v>
+      <c r="O58" s="1">
+        <v>4824.4897959183672</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>2</v>
@@ -6425,20 +6443,20 @@
       <c r="V58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W58" s="1">
-        <v>2384.8695652173915</v>
-      </c>
-      <c r="X58" s="1">
-        <v>1685.4782608695652</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>2949.7767857142858</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>2936.8695652173915</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>2414.8695652173915</v>
+      <c r="W58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB58" s="1" t="s">
         <v>2</v>
@@ -6446,8 +6464,8 @@
       <c r="AC58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD58" s="1">
-        <v>3766.5198237885465</v>
+      <c r="AD58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>2</v>
@@ -6464,7 +6482,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1">
         <v>1328</v>
@@ -6473,102 +6491,102 @@
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>1129.25</v>
+        <v>3384.0528634361235</v>
       </c>
       <c r="E59" s="1">
-        <v>1629.9016393442623</v>
+        <v>3384.0528634361235</v>
       </c>
       <c r="F59" s="1">
-        <v>1870.3325942350334</v>
+        <v>3384.0528634361235</v>
       </c>
       <c r="G59" s="1">
-        <v>1870.3325942350334</v>
+        <v>2836.6739606126916</v>
       </c>
       <c r="H59" s="1">
-        <v>1870.3325942350334</v>
+        <v>2807.8321678321677</v>
       </c>
       <c r="I59" s="1">
-        <v>1870.3325942350334</v>
+        <v>2362.2733245729305</v>
       </c>
       <c r="J59" s="1">
-        <v>1624.0839478162225</v>
+        <v>2381.7759838546922</v>
       </c>
       <c r="K59" s="1">
-        <v>1635.1147098515521</v>
+        <v>2781.8238774799861</v>
       </c>
       <c r="L59" s="1">
-        <v>1731.0339445961763</v>
+        <v>2781.8238774799861</v>
       </c>
       <c r="M59" s="1">
-        <v>1868.6682165393556</v>
+        <v>2781.8238774799861</v>
       </c>
       <c r="N59" s="1">
-        <v>1868.6682165393556</v>
+        <v>2781.8238774799861</v>
       </c>
       <c r="O59" s="1">
-        <v>1868.6682165393556</v>
+        <v>2740.2063789868671</v>
       </c>
       <c r="P59" s="1">
-        <v>2107.8117782909931</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="Q59" s="1">
-        <v>2163.8963039014379</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="R59" s="1">
-        <v>2188.4558823529414</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="S59" s="1">
-        <v>2188.4558823529414</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="T59" s="1">
-        <v>2191.8281455501974</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="U59" s="1">
-        <v>2191.8281455501974</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="V59" s="1">
-        <v>2191.8281455501974</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="W59" s="1">
-        <v>2225.7467144563921</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="X59" s="1">
-        <v>2186.3532110091742</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="Y59" s="1">
-        <v>2074.103150853723</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="Z59" s="1">
-        <v>2114.2256961406938</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AA59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AB59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AC59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AD59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AE59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AF59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AG59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
       <c r="AH59" s="1">
-        <v>2166.6626268747159</v>
+        <v>2692.6845270639692</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1">
         <v>1328</v>
@@ -6577,102 +6595,102 @@
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>2594.7922437673133</v>
+        <v>3220</v>
       </c>
       <c r="E60" s="1">
-        <v>2596.6204986149583</v>
+        <v>3220</v>
       </c>
       <c r="F60" s="1">
-        <v>2468.1434058898849</v>
+        <v>2982.9565217391305</v>
       </c>
       <c r="G60" s="1">
-        <v>2468.1434058898849</v>
+        <v>2922.1563342318059</v>
       </c>
       <c r="H60" s="1">
-        <v>2468.1434058898849</v>
+        <v>2930.9161793372318</v>
       </c>
       <c r="I60" s="1">
-        <v>1866.768734891217</v>
+        <v>2821.5654791771199</v>
       </c>
       <c r="J60" s="1">
-        <v>1827.9365079365082</v>
+        <v>2907.7282030290626</v>
       </c>
       <c r="K60" s="1">
-        <v>2005.0717260527533</v>
+        <v>2754.6169772256726</v>
       </c>
       <c r="L60" s="1">
-        <v>1932.2481807736499</v>
+        <v>2754.6169772256726</v>
       </c>
       <c r="M60" s="1">
-        <v>1932.2481807736499</v>
+        <v>2754.6169772256726</v>
       </c>
       <c r="N60" s="1">
-        <v>1932.2481807736499</v>
+        <v>2754.6169772256726</v>
       </c>
       <c r="O60" s="1">
-        <v>1932.2481807736499</v>
+        <v>2835.9797196540408</v>
       </c>
       <c r="P60" s="1">
-        <v>2118.7756431129928</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="Q60" s="1">
-        <v>2155.4120645709431</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="R60" s="1">
-        <v>2324.9887076537011</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="S60" s="1">
-        <v>2354.4852071005921</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="T60" s="1">
-        <v>2354.4852071005921</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="U60" s="1">
-        <v>2354.4852071005921</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="V60" s="1">
-        <v>2354.4852071005921</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="W60" s="1">
-        <v>2335.4522204138575</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="X60" s="1">
-        <v>2381.6005040957784</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="Y60" s="1">
-        <v>2286.1186863837147</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="Z60" s="1">
-        <v>2236.7072525145581</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AA60" s="1">
-        <v>2236.7072525145581</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AB60" s="1">
-        <v>2331.9311030142435</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AC60" s="1">
-        <v>2331.9311030142435</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AD60" s="1">
-        <v>2329.4794264339157</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AE60" s="1">
-        <v>2329.4794264339157</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AF60" s="1">
-        <v>2329.4794264339157</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AG60" s="1">
-        <v>2329.4794264339157</v>
+        <v>2884.1719745222927</v>
       </c>
       <c r="AH60" s="1">
-        <v>2329.4794264339157</v>
+        <v>2884.1719745222927</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1">
         <v>1328</v>
@@ -6681,97 +6699,97 @@
         <v>4</v>
       </c>
       <c r="D61" s="1">
-        <v>3590.1552106430154</v>
+        <v>3264.652173913044</v>
       </c>
       <c r="E61" s="1">
-        <v>3590.1552106430154</v>
+        <v>3264.652173913044</v>
       </c>
       <c r="F61" s="1">
-        <v>3598.7665198237887</v>
+        <v>3264.652173913044</v>
       </c>
       <c r="G61" s="1">
-        <v>3598.7665198237887</v>
+        <v>3000.0652173913045</v>
       </c>
       <c r="H61" s="1">
-        <v>3598.7665198237887</v>
+        <v>2592.391304347826</v>
       </c>
       <c r="I61" s="1">
-        <v>3598.7665198237887</v>
+        <v>2629.9478260869569</v>
       </c>
       <c r="J61" s="1">
-        <v>2847.9228746713411</v>
+        <v>2780.7639208467563</v>
       </c>
       <c r="K61" s="1">
-        <v>2669.3816364772019</v>
+        <v>2645.3922315308459</v>
       </c>
       <c r="L61" s="1">
-        <v>2669.3816364772019</v>
+        <v>2645.3922315308459</v>
       </c>
       <c r="M61" s="1">
-        <v>2689.6898079763664</v>
+        <v>2645.3922315308459</v>
       </c>
       <c r="N61" s="1">
-        <v>2689.6898079763664</v>
+        <v>2645.3922315308459</v>
       </c>
       <c r="O61" s="1">
-        <v>2689.6898079763664</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="P61" s="1">
-        <v>2658.8987854251013</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="Q61" s="1">
-        <v>2589.522184300341</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="R61" s="1">
-        <v>2599.2587555253317</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="S61" s="1">
-        <v>2655.7092198581558</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="T61" s="1">
-        <v>2677.1063366875169</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="U61" s="1">
-        <v>2677.1063366875169</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="V61" s="1">
-        <v>2677.1063366875169</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="W61" s="1">
-        <v>2644.6120377084844</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="X61" s="1">
-        <v>2548.6360670002173</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="Y61" s="1">
-        <v>2584.2576808721506</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="Z61" s="1">
-        <v>2613.7220708446866</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AA61" s="1">
-        <v>2598.3872590108963</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AB61" s="1">
-        <v>2598.3872590108963</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AC61" s="1">
-        <v>2598.3872590108963</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AD61" s="1">
-        <v>2681.0063872877395</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AE61" s="1">
-        <v>2681.0063872877395</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AF61" s="1">
-        <v>2681.0063872877395</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AG61" s="1">
-        <v>2681.0063872877395</v>
+        <v>2760.9087630724848</v>
       </c>
       <c r="AH61" s="1">
-        <v>2681.0063872877395</v>
+        <v>2760.9087630724848</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -6785,52 +6803,52 @@
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>3022.3194748358865</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1130</v>
+        <v>4934.8695652173919</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>6328.0975609756097</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>2</v>
+        <v>3005.347826086957</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2627.0938215102974</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4578.5977859778595</v>
       </c>
       <c r="I62" s="1">
-        <v>844</v>
+        <v>2002.8571428571429</v>
       </c>
       <c r="J62" s="1">
-        <v>2901.1224489795918</v>
+        <v>1819.4</v>
       </c>
       <c r="K62" s="1">
-        <v>3704</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1677.1428571428571</v>
-      </c>
-      <c r="M62" s="1">
-        <v>3396.5217391304345</v>
+        <v>672.91304347826087</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>2</v>
+      <c r="O62" s="1">
+        <v>2853.1685393258426</v>
       </c>
       <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>4751.1111111111113</v>
-      </c>
-      <c r="R62" s="1">
-        <v>4553.7662337662341</v>
-      </c>
-      <c r="S62" s="1">
-        <v>2307.6574307304786</v>
+        <v>3411.130434782609</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>2</v>
@@ -6844,17 +6862,17 @@
       <c r="W62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X62" s="1">
-        <v>1039.875</v>
-      </c>
-      <c r="Y62" s="1">
-        <v>1284.579831932773</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>2355.625</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>4350.391304347826</v>
+      <c r="X62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB62" s="1" t="s">
         <v>2</v>
@@ -6862,8 +6880,8 @@
       <c r="AC62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD62" s="1">
-        <v>2262.5720620842571</v>
+      <c r="AD62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE62" s="1" t="s">
         <v>2</v>
@@ -6889,55 +6907,55 @@
         <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>1257.5999999999999</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2585.3793103448274</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>2</v>
+        <v>4202.9302325581402</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7005.1982378854627</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1871.56462585034</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2548.7697160883281</v>
       </c>
       <c r="I63" s="1">
-        <v>396</v>
+        <v>1941.2</v>
       </c>
       <c r="J63" s="1">
-        <v>1309.0434782608697</v>
-      </c>
-      <c r="K63" s="1">
-        <v>3682.7234042553187</v>
-      </c>
-      <c r="L63" s="1">
-        <v>4743.9879154078553</v>
-      </c>
-      <c r="M63" s="1">
-        <v>1370.181818181818</v>
+        <v>1997.2363636363639</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>2</v>
+      <c r="O63" s="1">
+        <v>3072.2608695652175</v>
       </c>
       <c r="P63" s="1">
-        <v>3115.7142857142858</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>2694.9650349650351</v>
-      </c>
-      <c r="R63" s="1">
-        <v>369.42857142857144</v>
-      </c>
-      <c r="S63" s="1">
-        <v>1286</v>
-      </c>
-      <c r="T63" s="1">
-        <v>5658.7058823529414</v>
+        <v>2258.217391304348</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>2</v>
@@ -6951,23 +6969,23 @@
       <c r="X63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y63" s="1">
-        <v>1969.761092150171</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>2079.5689655172409</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>646.23376623376612</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>2243.3576642335765</v>
+      <c r="Y63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AC63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD63" s="1">
-        <v>4338.913043478261</v>
+      <c r="AD63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE63" s="1" t="s">
         <v>2</v>
@@ -6992,56 +7010,56 @@
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="1">
-        <v>1873.1428571428571</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6122.8571428571431</v>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>1971.1428571428571</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>2</v>
+        <v>3992.4782608695655</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3972.913043478261</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5402.3076923076924</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1933.0434782608697</v>
       </c>
       <c r="J64" s="1">
-        <v>1133.4104046242774</v>
-      </c>
-      <c r="K64" s="1">
-        <v>1636.875</v>
+        <v>3056.8345323741</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M64" s="1">
-        <v>1359</v>
+      <c r="M64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>2</v>
+      <c r="O64" s="1">
+        <v>1213.7333333333333</v>
       </c>
       <c r="P64" s="1">
-        <v>1936.5</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>4132.1739130434789</v>
-      </c>
-      <c r="R64" s="1">
-        <v>2480.8791208791208</v>
-      </c>
-      <c r="S64" s="1">
-        <v>2409.75</v>
-      </c>
-      <c r="T64" s="1">
-        <v>2780.347826086957</v>
+        <v>4454.8474576271192</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>2</v>
@@ -7052,17 +7070,17 @@
       <c r="W64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X64" s="1">
-        <v>3208.6956521739135</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>1041.7826086956522</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>2051.1801242236024</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>3523.6686390532545</v>
+      <c r="X64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AB64" s="1" t="s">
         <v>2</v>
@@ -7070,8 +7088,8 @@
       <c r="AC64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD64" s="1">
-        <v>2483.4782608695655</v>
+      <c r="AD64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AE64" s="1" t="s">
         <v>2</v>
@@ -7088,7 +7106,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
         <v>1334</v>
@@ -7097,102 +7115,102 @@
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>3022.3194748358865</v>
+        <v>4934.8695652173919</v>
       </c>
       <c r="E65" s="1">
-        <v>2927.9002079002084</v>
+        <v>4934.8695652173919</v>
       </c>
       <c r="F65" s="1">
-        <v>4492.5252525252536</v>
+        <v>3970.1086956521744</v>
       </c>
       <c r="G65" s="1">
-        <v>4492.5252525252536</v>
+        <v>3537.6123802505531</v>
       </c>
       <c r="H65" s="1">
-        <v>4492.5252525252536</v>
+        <v>3710.8968058968057</v>
       </c>
       <c r="I65" s="1">
-        <v>3796.621253405995</v>
+        <v>3465.6075749605475</v>
       </c>
       <c r="J65" s="1">
-        <v>3661.2952968388595</v>
+        <v>3241.2267151294868</v>
       </c>
       <c r="K65" s="1">
-        <v>3667.2461844724617</v>
+        <v>2797.2491544532136</v>
       </c>
       <c r="L65" s="1">
-        <v>3423.8439138031454</v>
+        <v>2797.2491544532136</v>
       </c>
       <c r="M65" s="1">
-        <v>3420.3350253807112</v>
+        <v>2797.2491544532136</v>
       </c>
       <c r="N65" s="1">
-        <v>3420.3350253807112</v>
+        <v>2797.2491544532136</v>
       </c>
       <c r="O65" s="1">
-        <v>3420.3350253807112</v>
+        <v>2805.2607855763044</v>
       </c>
       <c r="P65" s="1">
-        <v>3178.3301886792456</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="Q65" s="1">
-        <v>3323.7585616438359</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="R65" s="1">
-        <v>3399.8313253012047</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="S65" s="1">
-        <v>3249.6432282646351</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="T65" s="1">
-        <v>3249.6432282646351</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="U65" s="1">
-        <v>3249.6432282646351</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="V65" s="1">
-        <v>3249.6432282646351</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="W65" s="1">
-        <v>3468.7149289920339</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="X65" s="1">
-        <v>3122.4591624591626</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="Y65" s="1">
-        <v>2894.8165495706476</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="Z65" s="1">
-        <v>2834.9479528105476</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AA65" s="1">
-        <v>2980.6941250261343</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AB65" s="1">
-        <v>2980.6941250261343</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AC65" s="1">
-        <v>2980.6941250261343</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AD65" s="1">
-        <v>2918.8154375238823</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AE65" s="1">
-        <v>2918.8154375238823</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AF65" s="1">
-        <v>2918.8154375238823</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AG65" s="1">
-        <v>2918.8154375238823</v>
+        <v>2883.4155916993832</v>
       </c>
       <c r="AH65" s="1">
-        <v>2918.8154375238823</v>
+        <v>2883.4155916993832</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
         <v>1334</v>
@@ -7201,102 +7219,102 @@
         <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>1257.5999999999999</v>
+        <v>4202.9302325581402</v>
       </c>
       <c r="E66" s="1">
-        <v>1910.2372881355934</v>
+        <v>4202.9302325581402</v>
       </c>
       <c r="F66" s="1">
-        <v>1910.2372881355934</v>
+        <v>5642.1040723981896</v>
       </c>
       <c r="G66" s="1">
-        <v>1910.2372881355934</v>
+        <v>4387.154716981132</v>
       </c>
       <c r="H66" s="1">
-        <v>1910.2372881355934</v>
+        <v>4032.2411693057247</v>
       </c>
       <c r="I66" s="1">
-        <v>1007.9178082191781</v>
+        <v>3857.2098214285716</v>
       </c>
       <c r="J66" s="1">
-        <v>1124.3193277310925</v>
+        <v>3609.7532656023218</v>
       </c>
       <c r="K66" s="1">
-        <v>1848.6867469879519</v>
+        <v>3609.7532656023218</v>
       </c>
       <c r="L66" s="1">
-        <v>2330.0251130085385</v>
+        <v>3609.7532656023218</v>
       </c>
       <c r="M66" s="1">
-        <v>2156.2978198272317</v>
+        <v>3609.7532656023218</v>
       </c>
       <c r="N66" s="1">
-        <v>2156.2978198272317</v>
+        <v>3609.7532656023218</v>
       </c>
       <c r="O66" s="1">
-        <v>2156.2978198272317</v>
+        <v>3511.9113573407203</v>
       </c>
       <c r="P66" s="1">
-        <v>2232.5861416130256</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="Q66" s="1">
-        <v>2256.3362068965521</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="R66" s="1">
-        <v>2123.987975951904</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="S66" s="1">
-        <v>2107.5245579567782</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="T66" s="1">
-        <v>2294.7766749379657</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="U66" s="1">
-        <v>2294.7766749379657</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="V66" s="1">
-        <v>2294.7766749379657</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="W66" s="1">
-        <v>2433.5173697270479</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="X66" s="1">
-        <v>2433.5173697270479</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="Y66" s="1">
-        <v>2394.8820017060002</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="Z66" s="1">
-        <v>2375.3694318484936</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AA66" s="1">
-        <v>2275.0100502512569</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AB66" s="1">
-        <v>2272.0473696196773</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AC66" s="1">
-        <v>2272.0473696196773</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AD66" s="1">
-        <v>2468.0395794681513</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AE66" s="1">
-        <v>2468.0395794681513</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AF66" s="1">
-        <v>2468.0395794681513</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AG66" s="1">
-        <v>2468.0395794681513</v>
+        <v>3318.8416471375963</v>
       </c>
       <c r="AH66" s="1">
-        <v>2468.0395794681513</v>
+        <v>3318.8416471375963</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1">
         <v>1334</v>
@@ -7304,98 +7322,98 @@
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="1">
-        <v>1873.1428571428571</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3998</v>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F67" s="1">
-        <v>3322.3809523809523</v>
+        <v>3992.4782608695655</v>
       </c>
       <c r="G67" s="1">
-        <v>3322.3809523809523</v>
+        <v>3982.6956521739135</v>
       </c>
       <c r="H67" s="1">
-        <v>3322.3809523809523</v>
+        <v>4405.3282442748105</v>
       </c>
       <c r="I67" s="1">
-        <v>3322.3809523809523</v>
+        <v>3762.8135593220345</v>
       </c>
       <c r="J67" s="1">
-        <v>2850.7845579078457</v>
+        <v>3628.2030178326477</v>
       </c>
       <c r="K67" s="1">
-        <v>2761.1764705882356</v>
+        <v>3628.2030178326477</v>
       </c>
       <c r="L67" s="1">
-        <v>2761.1764705882356</v>
+        <v>3628.2030178326477</v>
       </c>
       <c r="M67" s="1">
-        <v>2275.1168048229088</v>
+        <v>3628.2030178326477</v>
       </c>
       <c r="N67" s="1">
-        <v>2275.1168048229088</v>
+        <v>3628.2030178326477</v>
       </c>
       <c r="O67" s="1">
-        <v>2275.1168048229088</v>
+        <v>3216.1774744027307</v>
       </c>
       <c r="P67" s="1">
-        <v>2209.3260473588348</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="Q67" s="1">
-        <v>2629.1219743711445</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="R67" s="1">
-        <v>2612.1176470588239</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="S67" s="1">
-        <v>2578.1538461538462</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="T67" s="1">
-        <v>2606.1686746987953</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="U67" s="1">
-        <v>2606.1686746987953</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="V67" s="1">
-        <v>2606.1686746987953</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="W67" s="1">
-        <v>2946.8674698795185</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="X67" s="1">
-        <v>2978.7301587301586</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="Y67" s="1">
-        <v>2768.5896226415093</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="Z67" s="1">
-        <v>2717.9526523454624</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AA67" s="1">
-        <v>2773.5306122448983</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AB67" s="1">
-        <v>2773.5306122448983</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AC67" s="1">
-        <v>2773.5306122448983</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AD67" s="1">
-        <v>2748.6380597014922</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AE67" s="1">
-        <v>2748.6380597014922</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AF67" s="1">
-        <v>2748.6380597014922</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AG67" s="1">
-        <v>2748.6380597014922</v>
+        <v>3340.8049113233292</v>
       </c>
       <c r="AH67" s="1">
-        <v>2748.6380597014922</v>
+        <v>3340.8049113233292</v>
       </c>
     </row>
   </sheetData>

--- a/Export.xlsx
+++ b/Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://storaenso-my.sharepoint.com/personal/dariusz_buchalski_storaenso_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{1AA90C73-5763-4926-B440-3A8A8FDD37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA6E84C-DC5C-4D7E-A61E-80E834305734}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2174B0B1-0BE8-4679-8D80-61363943CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF59FA5A-8DA5-47D9-B6C7-E39A087C6F68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF59FA5A-8DA5-47D9-B6C7-E39A087C6F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="9">
   <si>
     <t>Dzienne</t>
   </si>
@@ -439,8 +439,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AH67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,29 +562,29 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>5813.739130434783</v>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>1103.5374149659863</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2246.3478260869565</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2040.8035714285713</v>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2390.890052356021</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2425.7709251101323</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2716.04347826087</v>
+        <v>717.68421052631584</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -595,11 +595,11 @@
       <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
-        <v>1134.6521739130435</v>
-      </c>
-      <c r="P2" s="1">
-        <v>5717.8125</v>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
@@ -666,29 +666,29 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>2617.9024390243903</v>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>2134.695652173913</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1914.913043478261</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1449.6521739130435</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1909.304347826087</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5158.434782608696</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3611.308203991131</v>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
@@ -699,11 +699,11 @@
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1">
-        <v>2396.4782608695655</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1799.5784543325526</v>
+      <c r="O3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>2</v>
@@ -770,29 +770,29 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>4009.8876404494381</v>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
-        <v>3476.76404494382</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1506.6371681415928</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2407.5652173913045</v>
-      </c>
-      <c r="I4" s="1">
-        <v>945.0678733031674</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2088.776978417266</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6440.5714285714284</v>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
@@ -803,11 +803,11 @@
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
-        <v>1109.9325842696628</v>
-      </c>
-      <c r="P4" s="1">
-        <v>675.73333333333335</v>
+      <c r="O4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>2</v>
@@ -874,98 +874,98 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>5813.739130434783</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5813.739130434783</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3508.3018867924529</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3081.7781043350478</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2823.9800995024875</v>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>2748.4710178000914</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="J5" s="1">
-        <v>2693.0812854442343</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="K5" s="1">
-        <v>2696.4830917874397</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="L5" s="1">
-        <v>2696.4830917874397</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="M5" s="1">
-        <v>2696.4830917874397</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="N5" s="1">
-        <v>2696.4830917874397</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="O5" s="1">
-        <v>2494.95652173913</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="P5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="Q5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="R5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="S5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="T5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="U5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="V5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="W5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="X5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="Y5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="Z5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AA5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AB5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AC5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AD5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AE5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AF5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AG5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
       <c r="AH5" s="1">
-        <v>2854.7470720159486</v>
+        <v>717.68421052631584</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -978,98 +978,98 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>2617.9024390243903</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2617.9024390243903</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2362.4137931034484</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2207.6390977443612</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2012.8491620111736</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1991.68</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2529.2103321033214</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2683.6001265422337</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2683.6001265422337</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2683.6001265422337</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2683.6001265422337</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2647.1251035625519</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="V6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="W6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="X6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>2557.72233201581</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2557.72233201581</v>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1082,98 +1082,98 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <v>4009.8876404494381</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4009.8876404494381</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3743.325842696629</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2989.9850968703427</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2841.3096559378469</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2467.8074866310167</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2408.4103720405865</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2997.1887034659821</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2997.1887034659821</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2997.1887034659821</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2997.1887034659821</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2761.3479359730413</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="V7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="W7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="X7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>2637.4009508716326</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>2637.4009508716326</v>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1186,14 +1186,14 @@
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>1252.6066350710901</v>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>1127.6521739130435</v>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
@@ -1201,11 +1201,11 @@
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>905.73913043478262</v>
+      <c r="I8" s="1">
+        <v>1292.8695652173915</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>2</v>
@@ -1219,11 +1219,11 @@
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
-        <v>810.6521739130435</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1316.1758241758241</v>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
@@ -1306,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>669.40298507462683</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1875.7826086956522</v>
+        <v>3411.2359550561796</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>2</v>
@@ -1323,11 +1323,11 @@
       <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="1">
-        <v>528.27906976744191</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1390.2068965517242</v>
+      <c r="O9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>2</v>
@@ -1394,8 +1394,8 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>1929.3913043478262</v>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
@@ -1406,11 +1406,11 @@
       <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
+      <c r="H10" s="1">
+        <v>963.52173913043487</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1124.608695652174</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>2</v>
@@ -1427,11 +1427,11 @@
       <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="1">
-        <v>906.78260869565224</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1502.4782608695652</v>
+      <c r="O10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>2</v>
@@ -1498,98 +1498,98 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>1252.6066350710901</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1252.6066350710901</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1196.4015645371578</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1196.4015645371578</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1196.4015645371578</v>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>1196.4015645371578</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="J11" s="1">
-        <v>1087.4327628361859</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="K11" s="1">
-        <v>1087.4327628361859</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="L11" s="1">
-        <v>1087.4327628361859</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="M11" s="1">
-        <v>1087.4327628361859</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="N11" s="1">
-        <v>1087.4327628361859</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="O11" s="1">
-        <v>1011.9620628334321</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="P11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="Q11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="R11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="S11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="T11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="U11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="V11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="W11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="X11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="Y11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="Z11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AA11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AB11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AC11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AD11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AE11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AF11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AG11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
       <c r="AH11" s="1">
-        <v>1076.5826330532213</v>
+        <v>1292.8695652173915</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1618,82 +1618,82 @@
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>669.40298507462683</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="J12" s="1">
-        <v>1313.1786542923433</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="K12" s="1">
-        <v>1313.1786542923433</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="L12" s="1">
-        <v>1313.1786542923433</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="M12" s="1">
-        <v>1313.1786542923433</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="N12" s="1">
-        <v>1313.1786542923433</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="O12" s="1">
-        <v>1051.9504643962848</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="P12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="Q12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="R12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="S12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="T12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="U12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="V12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="W12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="X12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="Y12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="Z12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AA12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AB12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AC12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AD12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AE12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AF12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AG12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
       <c r="AH12" s="1">
-        <v>1137.1511291256516</v>
+        <v>3411.2359550561796</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -1706,98 +1706,98 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>1929.3913043478262</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1929.3913043478262</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1929.3913043478262</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1929.3913043478262</v>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>1929.3913043478262</v>
+        <v>963.52173913043487</v>
       </c>
       <c r="I13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="J13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="K13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="L13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="M13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="N13" s="1">
-        <v>1929.3913043478262</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="O13" s="1">
-        <v>1418.0869565217392</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="P13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="Q13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="R13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="S13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="T13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="U13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="V13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="W13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="X13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="Y13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="Z13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AA13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AB13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AC13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AD13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AE13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AF13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AG13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
       <c r="AH13" s="1">
-        <v>1446.2173913043478</v>
+        <v>1044.0652173913045</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1816,14 +1816,14 @@
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
-        <v>474.13043478260875</v>
-      </c>
-      <c r="G14" s="1">
-        <v>267.90393013100436</v>
-      </c>
-      <c r="H14" s="1">
-        <v>592.69565217391312</v>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>2</v>
@@ -1920,14 +1920,14 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <v>385.304347826087</v>
-      </c>
-      <c r="G15" s="1">
-        <v>386.21739130434787</v>
-      </c>
-      <c r="H15" s="1">
-        <v>607.04347826086962</v>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>2</v>
@@ -2024,14 +2024,14 @@
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
-        <v>444.52173913043481</v>
-      </c>
-      <c r="G16" s="1">
-        <v>490.11235955056179</v>
-      </c>
-      <c r="H16" s="1">
-        <v>443.47826086956525</v>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>2</v>
@@ -2128,92 +2128,92 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
-        <v>474.13043478260875</v>
-      </c>
-      <c r="G17" s="1">
-        <v>371.24183006535952</v>
-      </c>
-      <c r="H17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="I17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="J17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="K17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="L17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="M17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="N17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="O17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="P17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="R17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="S17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="T17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="U17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="V17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="W17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="X17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>445.166908563135</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>445.166908563135</v>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2232,92 +2232,92 @@
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
-        <v>385.304347826087</v>
-      </c>
-      <c r="G18" s="1">
-        <v>385.76086956521743</v>
-      </c>
-      <c r="H18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="I18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="J18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="K18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="L18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="M18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="N18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="O18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="P18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="R18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="S18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="T18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="U18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="V18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="W18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="X18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>459.52173913043481</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>459.52173913043481</v>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -2336,92 +2336,92 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
-        <v>444.52173913043481</v>
-      </c>
-      <c r="G19" s="1">
-        <v>466.93922651933707</v>
-      </c>
-      <c r="H19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="I19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="J19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="K19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="L19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="M19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="N19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="O19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="P19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="R19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="S19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="T19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="U19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="V19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="W19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="X19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>462.1850220264318</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>462.1850220264318</v>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2434,29 +2434,29 @@
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
-        <v>3228.521739130435</v>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
-        <v>3449.7916666666661</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4042.826086956522</v>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>3219.130434782609</v>
+        <v>2699.3333333333335</v>
       </c>
       <c r="I20" s="1">
-        <v>1298.7567567567569</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2890.4285714285716</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3802.651685393258</v>
+        <v>2662.9565217391305</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>2</v>
@@ -2467,11 +2467,11 @@
       <c r="N20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="1">
-        <v>3975.8666666666668</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2953.826086956522</v>
+      <c r="O20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>2</v>
@@ -2538,29 +2538,29 @@
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>3282.2608695652175</v>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
-        <v>1636.6956521739132</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3456.521739130435</v>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>2799.130434782609</v>
+        <v>5021.217391304348</v>
       </c>
       <c r="I21" s="1">
-        <v>3022.434782608696</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4254.521739130435</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3783.1788079470198</v>
+        <v>3922.434782608696</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>2</v>
@@ -2571,8 +2571,8 @@
       <c r="N21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="1">
-        <v>3166.25</v>
+      <c r="O21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>2</v>
@@ -2642,29 +2642,29 @@
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
-        <v>2419.2576419213974</v>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
-        <v>2507.8695652173915</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4399.2219679633872</v>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>4419.7811816192561</v>
+        <v>3213.7991266375548</v>
       </c>
       <c r="I22" s="1">
-        <v>4648.2439024390242</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4252.3516483516487</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3411.674008810573</v>
+        <v>3865.1315789473688</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>2</v>
@@ -2675,11 +2675,11 @@
       <c r="N22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="1">
-        <v>2879.212253829322</v>
-      </c>
-      <c r="P22" s="1">
-        <v>4290.454545454545</v>
+      <c r="O22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>2</v>
@@ -2746,98 +2746,98 @@
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>3228.521739130435</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3228.521739130435</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3313.7165775401072</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3591.35761589404</v>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>3488.7050359712234</v>
+        <v>2699.3333333333335</v>
       </c>
       <c r="I23" s="1">
-        <v>3091.1187438665361</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="J23" s="1">
-        <v>3056.8266883645238</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="K23" s="1">
-        <v>3255.0896057347668</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="L23" s="1">
-        <v>3255.0896057347668</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="M23" s="1">
-        <v>3255.0896057347668</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="N23" s="1">
-        <v>3255.0896057347668</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="O23" s="1">
-        <v>3340.4897314375985</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="P23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="Q23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="R23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="S23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="T23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="U23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="V23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="W23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="X23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="Y23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="Z23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AA23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AB23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AC23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AD23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AE23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AF23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AG23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
       <c r="AH23" s="1">
-        <v>3298.7177078440582</v>
+        <v>2676.4109589041095</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -2850,98 +2850,98 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>3282.2608695652175</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3282.2608695652175</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2459.4782608695655</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2791.8260869565215</v>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>2793.6521739130435</v>
+        <v>5021.217391304348</v>
       </c>
       <c r="I24" s="1">
-        <v>2839.4086956521742</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="J24" s="1">
-        <v>3075.2608695652175</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="K24" s="1">
-        <v>3175.0700280112042</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="L24" s="1">
-        <v>3175.0700280112042</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="M24" s="1">
-        <v>3175.0700280112042</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="N24" s="1">
-        <v>3175.0700280112042</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="O24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="P24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="Q24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="R24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="S24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="T24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="U24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="V24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="W24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="X24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="Y24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="Z24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AA24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AB24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AC24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AD24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AE24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AF24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AG24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
       <c r="AH24" s="1">
-        <v>3173.9236393176275</v>
+        <v>4471.826086956522</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -2954,98 +2954,98 @@
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="1">
-        <v>2419.2576419213974</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2419.2576419213974</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2463.6601307189544</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3087.8966789667902</v>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>3423.8079470198677</v>
+        <v>3213.7991266375548</v>
       </c>
       <c r="I25" s="1">
-        <v>3649.7389738973898</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="J25" s="1">
-        <v>3752.1628688830788</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="K25" s="1">
-        <v>3702.7914404343669</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="L25" s="1">
-        <v>3702.7914404343669</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="M25" s="1">
-        <v>3702.7914404343669</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="N25" s="1">
-        <v>3702.7914404343669</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="O25" s="1">
-        <v>3597.8929765886292</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="P25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="Q25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="R25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="S25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="T25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="U25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="V25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="W25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="X25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="Y25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="Z25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AA25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AB25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AC25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AD25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AE25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AF25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AG25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
       <c r="AH25" s="1">
-        <v>3666.731927710844</v>
+        <v>3538.7527352297593</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3058,29 +3058,29 @@
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>1947.521739130435</v>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <v>5730.2678571428569</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2890.04347826087</v>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>2456.739130434783</v>
+        <v>617.04545454545462</v>
       </c>
       <c r="I26" s="1">
-        <v>2277.12</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1069.1739130434783</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3081.86263096624</v>
+        <v>1573.9565217391305</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>2</v>
@@ -3091,11 +3091,11 @@
       <c r="N26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="1">
-        <v>3206.8695652173915</v>
-      </c>
-      <c r="P26" s="1">
-        <v>2602.6956521739135</v>
+      <c r="O26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>2</v>
@@ -3162,29 +3162,29 @@
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
-        <v>3355.826086956522</v>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
-        <v>2373.6521739130435</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2089.9565217391305</v>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>1206.913043478261</v>
+        <v>1787.4782608695652</v>
       </c>
       <c r="I27" s="1">
-        <v>3280.5652173913045</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1980.913043478261</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1407.4285714285713</v>
+        <v>1596.7826086956522</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
@@ -3195,11 +3195,11 @@
       <c r="N27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="1">
-        <v>1119.7826086956522</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2370</v>
+      <c r="O27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>2</v>
@@ -3266,29 +3266,29 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
-        <v>2791.304347826087</v>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
-        <v>1879.304347826087</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2891.8695652173915</v>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>2938.826086956522</v>
+        <v>1371.625</v>
       </c>
       <c r="I28" s="1">
-        <v>2334.3913043478265</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4073.6086956521744</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2075.4782608695655</v>
+        <v>1874.1176470588236</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
@@ -3299,11 +3299,11 @@
       <c r="N28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="1">
-        <v>1431</v>
-      </c>
-      <c r="P28" s="1">
-        <v>3159.6521739130435</v>
+      <c r="O28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>2</v>
@@ -3370,98 +3370,98 @@
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>1947.521739130435</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1947.521739130435</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3813.898678414097</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3503.2456140350882</v>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>3239.9015317286653</v>
+        <v>617.04545454545462</v>
       </c>
       <c r="I29" s="1">
-        <v>3076.014525646845</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="J29" s="1">
-        <v>2729.3578670672173</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="K29" s="1">
-        <v>2815.3321976149909</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="L29" s="1">
-        <v>2815.3321976149909</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="M29" s="1">
-        <v>2815.3321976149909</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="N29" s="1">
-        <v>2815.3321976149909</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="O29" s="1">
-        <v>2860.5625313912606</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="P29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="Q29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="R29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="S29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="T29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="U29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="V29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="W29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="X29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="Y29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="Z29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AA29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AB29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AC29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AD29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AE29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AF29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AG29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
       <c r="AH29" s="1">
-        <v>2833.8586222422323</v>
+        <v>1159.1379310344828</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3474,98 +3474,98 @@
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
-        <v>3355.826086956522</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3355.826086956522</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2864.739130434783</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2606.478260869565</v>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>2256.5869565217395</v>
+        <v>1787.4782608695652</v>
       </c>
       <c r="I30" s="1">
-        <v>2461.3826086956524</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="J30" s="1">
-        <v>2381.304347826087</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="K30" s="1">
-        <v>2252.6792452830191</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="L30" s="1">
-        <v>2252.6792452830191</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="M30" s="1">
-        <v>2252.6792452830191</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="N30" s="1">
-        <v>2252.6792452830191</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="O30" s="1">
-        <v>2109.5109890109893</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="P30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="Q30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="R30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="S30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="T30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="U30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="V30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="W30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="X30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="Y30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="Z30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AA30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AB30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AC30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AD30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AE30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AF30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AG30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
       <c r="AH30" s="1">
-        <v>2135.8814814814814</v>
+        <v>1692.1304347826087</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3578,98 +3578,98 @@
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
-        <v>2791.304347826087</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2791.304347826087</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2335.304347826087</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2520.8260869565215</v>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>2625.326086956522</v>
+        <v>1371.625</v>
       </c>
       <c r="I31" s="1">
-        <v>2567.1391304347831</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="J31" s="1">
-        <v>2818.217391304348</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="K31" s="1">
-        <v>2712.1118012422367</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="L31" s="1">
-        <v>2712.1118012422367</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="M31" s="1">
-        <v>2712.1118012422367</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="N31" s="1">
-        <v>2712.1118012422367</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="O31" s="1">
-        <v>2551.9728260869565</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="P31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="Q31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="R31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="S31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="T31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="U31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="V31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="W31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="X31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="Y31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="Z31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AA31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AB31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AC31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AD31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AE31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AF31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AG31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
       <c r="AH31" s="1">
-        <v>2619.4927536231885</v>
+        <v>1617.2523961661341</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3682,29 +3682,29 @@
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
-        <v>1507.6956521739132</v>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="1">
-        <v>442.95652173913049</v>
-      </c>
-      <c r="G32" s="1">
-        <v>434.08695652173918</v>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>2204.0869565217395</v>
+        <v>971.4558472553698</v>
       </c>
       <c r="I32" s="1">
-        <v>1205.6842105263156</v>
-      </c>
-      <c r="J32" s="1">
-        <v>664.304347826087</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1674.9220489977729</v>
+        <v>1239.913043478261</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>2</v>
@@ -3715,11 +3715,11 @@
       <c r="N32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="1">
-        <v>581.08695652173913</v>
-      </c>
-      <c r="P32" s="1">
-        <v>1412.2388059701493</v>
+      <c r="O32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>2</v>
@@ -3786,29 +3786,29 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>1399.9565217391305</v>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
-        <v>1294.8260869565217</v>
-      </c>
-      <c r="G33" s="1">
-        <v>586.54945054945063</v>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>2087.941888619855</v>
+        <v>1975.4347826086957</v>
       </c>
       <c r="I33" s="1">
-        <v>905.1627906976745</v>
-      </c>
-      <c r="J33" s="1">
-        <v>751.82608695652175</v>
-      </c>
-      <c r="K33" s="1">
-        <v>864.8611111111112</v>
+        <v>750.26086956521749</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>2</v>
@@ -3819,11 +3819,11 @@
       <c r="N33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="1">
-        <v>968.08695652173924</v>
-      </c>
-      <c r="P33" s="1">
-        <v>619.12087912087918</v>
+      <c r="O33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>2</v>
@@ -3890,29 +3890,29 @@
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
-        <v>1371.3913043478262</v>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
-        <v>1065.7826086956522</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2328.521739130435</v>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>1678.5267857142858</v>
+        <v>970.17391304347836</v>
       </c>
       <c r="I34" s="1">
-        <v>858.39130434782612</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1594.3636363636363</v>
-      </c>
-      <c r="K34" s="1">
-        <v>650.60869565217399</v>
+        <v>1258.1632653061224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>2</v>
@@ -3923,11 +3923,11 @@
       <c r="N34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="1">
-        <v>2445.5172413793102</v>
-      </c>
-      <c r="P34" s="1">
-        <v>939.32203389830522</v>
+      <c r="O34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>2</v>
@@ -3994,98 +3994,98 @@
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1">
-        <v>1507.6956521739132</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1507.6956521739132</v>
-      </c>
-      <c r="F35" s="1">
-        <v>975.32608695652186</v>
-      </c>
-      <c r="G35" s="1">
-        <v>794.91304347826087</v>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>1147.2065217391305</v>
+        <v>971.4558472553698</v>
       </c>
       <c r="I35" s="1">
-        <v>1157.2162162162163</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="J35" s="1">
-        <v>1072.6119402985075</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="K35" s="1">
-        <v>1223.7786472889882</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="L35" s="1">
-        <v>1223.7786472889882</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="M35" s="1">
-        <v>1223.7786472889882</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="N35" s="1">
-        <v>1223.7786472889882</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="O35" s="1">
-        <v>1150.564635958395</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="P35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="Q35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="R35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="S35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="T35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="U35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="V35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="W35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="X35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="Y35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="Z35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AA35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AB35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AC35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AD35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AE35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AF35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AG35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
       <c r="AH35" s="1">
-        <v>1154.83556638246</v>
+        <v>1111.9453924914676</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -4098,98 +4098,98 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>1399.9565217391305</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1399.9565217391305</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1347.3913043478262</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1095.6218181818183</v>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>1324.8322147651006</v>
+        <v>1975.4347826086957</v>
       </c>
       <c r="I36" s="1">
-        <v>1243.4715960324618</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="J36" s="1">
-        <v>1159.0216579536971</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="K36" s="1">
-        <v>1118.16077170418</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="L36" s="1">
-        <v>1118.16077170418</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="M36" s="1">
-        <v>1118.16077170418</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="N36" s="1">
-        <v>1118.16077170418</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="O36" s="1">
-        <v>1098.8235294117646</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="P36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="Q36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="R36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="S36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="T36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="U36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="V36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="W36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="X36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="Y36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="Z36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AA36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AB36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AC36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AD36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AE36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AF36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AG36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
       <c r="AH36" s="1">
-        <v>1054.4382308083375</v>
+        <v>1362.8478260869567</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -4202,98 +4202,98 @@
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
-        <v>1371.3913043478262</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1371.3913043478262</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1218.5869565217392</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1588.5652173913043</v>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>1610.6126914660833</v>
+        <v>970.17391304347836</v>
       </c>
       <c r="I37" s="1">
-        <v>1459.3793706293707</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="J37" s="1">
-        <v>1481.1510263929617</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="K37" s="1">
-        <v>1361.3111668757845</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="L37" s="1">
-        <v>1361.3111668757845</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="M37" s="1">
-        <v>1361.3111668757845</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="N37" s="1">
-        <v>1361.3111668757845</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="O37" s="1">
-        <v>1491.4877173613029</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="P37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="Q37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="R37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="S37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="T37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="U37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="V37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="W37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="X37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="Y37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="Z37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AA37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AB37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AC37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AD37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AE37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AF37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AG37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
       <c r="AH37" s="1">
-        <v>1465.7684210526318</v>
+        <v>1020.7526881720431</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4312,23 +4312,23 @@
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
-        <v>885.77464788732402</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1826.3181818181818</v>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H38" s="1">
-        <v>1360.8260869565217</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2035.6363636363637</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1494.8201438848919</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2131.826086956522</v>
+        <v>2660.8695652173915</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>2</v>
@@ -4339,11 +4339,11 @@
       <c r="N38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="1">
-        <v>1308.2096069868996</v>
-      </c>
-      <c r="P38" s="1">
-        <v>447.5409836065574</v>
+      <c r="O38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>2</v>
@@ -4410,29 +4410,29 @@
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
-        <v>2789.4782608695655</v>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="1">
-        <v>1317.1304347826087</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2010.7826086956522</v>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>1945.5033557046979</v>
+        <v>2703.2214765100671</v>
       </c>
       <c r="I39" s="1">
-        <v>929.57943925233656</v>
-      </c>
-      <c r="J39" s="1">
-        <v>968.08695652173924</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3168.521739130435</v>
+        <v>3507.7611940298507</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>2</v>
@@ -4443,11 +4443,11 @@
       <c r="N39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="1">
-        <v>671</v>
-      </c>
-      <c r="P39" s="1">
-        <v>792.39130434782612</v>
+      <c r="O39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>2</v>
@@ -4514,29 +4514,29 @@
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1">
-        <v>2813.625</v>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="1">
-        <v>1544.2889390519188</v>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="1">
-        <v>2997.9405034324946</v>
-      </c>
-      <c r="I40" s="1">
-        <v>731.125</v>
+      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="1">
-        <v>2423.8695652173915</v>
+      <c r="K40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>2</v>
@@ -4547,11 +4547,11 @@
       <c r="N40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="1">
-        <v>825.26086956521749</v>
-      </c>
-      <c r="P40" s="1">
-        <v>589.95652173913049</v>
+      <c r="O40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>2</v>
@@ -4624,92 +4624,92 @@
       <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="1">
-        <v>885.77464788732402</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1363.6489607390299</v>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>1362.6696832579185</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="I41" s="1">
-        <v>1514.0970192869665</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="J41" s="1">
-        <v>1510.3195488721803</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="K41" s="1">
-        <v>1620.7882534775888</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="L41" s="1">
-        <v>1620.7882534775888</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="M41" s="1">
-        <v>1620.7882534775888</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="N41" s="1">
-        <v>1620.7882534775888</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="O41" s="1">
-        <v>1573.7885751805645</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="P41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="Q41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="R41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="S41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="T41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="U41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="V41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="W41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="X41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="Y41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="Z41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AA41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AB41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AC41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AD41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AE41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AF41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AG41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
       <c r="AH41" s="1">
-        <v>1509.9597398575409</v>
+        <v>2660.8695652173915</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -4722,98 +4722,98 @@
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
-        <v>2789.4782608695655</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2789.4782608695655</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2053.304347826087</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2039.1304347826087</v>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H42" s="1">
-        <v>2016.2233169129725</v>
+        <v>2703.2214765100671</v>
       </c>
       <c r="I42" s="1">
-        <v>1809.977827050998</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="J42" s="1">
-        <v>1732.0563380281692</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="K42" s="1">
-        <v>1956.4278438030562</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="L42" s="1">
-        <v>1956.4278438030562</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="M42" s="1">
-        <v>1956.4278438030562</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="N42" s="1">
-        <v>1956.4278438030562</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="O42" s="1">
-        <v>1882.3872000000001</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="P42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="Q42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="R42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="S42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="T42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="U42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="V42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="W42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="X42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="Y42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="Z42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AA42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AB42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AC42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AD42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AE42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AF42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AG42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
       <c r="AH42" s="1">
-        <v>1742.5271966527198</v>
+        <v>2808.0933852140079</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -4826,98 +4826,98 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="1">
-        <v>2813.625</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2813.625</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1881.0945273631839</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1881.0945273631839</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2350.3846153846152</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1839.0394736842104</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1839.0394736842104</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1974.909090909091</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1974.909090909091</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1974.909090909091</v>
-      </c>
-      <c r="N43" s="1">
-        <v>1974.909090909091</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1758.172131147541</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="S43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="W43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="X43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>1572.8689655172416</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>1572.8689655172416</v>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4939,17 +4939,17 @@
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="1">
-        <v>2395.9345794392525</v>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H44" s="1">
-        <v>860.85365853658539</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1708.9565217391305</v>
+        <v>363.66666666666669</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3779.8648648648646</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>2</v>
@@ -4963,11 +4963,11 @@
       <c r="N44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="1">
-        <v>3939.5485327313768</v>
-      </c>
-      <c r="P44" s="1">
-        <v>4564.5945945945941</v>
+      <c r="O44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>2</v>
@@ -5040,23 +5040,23 @@
       <c r="E45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="1">
-        <v>3150.612244897959</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3857.6039119804404</v>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H45" s="1">
-        <v>3237.4889867841412</v>
+        <v>3721.2</v>
       </c>
       <c r="I45" s="1">
-        <v>5290.7913669064747</v>
-      </c>
-      <c r="J45" s="1">
-        <v>3984.7136563876652</v>
-      </c>
-      <c r="K45" s="1">
-        <v>2503.9849624060148</v>
+        <v>4524.9655172413795</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>2</v>
@@ -5067,11 +5067,11 @@
       <c r="N45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O45" s="1">
-        <v>1719.2608695652175</v>
-      </c>
-      <c r="P45" s="1">
-        <v>4258.5652173913049</v>
+      <c r="O45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>2</v>
@@ -5144,20 +5144,20 @@
       <c r="E46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="1">
-        <v>3991.3043478260875</v>
-      </c>
-      <c r="G46" s="1">
-        <v>5112.0710059171606</v>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H46" s="1">
-        <v>2536.2631578947367</v>
+        <v>2470.9213483146068</v>
       </c>
       <c r="I46" s="1">
-        <v>4441.4634146341468</v>
-      </c>
-      <c r="J46" s="1">
-        <v>6222.5806451612889</v>
+        <v>3441.8426966292132</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>2</v>
@@ -5171,11 +5171,11 @@
       <c r="N46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O46" s="1">
-        <v>6102.3927765237013</v>
-      </c>
-      <c r="P46" s="1">
-        <v>2909.4642857142858</v>
+      <c r="O46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>2</v>
@@ -5251,89 +5251,89 @@
       <c r="F47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="1">
-        <v>2395.9345794392525</v>
+      <c r="G47" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>1970.6756756756756</v>
+        <v>363.66666666666669</v>
       </c>
       <c r="I47" s="1">
-        <v>1970.6756756756756</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="J47" s="1">
-        <v>1856.235741444867</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="K47" s="1">
-        <v>1856.235741444867</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="L47" s="1">
-        <v>1856.235741444867</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="M47" s="1">
-        <v>1856.235741444867</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="N47" s="1">
-        <v>1856.235741444867</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="O47" s="1">
-        <v>2473.5652173913045</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="P47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="Q47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="R47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="S47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="T47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="U47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="V47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="W47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="X47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="Y47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="Z47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AA47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AB47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AC47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AD47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AE47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AF47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AG47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
       <c r="AH47" s="1">
-        <v>2952.3775141825686</v>
+        <v>2250.2238805970151</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -5352,92 +5352,92 @@
       <c r="E48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="1">
-        <v>3150.612244897959</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3490.7999999999997</v>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H48" s="1">
-        <v>3402.6073619631902</v>
+        <v>3721.2</v>
       </c>
       <c r="I48" s="1">
-        <v>3584.4906444906437</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="J48" s="1">
-        <v>3680.2741170268846</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="K48" s="1">
-        <v>3535.6171983356444</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="L48" s="1">
-        <v>3535.6171983356444</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="M48" s="1">
-        <v>3535.6171983356444</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="N48" s="1">
-        <v>3535.6171983356444</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="O48" s="1">
-        <v>3217.0796797560042</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="P48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="Q48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="R48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="S48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="T48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="U48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="V48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="W48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="X48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="Y48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="Z48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AA48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AB48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AC48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AD48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AE48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AF48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AG48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
       <c r="AH48" s="1">
-        <v>3372.4748621472586</v>
+        <v>4116.2711864406783</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -5456,92 +5456,92 @@
       <c r="E49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="1">
-        <v>3991.3043478260875</v>
-      </c>
-      <c r="G49" s="1">
-        <v>4292.4324324324316</v>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>3631.040634291377</v>
+        <v>2470.9213483146068</v>
       </c>
       <c r="I49" s="1">
-        <v>3848.0551523947747</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="J49" s="1">
-        <v>4352.8114285714282</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="K49" s="1">
-        <v>4352.8114285714282</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="L49" s="1">
-        <v>4352.8114285714282</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="M49" s="1">
-        <v>4352.8114285714282</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="N49" s="1">
-        <v>4352.8114285714282</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="O49" s="1">
-        <v>4706.2380300957593</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="P49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="Q49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="R49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="S49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="T49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="U49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="V49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="W49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="X49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="Y49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="Z49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AA49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AB49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AC49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AD49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AE49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AF49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AG49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
       <c r="AH49" s="1">
-        <v>4401.4464218099201</v>
+        <v>2956.3820224719102</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -5563,17 +5563,17 @@
       <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="1">
-        <v>2359.5428571428574</v>
-      </c>
-      <c r="H50" s="1">
-        <v>8788.6779661016953</v>
+      <c r="G50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>2373.9740259740261</v>
-      </c>
-      <c r="J50" s="1">
-        <v>646.43478260869574</v>
+        <v>2848.826086956522</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>2</v>
@@ -5587,11 +5587,11 @@
       <c r="N50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="1">
-        <v>2552.217391304348</v>
-      </c>
-      <c r="P50" s="1">
-        <v>781.88340807174882</v>
+      <c r="O50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>2</v>
@@ -5658,8 +5658,8 @@
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
-        <v>17958.639053254439</v>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>2</v>
@@ -5667,17 +5667,17 @@
       <c r="F51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="1">
-        <v>3049.4006309148267</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1014.0000000000001</v>
+      <c r="G51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I51" s="1">
-        <v>13117.615894039736</v>
-      </c>
-      <c r="J51" s="1">
-        <v>2191.0447761194027</v>
+        <v>11250.663716814159</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>2</v>
@@ -5694,8 +5694,8 @@
       <c r="O51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="1">
-        <v>2290.434782608696</v>
+      <c r="P51" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>2</v>
@@ -5768,20 +5768,20 @@
       <c r="E52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="1">
-        <v>2105.0149253731342</v>
-      </c>
-      <c r="G52" s="1">
-        <v>11663.501483679524</v>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H52" s="1">
-        <v>967.56521739130437</v>
+        <v>10502.270270270272</v>
       </c>
       <c r="I52" s="1">
-        <v>6458.375</v>
-      </c>
-      <c r="J52" s="1">
-        <v>14502.262773722628</v>
+        <v>2743.5652173913045</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>2</v>
@@ -5795,11 +5795,11 @@
       <c r="N52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O52" s="1">
-        <v>362.76923076923077</v>
-      </c>
-      <c r="P52" s="1">
-        <v>1606.0434782608697</v>
+      <c r="O52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>2</v>
@@ -5875,89 +5875,89 @@
       <c r="F53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="1">
-        <v>2359.5428571428574</v>
-      </c>
-      <c r="H53" s="1">
-        <v>5300</v>
+      <c r="G53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I53" s="1">
-        <v>4206.2912621359228</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="J53" s="1">
-        <v>3107.2751677852357</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="K53" s="1">
-        <v>3107.2751677852357</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="L53" s="1">
-        <v>3107.2751677852357</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="M53" s="1">
-        <v>3107.2751677852357</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="N53" s="1">
-        <v>3107.2751677852357</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="O53" s="1">
-        <v>2976.3384615384616</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="P53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="Q53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="R53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="S53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="T53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="U53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="V53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="W53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="X53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="Y53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="Z53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AA53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AB53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AC53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AD53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AE53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AF53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AG53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
       <c r="AH53" s="1">
-        <v>2751.1366774045105</v>
+        <v>2848.826086956522</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -5970,98 +5970,98 @@
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
-        <v>17958.639053254439</v>
-      </c>
-      <c r="E54" s="1">
-        <v>17958.639053254439</v>
-      </c>
-      <c r="F54" s="1">
-        <v>17958.639053254439</v>
-      </c>
-      <c r="G54" s="1">
-        <v>10743.022900763359</v>
-      </c>
-      <c r="H54" s="1">
-        <v>6729.255605381165</v>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I54" s="1">
-        <v>8574.8724489795914</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="J54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="K54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="L54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="M54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="N54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="O54" s="1">
-        <v>7849.5195025438097</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="P54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="Q54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="R54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="S54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="T54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="U54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="V54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="W54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="X54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="Y54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="Z54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AA54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AB54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AC54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AD54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AE54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AF54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AG54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
       <c r="AH54" s="1">
-        <v>6702.2880215343203</v>
+        <v>11250.663716814159</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -6080,92 +6080,92 @@
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="1">
-        <v>2105.0149253731342</v>
-      </c>
-      <c r="G55" s="1">
-        <v>6898.4821428571431</v>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H55" s="1">
-        <v>4488.3922261484095</v>
+        <v>10502.270270270272</v>
       </c>
       <c r="I55" s="1">
-        <v>5074.9875930521093</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="J55" s="1">
-        <v>6444.5917285259811</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="K55" s="1">
-        <v>6444.5917285259811</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="L55" s="1">
-        <v>6444.5917285259811</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="M55" s="1">
-        <v>6444.5917285259811</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="N55" s="1">
-        <v>6444.5917285259811</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="O55" s="1">
-        <v>5707.7446411929168</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="P55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="Q55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="R55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="S55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="T55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="U55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="V55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="W55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="X55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="Y55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="Z55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AA55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AB55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AC55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AD55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AE55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AF55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AG55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
       <c r="AH55" s="1">
-        <v>4983.7298541826549</v>
+        <v>6202.265060240964</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -6178,8 +6178,8 @@
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="1">
-        <v>3384.0528634361235</v>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>2</v>
@@ -6187,20 +6187,20 @@
       <c r="F56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="1">
-        <v>2296.434782608696</v>
+      <c r="G56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H56" s="1">
-        <v>2693.217391304348</v>
+        <v>3081.521739130435</v>
       </c>
       <c r="I56" s="1">
-        <v>1013.8095238095237</v>
-      </c>
-      <c r="J56" s="1">
-        <v>2446.304347826087</v>
-      </c>
-      <c r="K56" s="1">
-        <v>3671.7171717171723</v>
+        <v>1761.1304347826087</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>2</v>
@@ -6211,11 +6211,11 @@
       <c r="N56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="1">
-        <v>2372.3076923076924</v>
-      </c>
-      <c r="P56" s="1">
-        <v>2362.304347826087</v>
+      <c r="O56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>2</v>
@@ -6282,29 +6282,29 @@
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="1">
-        <v>3220</v>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="1">
-        <v>2538.5</v>
-      </c>
-      <c r="G57" s="1">
-        <v>2822.9787234042551</v>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H57" s="1">
-        <v>2953.8028169014087</v>
+        <v>3624.4044943820222</v>
       </c>
       <c r="I57" s="1">
-        <v>2450.8810572687225</v>
-      </c>
-      <c r="J57" s="1">
-        <v>3289.3333333333335</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1932.5274725274726</v>
+        <v>2159.3406593406594</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>2</v>
@@ -6315,11 +6315,11 @@
       <c r="N57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O57" s="1">
-        <v>3354.1978021978025</v>
-      </c>
-      <c r="P57" s="1">
-        <v>3273.542168674699</v>
+      <c r="O57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>2</v>
@@ -6386,8 +6386,8 @@
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="1">
-        <v>3264.652173913044</v>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
@@ -6395,20 +6395,20 @@
       <c r="F58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="1">
-        <v>2735.4782608695655</v>
+      <c r="G58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H58" s="1">
-        <v>1777.0434782608697</v>
+        <v>2238.913043478261</v>
       </c>
       <c r="I58" s="1">
-        <v>2780.1739130434785</v>
-      </c>
-      <c r="J58" s="1">
-        <v>3361.4732142857142</v>
-      </c>
-      <c r="K58" s="1">
-        <v>1996.0264900662253</v>
+        <v>3926.5771812080534</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
@@ -6419,8 +6419,8 @@
       <c r="N58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="1">
-        <v>4824.4897959183672</v>
+      <c r="O58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>2</v>
@@ -6490,98 +6490,98 @@
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="1">
-        <v>3384.0528634361235</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3384.0528634361235</v>
-      </c>
-      <c r="F59" s="1">
-        <v>3384.0528634361235</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2836.6739606126916</v>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H59" s="1">
-        <v>2807.8321678321677</v>
+        <v>3081.521739130435</v>
       </c>
       <c r="I59" s="1">
-        <v>2362.2733245729305</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="J59" s="1">
-        <v>2381.7759838546922</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="K59" s="1">
-        <v>2781.8238774799861</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="L59" s="1">
-        <v>2781.8238774799861</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="M59" s="1">
-        <v>2781.8238774799861</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="N59" s="1">
-        <v>2781.8238774799861</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="O59" s="1">
-        <v>2740.2063789868671</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="P59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="Q59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="R59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="S59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="T59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="U59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="V59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="W59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="X59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="Y59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="Z59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AA59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AB59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AC59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AD59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AE59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AF59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AG59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
       <c r="AH59" s="1">
-        <v>2692.6845270639692</v>
+        <v>2421.326086956522</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -6594,98 +6594,98 @@
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="1">
-        <v>3220</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3220</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2982.9565217391305</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2922.1563342318059</v>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H60" s="1">
-        <v>2930.9161793372318</v>
+        <v>3624.4044943820222</v>
       </c>
       <c r="I60" s="1">
-        <v>2821.5654791771199</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="J60" s="1">
-        <v>2907.7282030290626</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="K60" s="1">
-        <v>2754.6169772256726</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="L60" s="1">
-        <v>2754.6169772256726</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="M60" s="1">
-        <v>2754.6169772256726</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="N60" s="1">
-        <v>2754.6169772256726</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="O60" s="1">
-        <v>2835.9797196540408</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="P60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="Q60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="R60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="S60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="T60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="U60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="V60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="W60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="X60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="Y60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="Z60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AA60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AB60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AC60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AD60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AE60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AF60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AG60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
       <c r="AH60" s="1">
-        <v>2884.1719745222927</v>
+        <v>2965.216316440049</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -6698,98 +6698,98 @@
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="1">
-        <v>3264.652173913044</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3264.652173913044</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3264.652173913044</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3000.0652173913045</v>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H61" s="1">
-        <v>2592.391304347826</v>
+        <v>2238.913043478261</v>
       </c>
       <c r="I61" s="1">
-        <v>2629.9478260869569</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="J61" s="1">
-        <v>2780.7639208467563</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="K61" s="1">
-        <v>2645.3922315308459</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="L61" s="1">
-        <v>2645.3922315308459</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="M61" s="1">
-        <v>2645.3922315308459</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="N61" s="1">
-        <v>2645.3922315308459</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="O61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="P61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="Q61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="R61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="S61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="T61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="U61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="V61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="W61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="X61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="Y61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="Z61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AA61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AB61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AC61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AD61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AE61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AF61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AG61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
       <c r="AH61" s="1">
-        <v>2760.9087630724848</v>
+        <v>3070.6504961411247</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -6802,29 +6802,29 @@
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="1">
-        <v>4934.8695652173919</v>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="1">
-        <v>3005.347826086957</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2627.0938215102974</v>
-      </c>
-      <c r="H62" s="1">
-        <v>4578.5977859778595</v>
+      <c r="F62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I62" s="1">
-        <v>2002.8571428571429</v>
-      </c>
-      <c r="J62" s="1">
-        <v>1819.4</v>
-      </c>
-      <c r="K62" s="1">
-        <v>672.91304347826087</v>
+        <v>3888.3913043478265</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>2</v>
@@ -6835,11 +6835,11 @@
       <c r="N62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O62" s="1">
-        <v>2853.1685393258426</v>
-      </c>
-      <c r="P62" s="1">
-        <v>3411.130434782609</v>
+      <c r="O62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>2</v>
@@ -6906,26 +6906,26 @@
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="1">
-        <v>4202.9302325581402</v>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="1">
-        <v>7005.1982378854627</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1871.56462585034</v>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H63" s="1">
-        <v>2548.7697160883281</v>
+        <v>3434.4827586206893</v>
       </c>
       <c r="I63" s="1">
-        <v>1941.2</v>
-      </c>
-      <c r="J63" s="1">
-        <v>1997.2363636363639</v>
+        <v>3437.8666666666668</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>2</v>
@@ -6939,11 +6939,11 @@
       <c r="N63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O63" s="1">
-        <v>3072.2608695652175</v>
-      </c>
-      <c r="P63" s="1">
-        <v>2258.217391304348</v>
+      <c r="O63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>2</v>
@@ -7016,20 +7016,20 @@
       <c r="E64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F64" s="1">
-        <v>3992.4782608695655</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3972.913043478261</v>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H64" s="1">
-        <v>5402.3076923076924</v>
+        <v>2809.5652173913045</v>
       </c>
       <c r="I64" s="1">
-        <v>1933.0434782608697</v>
-      </c>
-      <c r="J64" s="1">
-        <v>3056.8345323741</v>
+        <v>6810.4677060133627</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>2</v>
@@ -7043,11 +7043,11 @@
       <c r="N64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O64" s="1">
-        <v>1213.7333333333333</v>
-      </c>
-      <c r="P64" s="1">
-        <v>4454.8474576271192</v>
+      <c r="O64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>2</v>
@@ -7114,98 +7114,98 @@
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="1">
-        <v>4934.8695652173919</v>
-      </c>
-      <c r="E65" s="1">
-        <v>4934.8695652173919</v>
-      </c>
-      <c r="F65" s="1">
-        <v>3970.1086956521744</v>
-      </c>
-      <c r="G65" s="1">
-        <v>3537.6123802505531</v>
-      </c>
-      <c r="H65" s="1">
-        <v>3710.8968058968057</v>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I65" s="1">
-        <v>3465.6075749605475</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="J65" s="1">
-        <v>3241.2267151294868</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="K65" s="1">
-        <v>2797.2491544532136</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="L65" s="1">
-        <v>2797.2491544532136</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="M65" s="1">
-        <v>2797.2491544532136</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="N65" s="1">
-        <v>2797.2491544532136</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="O65" s="1">
-        <v>2805.2607855763044</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="P65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="Q65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="R65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="S65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="T65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="U65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="V65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="W65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="X65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="Y65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="Z65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AA65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AB65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AC65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AD65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AE65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AF65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AG65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
       <c r="AH65" s="1">
-        <v>2883.4155916993832</v>
+        <v>3888.3913043478265</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -7218,98 +7218,98 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="1">
-        <v>4202.9302325581402</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4202.9302325581402</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5642.1040723981896</v>
-      </c>
-      <c r="G66" s="1">
-        <v>4387.154716981132</v>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H66" s="1">
-        <v>4032.2411693057247</v>
+        <v>3434.4827586206893</v>
       </c>
       <c r="I66" s="1">
-        <v>3857.2098214285716</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="J66" s="1">
-        <v>3609.7532656023218</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="K66" s="1">
-        <v>3609.7532656023218</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="L66" s="1">
-        <v>3609.7532656023218</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="M66" s="1">
-        <v>3609.7532656023218</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="N66" s="1">
-        <v>3609.7532656023218</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="O66" s="1">
-        <v>3511.9113573407203</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="P66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="Q66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="R66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="S66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="T66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="U66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="V66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="W66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="X66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="Y66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="Z66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AA66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AB66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AC66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AD66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AE66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AF66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AG66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
       <c r="AH66" s="1">
-        <v>3318.8416471375963</v>
+        <v>3436.5405405405409</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
@@ -7328,92 +7328,92 @@
       <c r="E67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="1">
-        <v>3992.4782608695655</v>
-      </c>
-      <c r="G67" s="1">
-        <v>3982.6956521739135</v>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H67" s="1">
-        <v>4405.3282442748105</v>
+        <v>2809.5652173913045</v>
       </c>
       <c r="I67" s="1">
-        <v>3762.8135593220345</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="J67" s="1">
-        <v>3628.2030178326477</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="K67" s="1">
-        <v>3628.2030178326477</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="L67" s="1">
-        <v>3628.2030178326477</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="M67" s="1">
-        <v>3628.2030178326477</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="N67" s="1">
-        <v>3628.2030178326477</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="O67" s="1">
-        <v>3216.1774744027307</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="P67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="Q67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="R67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="S67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="T67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="U67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="V67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="W67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="X67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="Y67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="Z67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AA67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AB67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AC67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AD67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AE67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AF67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AG67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
       <c r="AH67" s="1">
-        <v>3340.8049113233292</v>
+        <v>4785.8085808580863</v>
       </c>
     </row>
   </sheetData>

--- a/Export.xlsx
+++ b/Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://storaenso-my.sharepoint.com/personal/dariusz_buchalski_storaenso_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2174B0B1-0BE8-4679-8D80-61363943CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{2174B0B1-0BE8-4679-8D80-61363943CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29841A21-BAE8-40BB-B0AE-545B9C5143DE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF59FA5A-8DA5-47D9-B6C7-E39A087C6F68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF59FA5A-8DA5-47D9-B6C7-E39A087C6F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="9">
   <si>
     <t>Dzienne</t>
   </si>
@@ -439,8 +439,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,14 +580,14 @@
       <c r="I2" s="1">
         <v>717.68421052631584</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
+      <c r="J2" s="1">
+        <v>1265.4418604651164</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2087.0270270270271</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4795.3581661891121</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>2</v>
@@ -595,14 +595,14 @@
       <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
+      <c r="O2" s="1">
+        <v>1594.2199488491051</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2563.4862385321103</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2034.1463414634147</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>2</v>
@@ -788,8 +788,8 @@
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
+      <c r="J4" s="1">
+        <v>3638</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>2</v>
@@ -893,79 +893,79 @@
         <v>717.68421052631584</v>
       </c>
       <c r="J5" s="1">
-        <v>717.68421052631584</v>
+        <v>1047.1048951048949</v>
       </c>
       <c r="K5" s="1">
-        <v>717.68421052631584</v>
+        <v>1401.7327188940094</v>
       </c>
       <c r="L5" s="1">
-        <v>717.68421052631584</v>
+        <v>2227.6569037656905</v>
       </c>
       <c r="M5" s="1">
-        <v>717.68421052631584</v>
+        <v>2227.6569037656905</v>
       </c>
       <c r="N5" s="1">
-        <v>717.68421052631584</v>
+        <v>2227.6569037656905</v>
       </c>
       <c r="O5" s="1">
-        <v>717.68421052631584</v>
+        <v>2091.9452054794519</v>
       </c>
       <c r="P5" s="1">
-        <v>717.68421052631584</v>
+        <v>2118.5211995863497</v>
       </c>
       <c r="Q5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="R5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="S5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="T5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="U5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="V5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="W5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="X5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="Y5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="Z5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AA5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AB5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AC5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AD5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AE5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AF5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AG5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
       <c r="AH5" s="1">
-        <v>717.68421052631584</v>
+        <v>2107.6181900045021</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1100,80 +1100,80 @@
       <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>2</v>
+      <c r="J7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>3638</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1207,11 +1207,11 @@
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>2</v>
+      <c r="K8" s="1">
+        <v>990.26086956521749</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2762.4782608695655</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>2</v>
@@ -1225,8 +1225,8 @@
       <c r="P8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>2</v>
+      <c r="Q8" s="1">
+        <v>3221.217391304348</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>2</v>
@@ -1308,14 +1308,14 @@
       <c r="I9" s="1">
         <v>3411.2359550561796</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>2</v>
+      <c r="J9" s="1">
+        <v>3530.9774436090224</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>2</v>
+      <c r="L9" s="1">
+        <v>1923.913043478261</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>2</v>
@@ -1323,11 +1323,11 @@
       <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>2</v>
+      <c r="O9" s="1">
+        <v>757.82608695652175</v>
+      </c>
+      <c r="P9" s="1">
+        <v>967.46606334841624</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>2</v>
@@ -1415,11 +1415,11 @@
       <c r="J10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>2</v>
+      <c r="K10" s="1">
+        <v>1125.6521739130435</v>
+      </c>
+      <c r="L10" s="1">
+        <v>815.88785046728981</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>2</v>
@@ -1427,14 +1427,14 @@
       <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>2</v>
+      <c r="O10" s="1">
+        <v>329.92207792207796</v>
+      </c>
+      <c r="P10" s="1">
+        <v>822.67605633802816</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2763.4426229508199</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>2</v>
@@ -1520,76 +1520,76 @@
         <v>1292.8695652173915</v>
       </c>
       <c r="K11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1141.5652173913045</v>
       </c>
       <c r="L11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1681.8695652173913</v>
       </c>
       <c r="M11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1681.8695652173913</v>
       </c>
       <c r="N11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1681.8695652173913</v>
       </c>
       <c r="O11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1681.8695652173913</v>
       </c>
       <c r="P11" s="1">
-        <v>1292.8695652173915</v>
+        <v>1681.8695652173913</v>
       </c>
       <c r="Q11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="R11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="S11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="T11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="U11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="V11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="W11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="X11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="Y11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="Z11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AA11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AB11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AC11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AD11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AE11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AF11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AG11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
       <c r="AH11" s="1">
-        <v>1292.8695652173915</v>
+        <v>2066.7065217391305</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1621,79 +1621,79 @@
         <v>3411.2359550561796</v>
       </c>
       <c r="J12" s="1">
-        <v>3411.2359550561796</v>
+        <v>3482.9729729729729</v>
       </c>
       <c r="K12" s="1">
-        <v>3411.2359550561796</v>
+        <v>3482.9729729729729</v>
       </c>
       <c r="L12" s="1">
-        <v>3411.2359550561796</v>
+        <v>2431.4076246334312</v>
       </c>
       <c r="M12" s="1">
-        <v>3411.2359550561796</v>
+        <v>2431.4076246334312</v>
       </c>
       <c r="N12" s="1">
-        <v>3411.2359550561796</v>
+        <v>2431.4076246334312</v>
       </c>
       <c r="O12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1757.2854640980738</v>
       </c>
       <c r="P12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="Q12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="R12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="S12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="T12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="U12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="V12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="W12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="X12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="Y12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="Z12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AA12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AB12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AC12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AD12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AE12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AF12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AG12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
       <c r="AH12" s="1">
-        <v>3411.2359550561796</v>
+        <v>1536.8939393939393</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -1728,76 +1728,76 @@
         <v>1044.0652173913045</v>
       </c>
       <c r="K13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1071.2608695652175</v>
       </c>
       <c r="L13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1010.8075221238938</v>
       </c>
       <c r="M13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1010.8075221238938</v>
       </c>
       <c r="N13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1010.8075221238938</v>
       </c>
       <c r="O13" s="1">
-        <v>1044.0652173913045</v>
+        <v>891.27222982216153</v>
       </c>
       <c r="P13" s="1">
-        <v>1044.0652173913045</v>
+        <v>880.11454753722785</v>
       </c>
       <c r="Q13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="R13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="S13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="T13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="U13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="V13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="W13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="X13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="Y13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="Z13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AA13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AB13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AC13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AD13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AE13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AF13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AG13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
       <c r="AH13" s="1">
-        <v>1044.0652173913045</v>
+        <v>1111.0351758793968</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2452,14 +2452,14 @@
       <c r="I20" s="1">
         <v>2662.9565217391305</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>2</v>
+      <c r="J20" s="1">
+        <v>2862.6521739130435</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>2</v>
+      <c r="L20" s="1">
+        <v>3964.9213483146068</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>2</v>
@@ -2467,14 +2467,14 @@
       <c r="N20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>2</v>
+      <c r="O20" s="1">
+        <v>3035.739130434783</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2182.695652173913</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3279.521739130435</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>2</v>
@@ -2556,14 +2556,14 @@
       <c r="I21" s="1">
         <v>3922.434782608696</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>2</v>
+      <c r="J21" s="1">
+        <v>5705.4065934065939</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2944.2758620689656</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3210.9535452322739</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>2</v>
@@ -2571,14 +2571,14 @@
       <c r="N21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>2</v>
+      <c r="O21" s="1">
+        <v>5575.4887218045105</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2257.04347826087</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1753.6842105263158</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>2</v>
@@ -2660,14 +2660,14 @@
       <c r="I22" s="1">
         <v>3865.1315789473688</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>2</v>
+      <c r="J22" s="1">
+        <v>2876.2076749435664</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2245.25</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1837.5652173913045</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>2</v>
@@ -2675,14 +2675,14 @@
       <c r="N22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>2</v>
+      <c r="O22" s="1">
+        <v>5148.8646288209611</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3290.7189542483661</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6743.6323851203506</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>2</v>
@@ -2765,79 +2765,79 @@
         <v>2676.4109589041095</v>
       </c>
       <c r="J23" s="1">
-        <v>2676.4109589041095</v>
+        <v>2748.4033613445381</v>
       </c>
       <c r="K23" s="1">
-        <v>2676.4109589041095</v>
+        <v>2748.4033613445381</v>
       </c>
       <c r="L23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3268.9326923076924</v>
       </c>
       <c r="M23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3268.9326923076924</v>
       </c>
       <c r="N23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3268.9326923076924</v>
       </c>
       <c r="O23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3226.7007874015753</v>
       </c>
       <c r="P23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3066.6200000000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="R23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="S23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="T23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="U23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="V23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="W23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="X23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="Y23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="Z23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AA23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AB23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AC23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AD23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AE23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AF23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AG23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
       <c r="AH23" s="1">
-        <v>2676.4109589041095</v>
+        <v>3094.9248554913297</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -2869,79 +2869,79 @@
         <v>4471.826086956522</v>
       </c>
       <c r="J24" s="1">
-        <v>4471.826086956522</v>
+        <v>4880.0290909090918</v>
       </c>
       <c r="K24" s="1">
-        <v>4471.826086956522</v>
+        <v>4414.8066298342546</v>
       </c>
       <c r="L24" s="1">
-        <v>4471.826086956522</v>
+        <v>4192.9157278053181</v>
       </c>
       <c r="M24" s="1">
-        <v>4471.826086956522</v>
+        <v>4192.9157278053181</v>
       </c>
       <c r="N24" s="1">
-        <v>4471.826086956522</v>
+        <v>4192.9157278053181</v>
       </c>
       <c r="O24" s="1">
-        <v>4471.826086956522</v>
+        <v>4340.9094567404427</v>
       </c>
       <c r="P24" s="1">
-        <v>4471.826086956522</v>
+        <v>4015.4159592529713</v>
       </c>
       <c r="Q24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="R24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="S24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="T24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="U24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="V24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="W24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="X24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="Y24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="Z24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AA24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AB24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AC24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AD24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AE24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AF24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AG24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
       <c r="AH24" s="1">
-        <v>4471.826086956522</v>
+        <v>3712.1670097030283</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -2973,79 +2973,79 @@
         <v>3538.7527352297593</v>
       </c>
       <c r="J25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3322.4613117170229</v>
       </c>
       <c r="K25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3040.9907457811651</v>
       </c>
       <c r="L25" s="1">
-        <v>3538.7527352297593</v>
+        <v>2799.9912929908578</v>
       </c>
       <c r="M25" s="1">
-        <v>3538.7527352297593</v>
+        <v>2799.9912929908578</v>
       </c>
       <c r="N25" s="1">
-        <v>3538.7527352297593</v>
+        <v>2799.9912929908578</v>
       </c>
       <c r="O25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3190.4754990925589</v>
       </c>
       <c r="P25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3204.7915370255137</v>
       </c>
       <c r="Q25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="R25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="S25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="T25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="U25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="V25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="W25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="X25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="Y25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="Z25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AA25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AB25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AC25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AD25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AE25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AF25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AG25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
       <c r="AH25" s="1">
-        <v>3538.7527352297593</v>
+        <v>3645.3391446472356</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3076,14 +3076,14 @@
       <c r="I26" s="1">
         <v>1573.9565217391305</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>2</v>
+      <c r="J26" s="1">
+        <v>819.39130434782612</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1439.217391304348</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2280.4719101123596</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>2</v>
@@ -3091,14 +3091,14 @@
       <c r="N26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>2</v>
+      <c r="O26" s="1">
+        <v>2858.8235294117644</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1192.0975609756099</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1400.3478260869567</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>2</v>
@@ -3180,14 +3180,14 @@
       <c r="I27" s="1">
         <v>1596.7826086956522</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>2</v>
+      <c r="J27" s="1">
+        <v>2260</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2364.8979591836733</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1738.304347826087</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>2</v>
@@ -3195,11 +3195,11 @@
       <c r="N27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>2</v>
+      <c r="O27" s="1">
+        <v>2348.6597938144328</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1522.0434782608697</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>2</v>
@@ -3284,14 +3284,14 @@
       <c r="I28" s="1">
         <v>1874.1176470588236</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>2</v>
+      <c r="J28" s="1">
+        <v>2010.913043478261</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1719.6521739130435</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1594.4347826086957</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>2</v>
@@ -3299,14 +3299,14 @@
       <c r="N28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>2</v>
+      <c r="O28" s="1">
+        <v>3082.6956521739135</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2890.7894736842109</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1740.6521739130437</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>2</v>
@@ -3389,79 +3389,79 @@
         <v>1159.1379310344828</v>
       </c>
       <c r="J29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1036.2735849056603</v>
       </c>
       <c r="K29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1143.2909930715934</v>
       </c>
       <c r="L29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1529.2906178489702</v>
       </c>
       <c r="M29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1529.2906178489702</v>
       </c>
       <c r="N29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1529.2906178489702</v>
       </c>
       <c r="O29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1721.0835509138383</v>
       </c>
       <c r="P29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1658.6528497409324</v>
       </c>
       <c r="Q29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="R29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="S29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="T29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="U29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="V29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="W29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="X29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="Y29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="Z29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AA29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AB29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AC29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AD29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AE29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AF29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AG29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
       <c r="AH29" s="1">
-        <v>1159.1379310344828</v>
+        <v>1628.4494153533301</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3493,79 +3493,79 @@
         <v>1692.1304347826087</v>
       </c>
       <c r="J30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1874.4354243542439</v>
       </c>
       <c r="K30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1994.8663697104678</v>
       </c>
       <c r="L30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1942.5531914893616</v>
       </c>
       <c r="M30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1942.5531914893616</v>
       </c>
       <c r="N30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1942.5531914893616</v>
       </c>
       <c r="O30" s="1">
-        <v>1692.1304347826087</v>
+        <v>2002.1482602118006</v>
       </c>
       <c r="P30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="Q30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="R30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="S30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="T30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="U30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="V30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="W30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="X30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="Y30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="Z30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AA30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AB30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AC30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AD30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AE30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AF30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AG30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
       <c r="AH30" s="1">
-        <v>1692.1304347826087</v>
+        <v>1930.9987113402062</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3597,79 +3597,79 @@
         <v>1617.2523961661341</v>
       </c>
       <c r="J31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1746.6904932094353</v>
       </c>
       <c r="K31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1740</v>
       </c>
       <c r="L31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1711.1254851228978</v>
       </c>
       <c r="M31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1711.1254851228978</v>
       </c>
       <c r="N31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1711.1254851228978</v>
       </c>
       <c r="O31" s="1">
-        <v>1617.2523961661341</v>
+        <v>1938.1576106513137</v>
       </c>
       <c r="P31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2072.4389489953633</v>
       </c>
       <c r="Q31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="R31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="S31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="T31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="U31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="V31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="W31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="X31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="Y31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="Z31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AA31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AB31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AC31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AD31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AE31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AF31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AG31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
       <c r="AH31" s="1">
-        <v>1617.2523961661341</v>
+        <v>2031.1339648173207</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3715,14 +3715,14 @@
       <c r="N32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>2</v>
+      <c r="O32" s="1">
+        <v>2355.913043478261</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1360.5574912891987</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>604.77751756440273</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>2</v>
@@ -3807,11 +3807,11 @@
       <c r="J33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>2</v>
+      <c r="K33" s="1">
+        <v>1066.1224489795918</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1008.1304347826087</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>2</v>
@@ -3819,14 +3819,14 @@
       <c r="N33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>2</v>
+      <c r="O33" s="1">
+        <v>668.60869565217399</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3006.8571428571427</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1386.6521739130435</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>2</v>
@@ -3923,14 +3923,14 @@
       <c r="N34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>2</v>
+      <c r="O34" s="1">
+        <v>1314.3913043478262</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1273.3333333333333</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>715.82022471910113</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>2</v>
@@ -4028,64 +4028,64 @@
         <v>1111.9453924914676</v>
       </c>
       <c r="O35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1539.2979835698286</v>
       </c>
       <c r="P35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1507.7490774907749</v>
       </c>
       <c r="Q35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="R35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="S35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="T35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="U35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="V35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="W35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="X35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="Y35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="Z35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AA35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AB35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AC35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AD35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AE35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AF35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AG35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
       <c r="AH35" s="1">
-        <v>1111.9453924914676</v>
+        <v>1319.9415489527521</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -4120,76 +4120,76 @@
         <v>1362.8478260869567</v>
       </c>
       <c r="K36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1321.9681349578259</v>
       </c>
       <c r="L36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1227.4263261296662</v>
       </c>
       <c r="M36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1227.4263261296662</v>
       </c>
       <c r="N36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1227.4263261296662</v>
       </c>
       <c r="O36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1098.0573729240064</v>
       </c>
       <c r="P36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1431.1258828417117</v>
       </c>
       <c r="Q36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="R36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="S36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="T36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="U36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="V36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="W36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="X36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="Y36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="Z36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AA36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AB36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AC36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AD36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AE36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AF36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AG36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
       <c r="AH36" s="1">
-        <v>1362.8478260869567</v>
+        <v>1423.9902336937566</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -4236,64 +4236,64 @@
         <v>1020.7526881720431</v>
       </c>
       <c r="O37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1153.4381139489196</v>
       </c>
       <c r="P37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1181.7704426106527</v>
       </c>
       <c r="Q37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="R37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="S37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="T37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="U37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="V37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="W37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="X37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="Y37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="Z37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AA37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AB37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AC37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AD37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AE37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AF37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AG37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
       <c r="AH37" s="1">
-        <v>1020.7526881720431</v>
+        <v>1065.1518560179979</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4324,14 +4324,14 @@
       <c r="I38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>2</v>
+      <c r="J38" s="1">
+        <v>2006.608695652174</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1183.0434782608697</v>
+      </c>
+      <c r="L38" s="1">
+        <v>820.43126684636127</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>2</v>
@@ -4339,11 +4339,11 @@
       <c r="N38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>2</v>
+      <c r="O38" s="1">
+        <v>1900.9756097560976</v>
+      </c>
+      <c r="P38" s="1">
+        <v>816.00000000000011</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>2</v>
@@ -4428,11 +4428,11 @@
       <c r="I39" s="1">
         <v>3507.7611940298507</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>2</v>
+      <c r="J39" s="1">
+        <v>2986.2857142857142</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1529.4782608695652</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>2</v>
@@ -4443,14 +4443,14 @@
       <c r="N39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>2</v>
+      <c r="O39" s="1">
+        <v>780.41379310344826</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>2</v>
+      <c r="Q39" s="1">
+        <v>1091.3478260869565</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>2</v>
@@ -4535,8 +4535,8 @@
       <c r="J40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>2</v>
+      <c r="K40" s="1">
+        <v>2091.818181818182</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>2</v>
@@ -4547,14 +4547,14 @@
       <c r="N40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>2</v>
+      <c r="O40" s="1">
+        <v>1747.8202247191011</v>
+      </c>
+      <c r="P40" s="1">
+        <v>950.78260869565213</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1002.2608695652175</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>2</v>
@@ -4637,79 +4637,79 @@
         <v>2660.8695652173915</v>
       </c>
       <c r="J41" s="1">
-        <v>2660.8695652173915</v>
+        <v>2333.739130434783</v>
       </c>
       <c r="K41" s="1">
-        <v>2660.8695652173915</v>
+        <v>2103.6000000000004</v>
       </c>
       <c r="L41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1790.6114398422092</v>
       </c>
       <c r="M41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1790.6114398422092</v>
       </c>
       <c r="N41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1790.6114398422092</v>
       </c>
       <c r="O41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1815.8519269776875</v>
       </c>
       <c r="P41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="Q41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="R41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="S41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="T41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="U41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="V41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="W41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="X41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="Y41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="Z41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AA41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AB41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AC41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AD41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AE41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AF41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AG41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
       <c r="AH41" s="1">
-        <v>2660.8695652173915</v>
+        <v>1626.735197368421</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -4741,79 +4741,79 @@
         <v>2808.0933852140079</v>
       </c>
       <c r="J42" s="1">
-        <v>2808.0933852140079</v>
+        <v>2859.779005524862</v>
       </c>
       <c r="K42" s="1">
-        <v>2808.0933852140079</v>
+        <v>2342.9391891891892</v>
       </c>
       <c r="L42" s="1">
-        <v>2808.0933852140079</v>
+        <v>2342.9391891891892</v>
       </c>
       <c r="M42" s="1">
-        <v>2808.0933852140079</v>
+        <v>2342.9391891891892</v>
       </c>
       <c r="N42" s="1">
-        <v>2808.0933852140079</v>
+        <v>2342.9391891891892</v>
       </c>
       <c r="O42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1923.1130327362571</v>
       </c>
       <c r="P42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1923.1130327362571</v>
       </c>
       <c r="Q42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="R42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="S42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="T42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="U42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="V42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="W42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="X42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="Y42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="Z42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AA42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AB42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AC42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AD42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AE42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AF42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AG42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
       <c r="AH42" s="1">
-        <v>2808.0933852140079</v>
+        <v>1739.0764790764792</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -4847,77 +4847,77 @@
       <c r="J43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH43" s="1" t="s">
-        <v>2</v>
+      <c r="K43" s="1">
+        <v>2091.818181818182</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2091.818181818182</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2091.818181818182</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2091.818181818182</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1804.6153846153848</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1469.1116173120727</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>1308.6098654708519</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1308.6098654708519</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4948,14 +4948,14 @@
       <c r="I44" s="1">
         <v>3779.8648648648646</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>2</v>
+      <c r="J44" s="1">
+        <v>6781.3422818791942</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5193.4851936218674</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3386.2753950338597</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>2</v>
@@ -4963,14 +4963,14 @@
       <c r="N44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>2</v>
+      <c r="O44" s="1">
+        <v>5067.2359550561796</v>
+      </c>
+      <c r="P44" s="1">
+        <v>4757.0984455958551</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>9520.8695652173901</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>2</v>
@@ -5052,14 +5052,14 @@
       <c r="I45" s="1">
         <v>4524.9655172413795</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>2</v>
+      <c r="J45" s="1">
+        <v>4130.086956521739</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3089.318181818182</v>
+      </c>
+      <c r="L45" s="1">
+        <v>971.86363636363626</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>2</v>
@@ -5067,14 +5067,14 @@
       <c r="N45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>2</v>
+      <c r="O45" s="1">
+        <v>4021.7777777777778</v>
+      </c>
+      <c r="P45" s="1">
+        <v>5971.5652173913049</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>4064.2035398230091</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>2</v>
@@ -5156,14 +5156,14 @@
       <c r="I46" s="1">
         <v>3441.8426966292132</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>2</v>
+      <c r="J46" s="1">
+        <v>4516.3274336283184</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4550.217391304348</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3692.1379310344828</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>2</v>
@@ -5171,14 +5171,14 @@
       <c r="N46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>2</v>
+      <c r="O46" s="1">
+        <v>5901.8426966292136</v>
+      </c>
+      <c r="P46" s="1">
+        <v>5746.3829787234044</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>5455.0714285714284</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>2</v>
@@ -5261,79 +5261,79 @@
         <v>2250.2238805970151</v>
       </c>
       <c r="J47" s="1">
-        <v>2250.2238805970151</v>
+        <v>3869.2565947242206</v>
       </c>
       <c r="K47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4213.2426035502958</v>
       </c>
       <c r="L47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4041.4908579465537</v>
       </c>
       <c r="M47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4041.4908579465537</v>
       </c>
       <c r="N47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4041.4908579465537</v>
       </c>
       <c r="O47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4218.5492629945693</v>
       </c>
       <c r="P47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4288.6842105263149</v>
       </c>
       <c r="Q47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="R47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="S47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="T47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="U47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="V47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="W47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="X47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="Y47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="Z47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AA47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AB47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AC47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AD47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AE47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AF47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AG47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
       <c r="AH47" s="1">
-        <v>2250.2238805970151</v>
+        <v>4521.4506769825912</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -5365,79 +5365,79 @@
         <v>4116.2711864406783</v>
       </c>
       <c r="J48" s="1">
-        <v>4116.2711864406783</v>
+        <v>4120.9962825278817</v>
       </c>
       <c r="K48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3907.0005892751919</v>
       </c>
       <c r="L48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3302.667290594291</v>
       </c>
       <c r="M48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3302.667290594291</v>
       </c>
       <c r="N48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3302.667290594291</v>
       </c>
       <c r="O48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3417.2383949645946</v>
       </c>
       <c r="P48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3808.6409060626252</v>
       </c>
       <c r="Q48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="R48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="S48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="T48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="U48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="V48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="W48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="X48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="Y48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="Z48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AA48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AB48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AC48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AD48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AE48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AF48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AG48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
       <c r="AH48" s="1">
-        <v>4116.2711864406783</v>
+        <v>3842.0845396641571</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -5469,79 +5469,79 @@
         <v>2956.3820224719102</v>
       </c>
       <c r="J49" s="1">
-        <v>2956.3820224719102</v>
+        <v>3481.7883755588673</v>
       </c>
       <c r="K49" s="1">
-        <v>2956.3820224719102</v>
+        <v>3754.5283018867926</v>
       </c>
       <c r="L49" s="1">
-        <v>2956.3820224719102</v>
+        <v>3742.3960661600358</v>
       </c>
       <c r="M49" s="1">
-        <v>2956.3820224719102</v>
+        <v>3742.3960661600358</v>
       </c>
       <c r="N49" s="1">
-        <v>2956.3820224719102</v>
+        <v>3742.3960661600358</v>
       </c>
       <c r="O49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4100.6935123042513</v>
       </c>
       <c r="P49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4257.2672064777335</v>
       </c>
       <c r="Q49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="R49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="S49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="T49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="U49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="V49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="W49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="X49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="Y49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="Z49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AA49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AB49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AC49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AD49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AE49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AF49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AG49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
       <c r="AH49" s="1">
-        <v>2956.3820224719102</v>
+        <v>4360.653514180025</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -5572,14 +5572,14 @@
       <c r="I50" s="1">
         <v>2848.826086956522</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>2</v>
+      <c r="J50" s="1">
+        <v>3153.2608695652175</v>
+      </c>
+      <c r="K50" s="1">
+        <v>7732.3043478260879</v>
+      </c>
+      <c r="L50" s="1">
+        <v>11449.846153846154</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>2</v>
@@ -5587,14 +5587,14 @@
       <c r="N50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>2</v>
+      <c r="O50" s="1">
+        <v>1891.7468354430378</v>
+      </c>
+      <c r="P50" s="1">
+        <v>9879.7350993377477</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>12177.272727272728</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>2</v>
@@ -5676,14 +5676,14 @@
       <c r="I51" s="1">
         <v>11250.663716814159</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>2</v>
+      <c r="J51" s="1">
+        <v>11467</v>
+      </c>
+      <c r="K51" s="1">
+        <v>10638</v>
+      </c>
+      <c r="L51" s="1">
+        <v>5296.8396226415098</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>2</v>
@@ -5694,11 +5694,11 @@
       <c r="O51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>2</v>
+      <c r="P51" s="1">
+        <v>4106.8965517241377</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>3208.6956521739135</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>2</v>
@@ -5780,11 +5780,11 @@
       <c r="I52" s="1">
         <v>2743.5652173913045</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>2</v>
+      <c r="J52" s="1">
+        <v>4833.2608695652179</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3209.0526315789471</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
@@ -5798,11 +5798,11 @@
       <c r="O52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>2</v>
+      <c r="P52" s="1">
+        <v>3588.6</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>3138.7775061124694</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>2</v>
@@ -5885,79 +5885,79 @@
         <v>2848.826086956522</v>
       </c>
       <c r="J53" s="1">
-        <v>2848.826086956522</v>
+        <v>3001.04347826087</v>
       </c>
       <c r="K53" s="1">
-        <v>2848.826086956522</v>
+        <v>4578.130434782609</v>
       </c>
       <c r="L53" s="1">
-        <v>2848.826086956522</v>
+        <v>6092.2372881355941</v>
       </c>
       <c r="M53" s="1">
-        <v>2848.826086956522</v>
+        <v>6092.2372881355941</v>
       </c>
       <c r="N53" s="1">
-        <v>2848.826086956522</v>
+        <v>6092.2372881355941</v>
       </c>
       <c r="O53" s="1">
-        <v>2848.826086956522</v>
+        <v>5325.8660508083149</v>
       </c>
       <c r="P53" s="1">
-        <v>2848.826086956522</v>
+        <v>6113.8349885408707</v>
       </c>
       <c r="Q53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="R53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="S53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="T53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="U53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="V53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="W53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="X53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="Y53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="Z53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AA53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AB53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AC53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AD53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AE53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AF53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AG53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
       <c r="AH53" s="1">
-        <v>2848.826086956522</v>
+        <v>6495.7838224767365</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -5989,79 +5989,79 @@
         <v>11250.663716814159</v>
       </c>
       <c r="J54" s="1">
-        <v>11250.663716814159</v>
+        <v>11362.081545064379</v>
       </c>
       <c r="K54" s="1">
-        <v>11250.663716814159</v>
+        <v>11115.934844192636</v>
       </c>
       <c r="L54" s="1">
-        <v>11250.663716814159</v>
+        <v>9772.091503267975</v>
       </c>
       <c r="M54" s="1">
-        <v>11250.663716814159</v>
+        <v>9772.091503267975</v>
       </c>
       <c r="N54" s="1">
-        <v>11250.663716814159</v>
+        <v>9772.091503267975</v>
       </c>
       <c r="O54" s="1">
-        <v>11250.663716814159</v>
+        <v>9772.091503267975</v>
       </c>
       <c r="P54" s="1">
-        <v>11250.663716814159</v>
+        <v>9684</v>
       </c>
       <c r="Q54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="R54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="S54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="T54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="U54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="V54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="W54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="X54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="Y54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="Z54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AA54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AB54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AC54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AD54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AE54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AF54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AG54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
       <c r="AH54" s="1">
-        <v>11250.663716814159</v>
+        <v>8402.8645161290315</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -6093,79 +6093,79 @@
         <v>6202.265060240964</v>
       </c>
       <c r="J55" s="1">
-        <v>6202.265060240964</v>
+        <v>5714.0930232558139</v>
       </c>
       <c r="K55" s="1">
-        <v>6202.265060240964</v>
+        <v>5144.08383233533</v>
       </c>
       <c r="L55" s="1">
-        <v>6202.265060240964</v>
+        <v>5144.08383233533</v>
       </c>
       <c r="M55" s="1">
-        <v>6202.265060240964</v>
+        <v>5144.08383233533</v>
       </c>
       <c r="N55" s="1">
-        <v>6202.265060240964</v>
+        <v>5144.08383233533</v>
       </c>
       <c r="O55" s="1">
-        <v>6202.265060240964</v>
+        <v>5144.08383233533</v>
       </c>
       <c r="P55" s="1">
-        <v>6202.265060240964</v>
+        <v>4843.507246376812</v>
       </c>
       <c r="Q55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="R55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="S55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="T55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="U55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="V55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="W55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="X55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="Y55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="Z55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AA55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AB55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AC55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AD55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AE55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AF55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AG55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
       <c r="AH55" s="1">
-        <v>6202.265060240964</v>
+        <v>4562.2509076240422</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -6196,14 +6196,14 @@
       <c r="I56" s="1">
         <v>1761.1304347826087</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>2</v>
+      <c r="J56" s="1">
+        <v>1932.7826086956522</v>
+      </c>
+      <c r="K56" s="1">
+        <v>3673.6956521739135</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2637.6053215077604</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>2</v>
@@ -6211,14 +6211,14 @@
       <c r="N56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>2</v>
+      <c r="O56" s="1">
+        <v>1469.3478260869567</v>
+      </c>
+      <c r="P56" s="1">
+        <v>2613.2608695652175</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>696</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>2</v>
@@ -6300,14 +6300,14 @@
       <c r="I57" s="1">
         <v>2159.3406593406594</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>2</v>
+      <c r="J57" s="1">
+        <v>3178.7412587412587</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3142.5333333333333</v>
+      </c>
+      <c r="L57" s="1">
+        <v>3431.4782608695655</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>2</v>
@@ -6318,11 +6318,11 @@
       <c r="O57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>2</v>
+      <c r="P57" s="1">
+        <v>3007.826086956522</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>2926.304347826087</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>2</v>
@@ -6404,14 +6404,14 @@
       <c r="I58" s="1">
         <v>3926.5771812080534</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>2</v>
+      <c r="J58" s="1">
+        <v>3601.9292604501607</v>
+      </c>
+      <c r="K58" s="1">
+        <v>3561.3913043478265</v>
+      </c>
+      <c r="L58" s="1">
+        <v>3474.2769230769227</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>2</v>
@@ -6509,79 +6509,79 @@
         <v>2421.326086956522</v>
       </c>
       <c r="J59" s="1">
-        <v>2421.326086956522</v>
+        <v>2258.478260869565</v>
       </c>
       <c r="K59" s="1">
-        <v>2421.326086956522</v>
+        <v>2612.2826086956525</v>
       </c>
       <c r="L59" s="1">
-        <v>2421.326086956522</v>
+        <v>2617.2675687472715</v>
       </c>
       <c r="M59" s="1">
-        <v>2421.326086956522</v>
+        <v>2617.2675687472715</v>
       </c>
       <c r="N59" s="1">
-        <v>2421.326086956522</v>
+        <v>2617.2675687472715</v>
       </c>
       <c r="O59" s="1">
-        <v>2421.326086956522</v>
+        <v>2425.3217011995639</v>
       </c>
       <c r="P59" s="1">
-        <v>2421.326086956522</v>
+        <v>2452.2454064154467</v>
       </c>
       <c r="Q59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="R59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="S59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="T59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="U59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="V59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="W59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="X59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="Y59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="Z59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AA59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AB59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AC59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AD59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AE59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AF59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AG59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
       <c r="AH59" s="1">
-        <v>2421.326086956522</v>
+        <v>2232.1765186597654</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -6613,79 +6613,79 @@
         <v>2965.216316440049</v>
       </c>
       <c r="J60" s="1">
-        <v>2965.216316440049</v>
+        <v>2997.2899159663866</v>
       </c>
       <c r="K60" s="1">
-        <v>2965.216316440049</v>
+        <v>3043.9087018544933</v>
       </c>
       <c r="L60" s="1">
-        <v>2965.216316440049</v>
+        <v>3139.6562835660579</v>
       </c>
       <c r="M60" s="1">
-        <v>2965.216316440049</v>
+        <v>3139.6562835660579</v>
       </c>
       <c r="N60" s="1">
-        <v>2965.216316440049</v>
+        <v>3139.6562835660579</v>
       </c>
       <c r="O60" s="1">
-        <v>2965.216316440049</v>
+        <v>3139.6562835660579</v>
       </c>
       <c r="P60" s="1">
-        <v>2965.216316440049</v>
+        <v>3113.5400516795862</v>
       </c>
       <c r="Q60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="R60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="S60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="T60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="U60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="V60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="W60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="X60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="Y60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="Z60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AA60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AB60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AC60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AD60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AE60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AF60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AG60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
       <c r="AH60" s="1">
-        <v>2965.216316440049</v>
+        <v>3082.5808770668582</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -6717,79 +6717,79 @@
         <v>3070.6504961411247</v>
       </c>
       <c r="J61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3206.3054187192115</v>
       </c>
       <c r="K61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3303.6471990464838</v>
       </c>
       <c r="L61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="M61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="N61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="O61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="P61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="Q61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="R61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="S61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="T61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="U61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="V61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="W61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="X61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="Y61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="Z61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AA61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AB61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AC61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AD61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AE61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AF61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AG61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
       <c r="AH61" s="1">
-        <v>3070.6504961411247</v>
+        <v>3331.3330004992513</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -6820,14 +6820,14 @@
       <c r="I62" s="1">
         <v>3888.3913043478265</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>2</v>
+      <c r="J62" s="1">
+        <v>5528.1222707423585</v>
+      </c>
+      <c r="K62" s="1">
+        <v>4510.1739130434789</v>
+      </c>
+      <c r="L62" s="1">
+        <v>7733.3447098976121</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>2</v>
@@ -6835,14 +6835,14 @@
       <c r="N62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>2</v>
+      <c r="O62" s="1">
+        <v>2748.3116883116886</v>
+      </c>
+      <c r="P62" s="1">
+        <v>3525.9060402684563</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>3890.5909090909086</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>2</v>
@@ -6924,14 +6924,14 @@
       <c r="I63" s="1">
         <v>3437.8666666666668</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>2</v>
+      <c r="J63" s="1">
+        <v>2608.434782608696</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3376.304347826087</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1982.608695652174</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>2</v>
@@ -6942,11 +6942,11 @@
       <c r="O63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>2</v>
+      <c r="P63" s="1">
+        <v>1509.4090909090908</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>7305.875</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>2</v>
@@ -7028,14 +7028,14 @@
       <c r="I64" s="1">
         <v>6810.4677060133627</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>2</v>
+      <c r="J64" s="1">
+        <v>13041.842696629214</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3717.8426966292132</v>
+      </c>
+      <c r="L64" s="1">
+        <v>5009.333333333333</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>2</v>
@@ -7043,14 +7043,14 @@
       <c r="N64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>2</v>
+      <c r="O64" s="1">
+        <v>10182.857142857143</v>
+      </c>
+      <c r="P64" s="1">
+        <v>6220.5842696629215</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>5994</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>2</v>
@@ -7133,79 +7133,79 @@
         <v>3888.3913043478265</v>
       </c>
       <c r="J65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4706.4705882352946</v>
       </c>
       <c r="K65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4640.9433962264156</v>
       </c>
       <c r="L65" s="1">
-        <v>3888.3913043478265</v>
+        <v>5563.6252545824846</v>
       </c>
       <c r="M65" s="1">
-        <v>3888.3913043478265</v>
+        <v>5563.6252545824846</v>
       </c>
       <c r="N65" s="1">
-        <v>3888.3913043478265</v>
+        <v>5563.6252545824846</v>
       </c>
       <c r="O65" s="1">
-        <v>3888.3913043478265</v>
+        <v>5102.1966794380578</v>
       </c>
       <c r="P65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4850.1931330472098</v>
       </c>
       <c r="Q65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="R65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="S65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="T65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="U65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="V65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="W65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="X65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="Y65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="Z65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AA65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AB65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AC65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AD65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AE65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AF65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AG65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
       <c r="AH65" s="1">
-        <v>3888.3913043478265</v>
+        <v>4719.7156983930772</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -7237,79 +7237,79 @@
         <v>3436.5405405405409</v>
       </c>
       <c r="J66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3119.1</v>
       </c>
       <c r="K66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3190.3734939759038</v>
       </c>
       <c r="L66" s="1">
-        <v>3436.5405405405409</v>
+        <v>2928.3113207547176</v>
       </c>
       <c r="M66" s="1">
-        <v>3436.5405405405409</v>
+        <v>2928.3113207547176</v>
       </c>
       <c r="N66" s="1">
-        <v>3436.5405405405409</v>
+        <v>2928.3113207547176</v>
       </c>
       <c r="O66" s="1">
-        <v>3436.5405405405409</v>
+        <v>2928.3113207547176</v>
       </c>
       <c r="P66" s="1">
-        <v>3436.5405405405409</v>
+        <v>2684.4375</v>
       </c>
       <c r="Q66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="R66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="S66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="T66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="U66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="V66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="W66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="X66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="Y66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="Z66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AA66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AB66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AC66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AD66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AE66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AF66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AG66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
       <c r="AH66" s="1">
-        <v>3436.5405405405409</v>
+        <v>3414.1381578947367</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
@@ -7341,79 +7341,79 @@
         <v>4785.8085808580863</v>
       </c>
       <c r="J67" s="1">
-        <v>4785.8085808580863</v>
+        <v>7499.2023633677991</v>
       </c>
       <c r="K67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6563.8465814341307</v>
       </c>
       <c r="L67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6252.8056914184081</v>
       </c>
       <c r="M67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6252.8056914184081</v>
       </c>
       <c r="N67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6252.8056914184081</v>
       </c>
       <c r="O67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6905.6284760845392</v>
       </c>
       <c r="P67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6808.605983450032</v>
       </c>
       <c r="Q67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="R67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="S67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="T67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="U67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="V67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="W67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="X67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="Y67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="Z67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AA67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AB67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AC67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AD67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AE67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AF67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AG67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
       <c r="AH67" s="1">
-        <v>4785.8085808580863</v>
+        <v>6706.5534521158124</v>
       </c>
     </row>
   </sheetData>
